--- a/3-tecnologia/2-procesos/1-relevamiento-de-activos/1-procedimiento/ficha-relevamiento-de-activos-v3.xlsx
+++ b/3-tecnologia/2-procesos/1-relevamiento-de-activos/1-procedimiento/ficha-relevamiento-de-activos-v3.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="259">
   <si>
     <t xml:space="preserve">        /        /</t>
   </si>
@@ -754,9 +754,6 @@
     <t>2.29.) Griferias y accesorios</t>
   </si>
   <si>
-    <t>2.29.6.) Dispenser papel para manos embutido inox</t>
-  </si>
-  <si>
     <t>2.29.1.) Griferia de pared Fv</t>
   </si>
   <si>
@@ -766,42 +763,6 @@
     <t>2.29.3.) Griferia pileta cocina</t>
   </si>
   <si>
-    <t>2.29.4.) Griferia pileta cocina</t>
-  </si>
-  <si>
-    <t>2.29.5.) Dispenser jabon liquido</t>
-  </si>
-  <si>
-    <t>2.29.7.) Dispenser papel para manos acero inox</t>
-  </si>
-  <si>
-    <t>2.29.9.) Dispenser papel para manos acero inox</t>
-  </si>
-  <si>
-    <t>2.29.10.) Dispenser papel higienico embutido acero inox</t>
-  </si>
-  <si>
-    <t>2.29.11.) Dispenser papel higienico acero inox</t>
-  </si>
-  <si>
-    <t>2.29.12) Papelero embutido acero inox</t>
-  </si>
-  <si>
-    <t>2.29.13.) Percha acero inox</t>
-  </si>
-  <si>
-    <t>2.29.14.) Dispenser jabon liquido</t>
-  </si>
-  <si>
-    <t>2.29.15.) Espejo medidas varias</t>
-  </si>
-  <si>
-    <t>2.29.16.) Rejilla acero inox. 12x12</t>
-  </si>
-  <si>
-    <t>2.29.17.) Rejilla acero inox ciega 12x12</t>
-  </si>
-  <si>
     <t>2.30.)  Mesadas</t>
   </si>
   <si>
@@ -809,6 +770,39 @@
   </si>
   <si>
     <t>2.30.2.) Acero inoxidable</t>
+  </si>
+  <si>
+    <t>2.29.4.) Dispenser jabon liquido</t>
+  </si>
+  <si>
+    <t>2.29.5.) Dispenser papel para manos embutido inox</t>
+  </si>
+  <si>
+    <t>2.29.6.) Dispenser papel para manos acero inox</t>
+  </si>
+  <si>
+    <t>2.29.7.) Dispenser papel higienico embutido acero inox</t>
+  </si>
+  <si>
+    <t>2.29.8.) Dispenser papel higienico acero inox</t>
+  </si>
+  <si>
+    <t>2.29.9.) Papelero embutido acero inox</t>
+  </si>
+  <si>
+    <t>2.29.10.) Percha acero inox</t>
+  </si>
+  <si>
+    <t>2.29.11.) Dispenser jabon liquido</t>
+  </si>
+  <si>
+    <t>2.29.12.) Espejo medidas varias</t>
+  </si>
+  <si>
+    <t>2.29.13.) Rejilla acero inox. 12x12</t>
+  </si>
+  <si>
+    <t>2.29.14.) Rejilla acero inox ciega 12x12</t>
   </si>
 </sst>
 </file>
@@ -2047,6 +2041,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2056,127 +2116,370 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2207,15 +2510,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2263,296 +2557,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2561,27 +2576,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4206,13 +4200,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>300</xdr:row>
+      <xdr:row>298</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>300</xdr:row>
+      <xdr:row>298</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4546,10 +4540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P319"/>
+  <dimension ref="A1:P317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A298" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A296" sqref="A296:C296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4575,21 +4569,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="144" t="s">
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="209" t="s">
         <v>202</v>
       </c>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="145"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="210"/>
       <c r="M1" s="45" t="s">
         <v>1</v>
       </c>
@@ -4604,17 +4598,17 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="126"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="129"/>
+      <c r="A2" s="226"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="228"/>
+      <c r="K2" s="229"/>
       <c r="M2" s="44" t="s">
         <v>133</v>
       </c>
@@ -4632,20 +4626,20 @@
       <c r="A3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="124" t="s">
+      <c r="C3" s="216"/>
+      <c r="D3" s="224" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="132"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="225"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="232"/>
       <c r="M3" s="44" t="s">
         <v>134</v>
       </c>
@@ -4660,17 +4654,17 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="117"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="120"/>
+      <c r="A4" s="220"/>
+      <c r="B4" s="221"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="222"/>
+      <c r="J4" s="222"/>
+      <c r="K4" s="223"/>
       <c r="M4" s="44" t="s">
         <v>135</v>
       </c>
@@ -4682,19 +4676,19 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="123"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="135"/>
       <c r="N5" s="44" t="s">
         <v>140</v>
       </c>
@@ -4706,16 +4700,16 @@
       <c r="A6" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="149"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="151"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="140"/>
       <c r="P6" s="44" t="s">
         <v>157</v>
       </c>
@@ -4724,16 +4718,16 @@
       <c r="A7" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="149"/>
-      <c r="C7" s="150"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="151"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="140"/>
       <c r="P7" s="44" t="s">
         <v>158</v>
       </c>
@@ -4742,16 +4736,16 @@
       <c r="A8" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="113"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="215"/>
+      <c r="F8" s="215"/>
+      <c r="G8" s="215"/>
+      <c r="H8" s="215"/>
+      <c r="I8" s="215"/>
+      <c r="J8" s="215"/>
+      <c r="K8" s="216"/>
       <c r="P8" s="44" t="s">
         <v>159</v>
       </c>
@@ -4760,16 +4754,16 @@
       <c r="A9" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="116"/>
+      <c r="B9" s="217"/>
+      <c r="C9" s="218"/>
+      <c r="D9" s="218"/>
+      <c r="E9" s="218"/>
+      <c r="F9" s="218"/>
+      <c r="G9" s="218"/>
+      <c r="H9" s="218"/>
+      <c r="I9" s="218"/>
+      <c r="J9" s="218"/>
+      <c r="K9" s="219"/>
       <c r="P9" s="44" t="s">
         <v>160</v>
       </c>
@@ -4778,16 +4772,16 @@
       <c r="A10" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="116"/>
+      <c r="B10" s="217"/>
+      <c r="C10" s="218"/>
+      <c r="D10" s="218"/>
+      <c r="E10" s="218"/>
+      <c r="F10" s="218"/>
+      <c r="G10" s="218"/>
+      <c r="H10" s="218"/>
+      <c r="I10" s="218"/>
+      <c r="J10" s="218"/>
+      <c r="K10" s="219"/>
       <c r="P10" s="44" t="s">
         <v>161</v>
       </c>
@@ -4796,60 +4790,60 @@
       <c r="A11" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="116"/>
+      <c r="B11" s="217"/>
+      <c r="C11" s="218"/>
+      <c r="D11" s="218"/>
+      <c r="E11" s="218"/>
+      <c r="F11" s="218"/>
+      <c r="G11" s="218"/>
+      <c r="H11" s="218"/>
+      <c r="I11" s="218"/>
+      <c r="J11" s="218"/>
+      <c r="K11" s="219"/>
       <c r="P11" s="44" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="133"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="135"/>
+      <c r="A12" s="233"/>
+      <c r="B12" s="234"/>
+      <c r="C12" s="234"/>
+      <c r="D12" s="234"/>
+      <c r="E12" s="234"/>
+      <c r="F12" s="234"/>
+      <c r="G12" s="234"/>
+      <c r="H12" s="234"/>
+      <c r="I12" s="234"/>
+      <c r="J12" s="234"/>
+      <c r="K12" s="235"/>
       <c r="P12" s="44" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="123"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="135"/>
       <c r="P13" s="44" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="139" t="s">
+      <c r="A14" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="140"/>
-      <c r="C14" s="141"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="118"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
         <v>2</v>
@@ -4857,253 +4851,253 @@
       <c r="F14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="90" t="s">
+      <c r="G14" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="91"/>
+      <c r="H14" s="175"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="176"/>
       <c r="P14" s="44" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="92" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="110"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="132"/>
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="78"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="76"/>
       <c r="P15" s="44" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="B16" s="83"/>
-      <c r="C16" s="84"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="10"/>
       <c r="E16" s="47"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="78"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="76"/>
       <c r="P16" s="44" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="B17" s="83"/>
-      <c r="C17" s="84"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="79"/>
       <c r="D17" s="52"/>
       <c r="E17" s="48"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="78"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="76"/>
       <c r="P17" s="44" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="10"/>
       <c r="E18" s="48"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="78"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="76"/>
       <c r="P18" s="44" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="10"/>
       <c r="E19" s="48"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="78"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="76"/>
       <c r="P19" s="44" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="73" t="s">
         <v>190</v>
       </c>
-      <c r="B20" s="83"/>
-      <c r="C20" s="84"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="52"/>
       <c r="E20" s="47"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="87"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="88"/>
       <c r="P20" s="44" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="B21" s="83"/>
-      <c r="C21" s="84"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="79"/>
       <c r="D21" s="10"/>
       <c r="E21" s="48"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="87"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="88"/>
       <c r="P21" s="44" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="B22" s="83"/>
-      <c r="C22" s="84"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="79"/>
       <c r="D22" s="52"/>
       <c r="E22" s="48"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="87"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="88"/>
       <c r="P22" s="44" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="73" t="s">
         <v>191</v>
       </c>
-      <c r="B23" s="83"/>
-      <c r="C23" s="84"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="79"/>
       <c r="D23" s="10"/>
       <c r="E23" s="48"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="87"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="88"/>
       <c r="P23" s="44" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="B24" s="83"/>
-      <c r="C24" s="84"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
       <c r="D24" s="52"/>
       <c r="E24" s="47"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="87"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="88"/>
       <c r="P24" s="44" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="83"/>
-      <c r="C25" s="84"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="79"/>
       <c r="D25" s="10"/>
       <c r="E25" s="58"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="87"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="88"/>
       <c r="P25" s="44"/>
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B26" s="83"/>
-      <c r="C26" s="84"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="79"/>
       <c r="D26" s="10"/>
       <c r="E26" s="47"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="87"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="88"/>
       <c r="P26" s="44" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="85"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="87"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="88"/>
       <c r="P27" s="44" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="71"/>
-      <c r="C28" s="72"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="70"/>
       <c r="D28" s="11"/>
       <c r="E28" s="6" t="s">
         <v>2</v>
@@ -5111,141 +5105,141 @@
       <c r="F28" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G28" s="90" t="s">
+      <c r="G28" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="91"/>
+      <c r="H28" s="175"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="175"/>
+      <c r="K28" s="176"/>
       <c r="P28" s="44" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="136" t="s">
+      <c r="A29" s="236" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="137"/>
-      <c r="C29" s="138"/>
+      <c r="B29" s="237"/>
+      <c r="C29" s="238"/>
       <c r="D29" s="10"/>
       <c r="E29" s="13"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="152"/>
-      <c r="H29" s="153"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="153"/>
-      <c r="K29" s="154"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="143"/>
+      <c r="K29" s="189"/>
     </row>
     <row r="30" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="136" t="s">
+      <c r="A30" s="236" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="137"/>
-      <c r="C30" s="138"/>
+      <c r="B30" s="237"/>
+      <c r="C30" s="238"/>
       <c r="D30" s="10"/>
       <c r="E30" s="13"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="84"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="79"/>
     </row>
     <row r="31" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="136" t="s">
+      <c r="A31" s="236" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="137"/>
-      <c r="C31" s="138"/>
+      <c r="B31" s="237"/>
+      <c r="C31" s="238"/>
       <c r="D31" s="10"/>
       <c r="E31" s="46"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="157"/>
+      <c r="G31" s="198"/>
+      <c r="H31" s="199"/>
+      <c r="I31" s="199"/>
+      <c r="J31" s="199"/>
+      <c r="K31" s="200"/>
     </row>
     <row r="32" spans="1:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="222" t="s">
+      <c r="A32" s="95" t="s">
         <v>174</v>
       </c>
-      <c r="B32" s="223"/>
-      <c r="C32" s="224"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="97"/>
       <c r="D32" s="49"/>
       <c r="E32" s="50"/>
       <c r="F32" s="49"/>
-      <c r="G32" s="225"/>
-      <c r="H32" s="226"/>
-      <c r="I32" s="226"/>
-      <c r="J32" s="226"/>
-      <c r="K32" s="227"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="100"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="215" t="s">
+      <c r="A33" s="101" t="s">
         <v>175</v>
       </c>
-      <c r="B33" s="159"/>
-      <c r="C33" s="160"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="103"/>
       <c r="D33" s="49"/>
       <c r="E33" s="51"/>
       <c r="F33" s="49"/>
-      <c r="G33" s="216"/>
-      <c r="H33" s="217"/>
-      <c r="I33" s="217"/>
-      <c r="J33" s="217"/>
-      <c r="K33" s="218"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="106"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="75" t="s">
+      <c r="A34" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B34" s="83"/>
-      <c r="C34" s="84"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="79"/>
       <c r="D34" s="10"/>
       <c r="E34" s="47"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="87"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="88"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="75" t="s">
+      <c r="A35" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B35" s="83"/>
-      <c r="C35" s="84"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="79"/>
       <c r="D35" s="10"/>
       <c r="E35" s="47"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="87"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="88"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="85"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="87"/>
+      <c r="A36" s="86"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="88"/>
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="70" t="s">
+      <c r="A37" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="71"/>
-      <c r="C37" s="72"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="14"/>
       <c r="E37" s="15" t="s">
         <v>2</v>
@@ -5253,228 +5247,228 @@
       <c r="F37" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G37" s="90" t="s">
+      <c r="G37" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="H37" s="90"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="91"/>
+      <c r="H37" s="175"/>
+      <c r="I37" s="175"/>
+      <c r="J37" s="175"/>
+      <c r="K37" s="176"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="75" t="s">
+      <c r="A38" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="76"/>
-      <c r="C38" s="78"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="76"/>
       <c r="D38" s="10"/>
       <c r="E38" s="16"/>
       <c r="F38" s="10"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="78"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="76"/>
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="75" t="s">
+      <c r="A39" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="76"/>
-      <c r="C39" s="78"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="10"/>
       <c r="E39" s="17"/>
       <c r="F39" s="10"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="78"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="76"/>
     </row>
     <row r="40" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="75" t="s">
+      <c r="A40" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="76"/>
-      <c r="C40" s="96"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="109"/>
       <c r="D40" s="10"/>
       <c r="E40" s="18"/>
       <c r="F40" s="10"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="78"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="76"/>
     </row>
     <row r="41" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="75" t="s">
+      <c r="A41" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="76"/>
-      <c r="C41" s="96"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="109"/>
       <c r="D41" s="10"/>
       <c r="E41" s="18"/>
       <c r="F41" s="10"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="78"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="76"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="75" t="s">
+      <c r="A42" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="76"/>
-      <c r="C42" s="96"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="109"/>
       <c r="D42" s="10"/>
       <c r="E42" s="18"/>
       <c r="F42" s="10"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="76"/>
-      <c r="K42" s="78"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="76"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="75" t="s">
+      <c r="A43" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="76"/>
-      <c r="C43" s="96"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="109"/>
       <c r="D43" s="10"/>
       <c r="E43" s="18"/>
       <c r="F43" s="10"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="76"/>
-      <c r="K43" s="78"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="76"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="75" t="s">
+      <c r="A44" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="76"/>
-      <c r="C44" s="96"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="109"/>
       <c r="D44" s="10"/>
       <c r="E44" s="18"/>
       <c r="F44" s="10"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="76"/>
-      <c r="K44" s="78"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="76"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="75" t="s">
+      <c r="A45" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="76"/>
-      <c r="C45" s="96"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="109"/>
       <c r="D45" s="10"/>
       <c r="E45" s="18"/>
       <c r="F45" s="10"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="76"/>
-      <c r="I45" s="76"/>
-      <c r="J45" s="76"/>
-      <c r="K45" s="78"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="74"/>
+      <c r="K45" s="76"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="75" t="s">
+      <c r="A46" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="76"/>
-      <c r="C46" s="96"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="109"/>
       <c r="D46" s="10"/>
       <c r="E46" s="18"/>
       <c r="F46" s="10"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="76"/>
-      <c r="K46" s="78"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="76"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="75" t="s">
+      <c r="A47" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="76"/>
-      <c r="C47" s="96"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="109"/>
       <c r="D47" s="10"/>
       <c r="E47" s="19"/>
       <c r="F47" s="10"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="76"/>
-      <c r="K47" s="78"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="76"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="75" t="s">
+      <c r="A48" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="B48" s="83"/>
-      <c r="C48" s="84"/>
+      <c r="B48" s="78"/>
+      <c r="C48" s="79"/>
       <c r="D48" s="10"/>
       <c r="E48" s="47"/>
       <c r="F48" s="10"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="86"/>
-      <c r="I48" s="86"/>
-      <c r="J48" s="86"/>
-      <c r="K48" s="87"/>
+      <c r="G48" s="86"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="87"/>
+      <c r="K48" s="88"/>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="75" t="s">
+      <c r="A49" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B49" s="83"/>
-      <c r="C49" s="84"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="79"/>
       <c r="D49" s="10"/>
       <c r="E49" s="58"/>
       <c r="F49" s="10"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="86"/>
-      <c r="I49" s="86"/>
-      <c r="J49" s="86"/>
-      <c r="K49" s="87"/>
+      <c r="G49" s="86"/>
+      <c r="H49" s="87"/>
+      <c r="I49" s="87"/>
+      <c r="J49" s="87"/>
+      <c r="K49" s="88"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="75" t="s">
+      <c r="A50" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B50" s="83"/>
-      <c r="C50" s="84"/>
+      <c r="B50" s="78"/>
+      <c r="C50" s="79"/>
       <c r="D50" s="10"/>
       <c r="E50" s="47"/>
       <c r="F50" s="10"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="86"/>
-      <c r="I50" s="86"/>
-      <c r="J50" s="86"/>
-      <c r="K50" s="87"/>
+      <c r="G50" s="86"/>
+      <c r="H50" s="87"/>
+      <c r="I50" s="87"/>
+      <c r="J50" s="87"/>
+      <c r="K50" s="88"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="75"/>
-      <c r="B51" s="76"/>
-      <c r="C51" s="76"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="76"/>
-      <c r="G51" s="76"/>
-      <c r="H51" s="76"/>
-      <c r="I51" s="76"/>
-      <c r="J51" s="76"/>
-      <c r="K51" s="78"/>
+      <c r="A51" s="73"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="74"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="76"/>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="230" t="s">
+      <c r="A52" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="231"/>
-      <c r="C52" s="232"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="112"/>
       <c r="D52" s="20"/>
       <c r="E52" s="15" t="s">
         <v>2</v>
@@ -5482,123 +5476,123 @@
       <c r="F52" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G52" s="233" t="s">
+      <c r="G52" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="234"/>
-      <c r="I52" s="234"/>
-      <c r="J52" s="234"/>
-      <c r="K52" s="235"/>
+      <c r="H52" s="114"/>
+      <c r="I52" s="114"/>
+      <c r="J52" s="114"/>
+      <c r="K52" s="115"/>
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="75" t="s">
+      <c r="A53" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="76"/>
-      <c r="C53" s="96"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="109"/>
       <c r="D53" s="10"/>
       <c r="E53" s="16"/>
       <c r="F53" s="10"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="76"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="78"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="74"/>
+      <c r="J53" s="74"/>
+      <c r="K53" s="76"/>
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="75" t="s">
+      <c r="A54" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="76"/>
-      <c r="C54" s="96"/>
+      <c r="B54" s="74"/>
+      <c r="C54" s="109"/>
       <c r="D54" s="10"/>
       <c r="E54" s="18"/>
       <c r="F54" s="10"/>
-      <c r="G54" s="75"/>
-      <c r="H54" s="76"/>
-      <c r="I54" s="76"/>
-      <c r="J54" s="76"/>
-      <c r="K54" s="78"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="74"/>
+      <c r="K54" s="76"/>
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="75" t="s">
+      <c r="A55" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="B55" s="76"/>
-      <c r="C55" s="96"/>
+      <c r="B55" s="74"/>
+      <c r="C55" s="109"/>
       <c r="D55" s="10"/>
       <c r="E55" s="16"/>
       <c r="F55" s="10"/>
-      <c r="G55" s="75"/>
-      <c r="H55" s="76"/>
-      <c r="I55" s="76"/>
-      <c r="J55" s="76"/>
-      <c r="K55" s="78"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="74"/>
+      <c r="I55" s="74"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="76"/>
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="75" t="s">
+      <c r="A56" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="B56" s="76"/>
-      <c r="C56" s="96"/>
+      <c r="B56" s="74"/>
+      <c r="C56" s="109"/>
       <c r="D56" s="10"/>
       <c r="E56" s="18"/>
       <c r="F56" s="10"/>
-      <c r="G56" s="75"/>
-      <c r="H56" s="76"/>
-      <c r="I56" s="76"/>
-      <c r="J56" s="76"/>
-      <c r="K56" s="78"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="74"/>
+      <c r="I56" s="74"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="76"/>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="75" t="s">
+      <c r="A57" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B57" s="83"/>
-      <c r="C57" s="84"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="79"/>
       <c r="D57" s="10"/>
       <c r="E57" s="47"/>
       <c r="F57" s="10"/>
-      <c r="G57" s="85"/>
-      <c r="H57" s="86"/>
-      <c r="I57" s="86"/>
-      <c r="J57" s="86"/>
-      <c r="K57" s="87"/>
+      <c r="G57" s="86"/>
+      <c r="H57" s="87"/>
+      <c r="I57" s="87"/>
+      <c r="J57" s="87"/>
+      <c r="K57" s="88"/>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="75" t="s">
+      <c r="A58" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B58" s="83"/>
-      <c r="C58" s="84"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="79"/>
       <c r="D58" s="10"/>
       <c r="E58" s="47"/>
       <c r="F58" s="10"/>
-      <c r="G58" s="85"/>
-      <c r="H58" s="86"/>
-      <c r="I58" s="86"/>
-      <c r="J58" s="86"/>
-      <c r="K58" s="87"/>
+      <c r="G58" s="86"/>
+      <c r="H58" s="87"/>
+      <c r="I58" s="87"/>
+      <c r="J58" s="87"/>
+      <c r="K58" s="88"/>
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="170"/>
-      <c r="B59" s="171"/>
-      <c r="C59" s="171"/>
-      <c r="D59" s="171"/>
-      <c r="E59" s="171"/>
-      <c r="F59" s="171"/>
-      <c r="G59" s="171"/>
-      <c r="H59" s="171"/>
-      <c r="I59" s="171"/>
-      <c r="J59" s="171"/>
-      <c r="K59" s="172"/>
+      <c r="A59" s="195"/>
+      <c r="B59" s="196"/>
+      <c r="C59" s="196"/>
+      <c r="D59" s="196"/>
+      <c r="E59" s="196"/>
+      <c r="F59" s="196"/>
+      <c r="G59" s="196"/>
+      <c r="H59" s="196"/>
+      <c r="I59" s="196"/>
+      <c r="J59" s="196"/>
+      <c r="K59" s="197"/>
     </row>
     <row r="60" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="70" t="s">
+      <c r="A60" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="B60" s="71"/>
-      <c r="C60" s="72"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="70"/>
       <c r="D60" s="23"/>
       <c r="E60" s="21" t="s">
         <v>2</v>
@@ -5606,273 +5600,273 @@
       <c r="F60" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G60" s="179" t="s">
+      <c r="G60" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="H60" s="179"/>
-      <c r="I60" s="179"/>
-      <c r="J60" s="179"/>
-      <c r="K60" s="180"/>
+      <c r="H60" s="190"/>
+      <c r="I60" s="190"/>
+      <c r="J60" s="190"/>
+      <c r="K60" s="191"/>
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="75" t="s">
+      <c r="A61" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="76"/>
-      <c r="C61" s="78"/>
+      <c r="B61" s="74"/>
+      <c r="C61" s="76"/>
       <c r="D61" s="10"/>
       <c r="E61" s="25"/>
       <c r="F61" s="10"/>
-      <c r="G61" s="167"/>
-      <c r="H61" s="168"/>
-      <c r="I61" s="168"/>
-      <c r="J61" s="168"/>
-      <c r="K61" s="169"/>
+      <c r="G61" s="180"/>
+      <c r="H61" s="181"/>
+      <c r="I61" s="181"/>
+      <c r="J61" s="181"/>
+      <c r="K61" s="182"/>
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="75" t="s">
+      <c r="A62" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="76"/>
-      <c r="C62" s="78"/>
+      <c r="B62" s="74"/>
+      <c r="C62" s="76"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
-      <c r="G62" s="167"/>
-      <c r="H62" s="168"/>
-      <c r="I62" s="168"/>
-      <c r="J62" s="168"/>
-      <c r="K62" s="169"/>
+      <c r="G62" s="180"/>
+      <c r="H62" s="181"/>
+      <c r="I62" s="181"/>
+      <c r="J62" s="181"/>
+      <c r="K62" s="182"/>
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="75" t="s">
+      <c r="A63" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="B63" s="76"/>
-      <c r="C63" s="78"/>
+      <c r="B63" s="74"/>
+      <c r="C63" s="76"/>
       <c r="D63" s="10"/>
       <c r="E63" s="22"/>
       <c r="F63" s="10"/>
-      <c r="G63" s="173"/>
-      <c r="H63" s="174"/>
-      <c r="I63" s="174"/>
-      <c r="J63" s="174"/>
-      <c r="K63" s="175"/>
+      <c r="G63" s="183"/>
+      <c r="H63" s="184"/>
+      <c r="I63" s="184"/>
+      <c r="J63" s="184"/>
+      <c r="K63" s="185"/>
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="75" t="s">
+      <c r="A64" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="76"/>
-      <c r="C64" s="76"/>
+      <c r="B64" s="74"/>
+      <c r="C64" s="74"/>
       <c r="D64" s="10"/>
       <c r="E64" s="26"/>
       <c r="F64" s="10"/>
-      <c r="G64" s="158"/>
-      <c r="H64" s="159"/>
-      <c r="I64" s="159"/>
-      <c r="J64" s="159"/>
-      <c r="K64" s="160"/>
+      <c r="G64" s="168"/>
+      <c r="H64" s="102"/>
+      <c r="I64" s="102"/>
+      <c r="J64" s="102"/>
+      <c r="K64" s="103"/>
     </row>
     <row r="65" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="92" t="s">
+      <c r="A65" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="B65" s="93"/>
-      <c r="C65" s="93"/>
+      <c r="B65" s="128"/>
+      <c r="C65" s="128"/>
       <c r="D65" s="10"/>
       <c r="E65" s="16"/>
       <c r="F65" s="10"/>
-      <c r="G65" s="176"/>
-      <c r="H65" s="177"/>
-      <c r="I65" s="177"/>
-      <c r="J65" s="177"/>
-      <c r="K65" s="178"/>
+      <c r="G65" s="169"/>
+      <c r="H65" s="170"/>
+      <c r="I65" s="170"/>
+      <c r="J65" s="170"/>
+      <c r="K65" s="171"/>
     </row>
     <row r="66" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="75" t="s">
+      <c r="A66" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="B66" s="76"/>
-      <c r="C66" s="76"/>
+      <c r="B66" s="74"/>
+      <c r="C66" s="74"/>
       <c r="D66" s="10"/>
       <c r="E66" s="18"/>
       <c r="F66" s="10"/>
-      <c r="G66" s="158"/>
-      <c r="H66" s="159"/>
-      <c r="I66" s="159"/>
-      <c r="J66" s="159"/>
-      <c r="K66" s="160"/>
+      <c r="G66" s="168"/>
+      <c r="H66" s="102"/>
+      <c r="I66" s="102"/>
+      <c r="J66" s="102"/>
+      <c r="K66" s="103"/>
     </row>
     <row r="67" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="92" t="s">
+      <c r="A67" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="B67" s="93"/>
-      <c r="C67" s="93"/>
+      <c r="B67" s="128"/>
+      <c r="C67" s="128"/>
       <c r="D67" s="10"/>
       <c r="E67" s="27"/>
       <c r="F67" s="10"/>
-      <c r="G67" s="176"/>
-      <c r="H67" s="177"/>
-      <c r="I67" s="177"/>
-      <c r="J67" s="177"/>
-      <c r="K67" s="178"/>
+      <c r="G67" s="169"/>
+      <c r="H67" s="170"/>
+      <c r="I67" s="170"/>
+      <c r="J67" s="170"/>
+      <c r="K67" s="171"/>
     </row>
     <row r="68" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="75" t="s">
+      <c r="A68" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="B68" s="76"/>
-      <c r="C68" s="76"/>
+      <c r="B68" s="74"/>
+      <c r="C68" s="74"/>
       <c r="D68" s="10"/>
       <c r="E68" s="28"/>
       <c r="F68" s="10"/>
-      <c r="G68" s="158"/>
-      <c r="H68" s="159"/>
-      <c r="I68" s="159"/>
-      <c r="J68" s="159"/>
-      <c r="K68" s="160"/>
+      <c r="G68" s="168"/>
+      <c r="H68" s="102"/>
+      <c r="I68" s="102"/>
+      <c r="J68" s="102"/>
+      <c r="K68" s="103"/>
     </row>
     <row r="69" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="75" t="s">
+      <c r="A69" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="B69" s="76"/>
-      <c r="C69" s="76"/>
+      <c r="B69" s="74"/>
+      <c r="C69" s="74"/>
       <c r="D69" s="10"/>
       <c r="E69" s="29"/>
       <c r="F69" s="10"/>
-      <c r="G69" s="158"/>
-      <c r="H69" s="159"/>
-      <c r="I69" s="159"/>
-      <c r="J69" s="159"/>
-      <c r="K69" s="160"/>
+      <c r="G69" s="168"/>
+      <c r="H69" s="102"/>
+      <c r="I69" s="102"/>
+      <c r="J69" s="102"/>
+      <c r="K69" s="103"/>
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="75" t="s">
+      <c r="A70" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="B70" s="76"/>
-      <c r="C70" s="76"/>
+      <c r="B70" s="74"/>
+      <c r="C70" s="74"/>
       <c r="D70" s="10"/>
       <c r="E70" s="29"/>
       <c r="F70" s="10"/>
-      <c r="G70" s="158"/>
-      <c r="H70" s="159"/>
-      <c r="I70" s="159"/>
-      <c r="J70" s="159"/>
-      <c r="K70" s="160"/>
+      <c r="G70" s="168"/>
+      <c r="H70" s="102"/>
+      <c r="I70" s="102"/>
+      <c r="J70" s="102"/>
+      <c r="K70" s="103"/>
     </row>
     <row r="71" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="75" t="s">
+      <c r="A71" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="B71" s="76"/>
-      <c r="C71" s="76"/>
+      <c r="B71" s="74"/>
+      <c r="C71" s="74"/>
       <c r="D71" s="10"/>
       <c r="E71" s="29"/>
       <c r="F71" s="10"/>
-      <c r="G71" s="158"/>
-      <c r="H71" s="159"/>
-      <c r="I71" s="159"/>
-      <c r="J71" s="159"/>
-      <c r="K71" s="160"/>
+      <c r="G71" s="168"/>
+      <c r="H71" s="102"/>
+      <c r="I71" s="102"/>
+      <c r="J71" s="102"/>
+      <c r="K71" s="103"/>
     </row>
     <row r="72" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="85" t="s">
+      <c r="A72" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="B72" s="86"/>
-      <c r="C72" s="86"/>
+      <c r="B72" s="87"/>
+      <c r="C72" s="87"/>
       <c r="D72" s="10"/>
       <c r="E72" s="30"/>
       <c r="F72" s="10"/>
-      <c r="G72" s="161"/>
-      <c r="H72" s="162"/>
-      <c r="I72" s="162"/>
-      <c r="J72" s="162"/>
-      <c r="K72" s="163"/>
+      <c r="G72" s="201"/>
+      <c r="H72" s="202"/>
+      <c r="I72" s="202"/>
+      <c r="J72" s="202"/>
+      <c r="K72" s="203"/>
     </row>
     <row r="73" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="85" t="s">
+      <c r="A73" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="B73" s="86"/>
-      <c r="C73" s="86"/>
+      <c r="B73" s="87"/>
+      <c r="C73" s="87"/>
       <c r="D73" s="10"/>
       <c r="E73" s="31"/>
       <c r="F73" s="10"/>
-      <c r="G73" s="161"/>
-      <c r="H73" s="162"/>
-      <c r="I73" s="162"/>
-      <c r="J73" s="162"/>
-      <c r="K73" s="163"/>
+      <c r="G73" s="201"/>
+      <c r="H73" s="202"/>
+      <c r="I73" s="202"/>
+      <c r="J73" s="202"/>
+      <c r="K73" s="203"/>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="75" t="s">
+      <c r="A74" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="B74" s="83"/>
-      <c r="C74" s="84"/>
+      <c r="B74" s="78"/>
+      <c r="C74" s="79"/>
       <c r="D74" s="10"/>
       <c r="E74" s="47"/>
       <c r="F74" s="10"/>
-      <c r="G74" s="85"/>
-      <c r="H74" s="86"/>
-      <c r="I74" s="86"/>
-      <c r="J74" s="86"/>
-      <c r="K74" s="87"/>
+      <c r="G74" s="86"/>
+      <c r="H74" s="87"/>
+      <c r="I74" s="87"/>
+      <c r="J74" s="87"/>
+      <c r="K74" s="88"/>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="75" t="s">
+      <c r="A75" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B75" s="83"/>
-      <c r="C75" s="84"/>
+      <c r="B75" s="78"/>
+      <c r="C75" s="79"/>
       <c r="D75" s="10"/>
       <c r="E75" s="47"/>
       <c r="F75" s="10"/>
-      <c r="G75" s="85"/>
-      <c r="H75" s="86"/>
-      <c r="I75" s="86"/>
-      <c r="J75" s="86"/>
-      <c r="K75" s="87"/>
+      <c r="G75" s="86"/>
+      <c r="H75" s="87"/>
+      <c r="I75" s="87"/>
+      <c r="J75" s="87"/>
+      <c r="K75" s="88"/>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="75" t="s">
+      <c r="A76" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B76" s="83"/>
-      <c r="C76" s="84"/>
+      <c r="B76" s="78"/>
+      <c r="C76" s="79"/>
       <c r="D76" s="10"/>
       <c r="E76" s="58"/>
       <c r="F76" s="10"/>
-      <c r="G76" s="85"/>
-      <c r="H76" s="86"/>
-      <c r="I76" s="86"/>
-      <c r="J76" s="86"/>
-      <c r="K76" s="87"/>
+      <c r="G76" s="86"/>
+      <c r="H76" s="87"/>
+      <c r="I76" s="87"/>
+      <c r="J76" s="87"/>
+      <c r="K76" s="88"/>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="79"/>
-      <c r="B77" s="80"/>
-      <c r="C77" s="80"/>
-      <c r="D77" s="80"/>
-      <c r="E77" s="80"/>
-      <c r="F77" s="80"/>
-      <c r="G77" s="80"/>
-      <c r="H77" s="80"/>
-      <c r="I77" s="80"/>
-      <c r="J77" s="80"/>
-      <c r="K77" s="97"/>
+      <c r="A77" s="92"/>
+      <c r="B77" s="93"/>
+      <c r="C77" s="93"/>
+      <c r="D77" s="93"/>
+      <c r="E77" s="93"/>
+      <c r="F77" s="93"/>
+      <c r="G77" s="93"/>
+      <c r="H77" s="93"/>
+      <c r="I77" s="93"/>
+      <c r="J77" s="93"/>
+      <c r="K77" s="124"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="228" t="s">
+      <c r="A78" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="B78" s="229"/>
-      <c r="C78" s="229"/>
+      <c r="B78" s="108"/>
+      <c r="C78" s="108"/>
       <c r="D78" s="32"/>
       <c r="E78" s="33" t="s">
         <v>2</v>
@@ -5880,153 +5874,153 @@
       <c r="F78" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G78" s="164" t="s">
+      <c r="G78" s="204" t="s">
         <v>3</v>
       </c>
-      <c r="H78" s="165"/>
-      <c r="I78" s="165"/>
-      <c r="J78" s="165"/>
-      <c r="K78" s="166"/>
+      <c r="H78" s="205"/>
+      <c r="I78" s="205"/>
+      <c r="J78" s="205"/>
+      <c r="K78" s="206"/>
     </row>
     <row r="79" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="75" t="s">
+      <c r="A79" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="B79" s="76"/>
-      <c r="C79" s="77"/>
+      <c r="B79" s="74"/>
+      <c r="C79" s="75"/>
       <c r="D79" s="10"/>
       <c r="E79" s="18"/>
       <c r="F79" s="10"/>
-      <c r="G79" s="75"/>
-      <c r="H79" s="76"/>
-      <c r="I79" s="76"/>
-      <c r="J79" s="76"/>
-      <c r="K79" s="78"/>
+      <c r="G79" s="73"/>
+      <c r="H79" s="74"/>
+      <c r="I79" s="74"/>
+      <c r="J79" s="74"/>
+      <c r="K79" s="76"/>
     </row>
     <row r="80" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="75" t="s">
+      <c r="A80" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="B80" s="76"/>
-      <c r="C80" s="77"/>
+      <c r="B80" s="74"/>
+      <c r="C80" s="75"/>
       <c r="D80" s="10"/>
       <c r="E80" s="18"/>
       <c r="F80" s="10"/>
-      <c r="G80" s="75"/>
-      <c r="H80" s="76"/>
-      <c r="I80" s="76"/>
-      <c r="J80" s="76"/>
-      <c r="K80" s="78"/>
+      <c r="G80" s="73"/>
+      <c r="H80" s="74"/>
+      <c r="I80" s="74"/>
+      <c r="J80" s="74"/>
+      <c r="K80" s="76"/>
     </row>
     <row r="81" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="92" t="s">
+      <c r="A81" s="127" t="s">
         <v>198</v>
       </c>
-      <c r="B81" s="93"/>
-      <c r="C81" s="107"/>
+      <c r="B81" s="128"/>
+      <c r="C81" s="129"/>
       <c r="D81" s="10"/>
       <c r="E81" s="16"/>
       <c r="F81" s="10"/>
-      <c r="G81" s="103"/>
-      <c r="H81" s="100"/>
-      <c r="I81" s="100"/>
-      <c r="J81" s="100"/>
-      <c r="K81" s="104"/>
+      <c r="G81" s="186"/>
+      <c r="H81" s="187"/>
+      <c r="I81" s="187"/>
+      <c r="J81" s="187"/>
+      <c r="K81" s="188"/>
     </row>
     <row r="82" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="75" t="s">
+      <c r="A82" s="73" t="s">
         <v>199</v>
       </c>
-      <c r="B82" s="76"/>
-      <c r="C82" s="77"/>
+      <c r="B82" s="74"/>
+      <c r="C82" s="75"/>
       <c r="D82" s="10"/>
       <c r="E82" s="18"/>
       <c r="F82" s="10"/>
-      <c r="G82" s="82"/>
-      <c r="H82" s="83"/>
-      <c r="I82" s="83"/>
-      <c r="J82" s="83"/>
-      <c r="K82" s="84"/>
+      <c r="G82" s="77"/>
+      <c r="H82" s="78"/>
+      <c r="I82" s="78"/>
+      <c r="J82" s="78"/>
+      <c r="K82" s="79"/>
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="75" t="s">
+      <c r="A83" s="73" t="s">
         <v>200</v>
       </c>
-      <c r="B83" s="76"/>
-      <c r="C83" s="77"/>
+      <c r="B83" s="74"/>
+      <c r="C83" s="75"/>
       <c r="D83" s="10"/>
       <c r="E83" s="18"/>
       <c r="F83" s="10"/>
-      <c r="G83" s="82"/>
-      <c r="H83" s="83"/>
-      <c r="I83" s="83"/>
-      <c r="J83" s="83"/>
-      <c r="K83" s="84"/>
+      <c r="G83" s="77"/>
+      <c r="H83" s="78"/>
+      <c r="I83" s="78"/>
+      <c r="J83" s="78"/>
+      <c r="K83" s="79"/>
     </row>
     <row r="84" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="75" t="s">
+      <c r="A84" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="B84" s="83"/>
-      <c r="C84" s="84"/>
+      <c r="B84" s="78"/>
+      <c r="C84" s="79"/>
       <c r="D84" s="10"/>
       <c r="E84" s="47"/>
       <c r="F84" s="10"/>
-      <c r="G84" s="85"/>
-      <c r="H84" s="86"/>
-      <c r="I84" s="86"/>
-      <c r="J84" s="86"/>
-      <c r="K84" s="87"/>
+      <c r="G84" s="86"/>
+      <c r="H84" s="87"/>
+      <c r="I84" s="87"/>
+      <c r="J84" s="87"/>
+      <c r="K84" s="88"/>
     </row>
     <row r="85" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="75" t="s">
+      <c r="A85" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B85" s="83"/>
-      <c r="C85" s="84"/>
+      <c r="B85" s="78"/>
+      <c r="C85" s="79"/>
       <c r="D85" s="10"/>
       <c r="E85" s="47"/>
       <c r="F85" s="10"/>
-      <c r="G85" s="85"/>
-      <c r="H85" s="86"/>
-      <c r="I85" s="86"/>
-      <c r="J85" s="86"/>
-      <c r="K85" s="87"/>
+      <c r="G85" s="86"/>
+      <c r="H85" s="87"/>
+      <c r="I85" s="87"/>
+      <c r="J85" s="87"/>
+      <c r="K85" s="88"/>
     </row>
     <row r="86" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="75" t="s">
+      <c r="A86" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B86" s="83"/>
-      <c r="C86" s="84"/>
+      <c r="B86" s="78"/>
+      <c r="C86" s="79"/>
       <c r="D86" s="10"/>
       <c r="E86" s="58"/>
       <c r="F86" s="10"/>
-      <c r="G86" s="85"/>
-      <c r="H86" s="86"/>
-      <c r="I86" s="86"/>
-      <c r="J86" s="86"/>
-      <c r="K86" s="87"/>
+      <c r="G86" s="86"/>
+      <c r="H86" s="87"/>
+      <c r="I86" s="87"/>
+      <c r="J86" s="87"/>
+      <c r="K86" s="88"/>
     </row>
     <row r="87" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="79"/>
-      <c r="B87" s="80"/>
-      <c r="C87" s="80"/>
-      <c r="D87" s="80"/>
-      <c r="E87" s="80"/>
-      <c r="F87" s="80"/>
-      <c r="G87" s="80"/>
-      <c r="H87" s="80"/>
-      <c r="I87" s="80"/>
-      <c r="J87" s="80"/>
-      <c r="K87" s="97"/>
+      <c r="A87" s="92"/>
+      <c r="B87" s="93"/>
+      <c r="C87" s="93"/>
+      <c r="D87" s="93"/>
+      <c r="E87" s="93"/>
+      <c r="F87" s="93"/>
+      <c r="G87" s="93"/>
+      <c r="H87" s="93"/>
+      <c r="I87" s="93"/>
+      <c r="J87" s="93"/>
+      <c r="K87" s="124"/>
     </row>
     <row r="88" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="70" t="s">
+      <c r="A88" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="B88" s="71"/>
-      <c r="C88" s="72"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="70"/>
       <c r="D88" s="11"/>
       <c r="E88" s="6" t="s">
         <v>2</v>
@@ -6034,108 +6028,108 @@
       <c r="F88" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G88" s="73" t="s">
+      <c r="G88" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H88" s="73"/>
-      <c r="I88" s="73"/>
-      <c r="J88" s="73"/>
-      <c r="K88" s="74"/>
+      <c r="H88" s="71"/>
+      <c r="I88" s="71"/>
+      <c r="J88" s="71"/>
+      <c r="K88" s="72"/>
     </row>
     <row r="89" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="92" t="s">
+      <c r="A89" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="B89" s="93"/>
-      <c r="C89" s="93"/>
+      <c r="B89" s="128"/>
+      <c r="C89" s="128"/>
       <c r="D89" s="10"/>
       <c r="E89" s="16"/>
       <c r="F89" s="10"/>
-      <c r="G89" s="152"/>
-      <c r="H89" s="153"/>
-      <c r="I89" s="153"/>
-      <c r="J89" s="153"/>
-      <c r="K89" s="154"/>
+      <c r="G89" s="142"/>
+      <c r="H89" s="143"/>
+      <c r="I89" s="143"/>
+      <c r="J89" s="143"/>
+      <c r="K89" s="189"/>
     </row>
     <row r="90" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="75" t="s">
+      <c r="A90" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="B90" s="76"/>
-      <c r="C90" s="76"/>
+      <c r="B90" s="74"/>
+      <c r="C90" s="74"/>
       <c r="D90" s="10"/>
       <c r="E90" s="18"/>
       <c r="F90" s="10"/>
-      <c r="G90" s="108"/>
-      <c r="H90" s="109"/>
-      <c r="I90" s="109"/>
-      <c r="J90" s="109"/>
-      <c r="K90" s="110"/>
+      <c r="G90" s="130"/>
+      <c r="H90" s="131"/>
+      <c r="I90" s="131"/>
+      <c r="J90" s="131"/>
+      <c r="K90" s="132"/>
     </row>
     <row r="91" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="75" t="s">
+      <c r="A91" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="B91" s="76"/>
-      <c r="C91" s="76"/>
+      <c r="B91" s="74"/>
+      <c r="C91" s="74"/>
       <c r="D91" s="10"/>
       <c r="E91" s="18"/>
       <c r="F91" s="10"/>
-      <c r="G91" s="82"/>
-      <c r="H91" s="83"/>
-      <c r="I91" s="83"/>
-      <c r="J91" s="83"/>
-      <c r="K91" s="84"/>
+      <c r="G91" s="77"/>
+      <c r="H91" s="78"/>
+      <c r="I91" s="78"/>
+      <c r="J91" s="78"/>
+      <c r="K91" s="79"/>
     </row>
     <row r="92" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="75" t="s">
+      <c r="A92" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B92" s="83"/>
-      <c r="C92" s="84"/>
+      <c r="B92" s="78"/>
+      <c r="C92" s="79"/>
       <c r="D92" s="10"/>
       <c r="E92" s="47"/>
       <c r="F92" s="10"/>
-      <c r="G92" s="85"/>
-      <c r="H92" s="86"/>
-      <c r="I92" s="86"/>
-      <c r="J92" s="86"/>
-      <c r="K92" s="87"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="87"/>
+      <c r="I92" s="87"/>
+      <c r="J92" s="87"/>
+      <c r="K92" s="88"/>
     </row>
     <row r="93" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="75" t="s">
+      <c r="A93" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B93" s="83"/>
-      <c r="C93" s="84"/>
+      <c r="B93" s="78"/>
+      <c r="C93" s="79"/>
       <c r="D93" s="10"/>
       <c r="E93" s="47"/>
       <c r="F93" s="10"/>
-      <c r="G93" s="85"/>
-      <c r="H93" s="86"/>
-      <c r="I93" s="86"/>
-      <c r="J93" s="86"/>
-      <c r="K93" s="87"/>
+      <c r="G93" s="86"/>
+      <c r="H93" s="87"/>
+      <c r="I93" s="87"/>
+      <c r="J93" s="87"/>
+      <c r="K93" s="88"/>
     </row>
     <row r="94" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="79"/>
-      <c r="B94" s="80"/>
-      <c r="C94" s="80"/>
-      <c r="D94" s="80"/>
-      <c r="E94" s="80"/>
-      <c r="F94" s="80"/>
-      <c r="G94" s="80"/>
-      <c r="H94" s="80"/>
-      <c r="I94" s="80"/>
-      <c r="J94" s="80"/>
-      <c r="K94" s="97"/>
+      <c r="A94" s="92"/>
+      <c r="B94" s="93"/>
+      <c r="C94" s="93"/>
+      <c r="D94" s="93"/>
+      <c r="E94" s="93"/>
+      <c r="F94" s="93"/>
+      <c r="G94" s="93"/>
+      <c r="H94" s="93"/>
+      <c r="I94" s="93"/>
+      <c r="J94" s="93"/>
+      <c r="K94" s="124"/>
     </row>
     <row r="95" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="70" t="s">
+      <c r="A95" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="B95" s="71"/>
-      <c r="C95" s="72"/>
+      <c r="B95" s="69"/>
+      <c r="C95" s="70"/>
       <c r="D95" s="11"/>
       <c r="E95" s="6" t="s">
         <v>2</v>
@@ -6143,93 +6137,93 @@
       <c r="F95" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G95" s="73" t="s">
+      <c r="G95" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H95" s="73"/>
-      <c r="I95" s="73"/>
-      <c r="J95" s="73"/>
-      <c r="K95" s="74"/>
+      <c r="H95" s="71"/>
+      <c r="I95" s="71"/>
+      <c r="J95" s="71"/>
+      <c r="K95" s="72"/>
     </row>
     <row r="96" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="75" t="s">
+      <c r="A96" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="B96" s="83"/>
-      <c r="C96" s="84"/>
+      <c r="B96" s="78"/>
+      <c r="C96" s="79"/>
       <c r="D96" s="10"/>
       <c r="E96" s="46"/>
       <c r="F96" s="10"/>
-      <c r="G96" s="181"/>
-      <c r="H96" s="182"/>
-      <c r="I96" s="182"/>
-      <c r="J96" s="182"/>
-      <c r="K96" s="183"/>
+      <c r="G96" s="192"/>
+      <c r="H96" s="193"/>
+      <c r="I96" s="193"/>
+      <c r="J96" s="193"/>
+      <c r="K96" s="194"/>
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="75" t="s">
+      <c r="A97" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="B97" s="83"/>
-      <c r="C97" s="84"/>
+      <c r="B97" s="78"/>
+      <c r="C97" s="79"/>
       <c r="D97" s="10"/>
       <c r="E97" s="47"/>
       <c r="F97" s="10"/>
-      <c r="G97" s="85"/>
-      <c r="H97" s="86"/>
-      <c r="I97" s="86"/>
-      <c r="J97" s="86"/>
-      <c r="K97" s="87"/>
+      <c r="G97" s="86"/>
+      <c r="H97" s="87"/>
+      <c r="I97" s="87"/>
+      <c r="J97" s="87"/>
+      <c r="K97" s="88"/>
     </row>
     <row r="98" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="75" t="s">
+      <c r="A98" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B98" s="83"/>
-      <c r="C98" s="84"/>
+      <c r="B98" s="78"/>
+      <c r="C98" s="79"/>
       <c r="D98" s="10"/>
       <c r="E98" s="47"/>
       <c r="F98" s="10"/>
-      <c r="G98" s="85"/>
-      <c r="H98" s="86"/>
-      <c r="I98" s="86"/>
-      <c r="J98" s="86"/>
-      <c r="K98" s="87"/>
+      <c r="G98" s="86"/>
+      <c r="H98" s="87"/>
+      <c r="I98" s="87"/>
+      <c r="J98" s="87"/>
+      <c r="K98" s="88"/>
     </row>
     <row r="99" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="75" t="s">
+      <c r="A99" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B99" s="83"/>
-      <c r="C99" s="84"/>
+      <c r="B99" s="78"/>
+      <c r="C99" s="79"/>
       <c r="D99" s="10"/>
       <c r="E99" s="58"/>
       <c r="F99" s="10"/>
-      <c r="G99" s="85"/>
-      <c r="H99" s="86"/>
-      <c r="I99" s="86"/>
-      <c r="J99" s="86"/>
-      <c r="K99" s="87"/>
+      <c r="G99" s="86"/>
+      <c r="H99" s="87"/>
+      <c r="I99" s="87"/>
+      <c r="J99" s="87"/>
+      <c r="K99" s="88"/>
     </row>
     <row r="100" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="92"/>
-      <c r="B100" s="93"/>
-      <c r="C100" s="93"/>
-      <c r="D100" s="93"/>
-      <c r="E100" s="93"/>
-      <c r="F100" s="93"/>
-      <c r="G100" s="93"/>
-      <c r="H100" s="93"/>
-      <c r="I100" s="93"/>
-      <c r="J100" s="93"/>
-      <c r="K100" s="98"/>
+      <c r="A100" s="127"/>
+      <c r="B100" s="128"/>
+      <c r="C100" s="128"/>
+      <c r="D100" s="128"/>
+      <c r="E100" s="128"/>
+      <c r="F100" s="128"/>
+      <c r="G100" s="128"/>
+      <c r="H100" s="128"/>
+      <c r="I100" s="128"/>
+      <c r="J100" s="128"/>
+      <c r="K100" s="141"/>
     </row>
     <row r="101" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="70" t="s">
+      <c r="A101" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B101" s="71"/>
-      <c r="C101" s="72"/>
+      <c r="B101" s="69"/>
+      <c r="C101" s="70"/>
       <c r="D101" s="11"/>
       <c r="E101" s="6" t="s">
         <v>2</v>
@@ -6237,438 +6231,438 @@
       <c r="F101" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G101" s="73" t="s">
+      <c r="G101" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H101" s="73"/>
-      <c r="I101" s="73"/>
-      <c r="J101" s="73"/>
-      <c r="K101" s="74"/>
+      <c r="H101" s="71"/>
+      <c r="I101" s="71"/>
+      <c r="J101" s="71"/>
+      <c r="K101" s="72"/>
     </row>
     <row r="102" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="75" t="s">
+      <c r="A102" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="B102" s="76"/>
-      <c r="C102" s="96"/>
+      <c r="B102" s="74"/>
+      <c r="C102" s="109"/>
       <c r="D102" s="10"/>
       <c r="E102" s="16"/>
       <c r="F102" s="10"/>
-      <c r="G102" s="79"/>
-      <c r="H102" s="80"/>
-      <c r="I102" s="80"/>
-      <c r="J102" s="80"/>
-      <c r="K102" s="97"/>
+      <c r="G102" s="92"/>
+      <c r="H102" s="93"/>
+      <c r="I102" s="93"/>
+      <c r="J102" s="93"/>
+      <c r="K102" s="124"/>
     </row>
     <row r="103" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="75" t="s">
+      <c r="A103" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="B103" s="76"/>
-      <c r="C103" s="96"/>
+      <c r="B103" s="74"/>
+      <c r="C103" s="109"/>
       <c r="D103" s="10"/>
       <c r="E103" s="18"/>
       <c r="F103" s="10"/>
-      <c r="G103" s="82"/>
-      <c r="H103" s="83"/>
-      <c r="I103" s="83"/>
-      <c r="J103" s="83"/>
-      <c r="K103" s="84"/>
+      <c r="G103" s="77"/>
+      <c r="H103" s="78"/>
+      <c r="I103" s="78"/>
+      <c r="J103" s="78"/>
+      <c r="K103" s="79"/>
     </row>
     <row r="104" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="75" t="s">
+      <c r="A104" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="B104" s="76"/>
-      <c r="C104" s="96"/>
+      <c r="B104" s="74"/>
+      <c r="C104" s="109"/>
       <c r="D104" s="10"/>
       <c r="E104" s="16"/>
       <c r="F104" s="10"/>
-      <c r="G104" s="103"/>
-      <c r="H104" s="100"/>
-      <c r="I104" s="100"/>
-      <c r="J104" s="100"/>
-      <c r="K104" s="104"/>
+      <c r="G104" s="186"/>
+      <c r="H104" s="187"/>
+      <c r="I104" s="187"/>
+      <c r="J104" s="187"/>
+      <c r="K104" s="188"/>
     </row>
     <row r="105" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="75" t="s">
+      <c r="A105" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="B105" s="76"/>
-      <c r="C105" s="96"/>
+      <c r="B105" s="74"/>
+      <c r="C105" s="109"/>
       <c r="D105" s="10"/>
       <c r="E105" s="18"/>
       <c r="F105" s="10"/>
-      <c r="G105" s="82"/>
-      <c r="H105" s="83"/>
-      <c r="I105" s="83"/>
-      <c r="J105" s="83"/>
-      <c r="K105" s="84"/>
+      <c r="G105" s="77"/>
+      <c r="H105" s="78"/>
+      <c r="I105" s="78"/>
+      <c r="J105" s="78"/>
+      <c r="K105" s="79"/>
     </row>
     <row r="106" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="92" t="s">
+      <c r="A106" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="B106" s="93"/>
-      <c r="C106" s="93"/>
+      <c r="B106" s="128"/>
+      <c r="C106" s="128"/>
       <c r="D106" s="10"/>
       <c r="E106" s="16"/>
       <c r="F106" s="10"/>
-      <c r="G106" s="103"/>
-      <c r="H106" s="100"/>
-      <c r="I106" s="100"/>
-      <c r="J106" s="100"/>
-      <c r="K106" s="104"/>
+      <c r="G106" s="186"/>
+      <c r="H106" s="187"/>
+      <c r="I106" s="187"/>
+      <c r="J106" s="187"/>
+      <c r="K106" s="188"/>
     </row>
     <row r="107" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="75" t="s">
+      <c r="A107" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="B107" s="76"/>
-      <c r="C107" s="76"/>
+      <c r="B107" s="74"/>
+      <c r="C107" s="74"/>
       <c r="D107" s="10"/>
       <c r="E107" s="18"/>
       <c r="F107" s="10"/>
-      <c r="G107" s="75"/>
-      <c r="H107" s="76"/>
-      <c r="I107" s="76"/>
-      <c r="J107" s="76"/>
-      <c r="K107" s="78"/>
+      <c r="G107" s="73"/>
+      <c r="H107" s="74"/>
+      <c r="I107" s="74"/>
+      <c r="J107" s="74"/>
+      <c r="K107" s="76"/>
     </row>
     <row r="108" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="75" t="s">
+      <c r="A108" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="B108" s="76"/>
-      <c r="C108" s="76"/>
+      <c r="B108" s="74"/>
+      <c r="C108" s="74"/>
       <c r="D108" s="10"/>
       <c r="E108" s="18"/>
       <c r="F108" s="10"/>
-      <c r="G108" s="82"/>
-      <c r="H108" s="83"/>
-      <c r="I108" s="83"/>
-      <c r="J108" s="83"/>
-      <c r="K108" s="84"/>
+      <c r="G108" s="77"/>
+      <c r="H108" s="78"/>
+      <c r="I108" s="78"/>
+      <c r="J108" s="78"/>
+      <c r="K108" s="79"/>
     </row>
     <row r="109" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="92" t="s">
+      <c r="A109" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="B109" s="93"/>
-      <c r="C109" s="93"/>
+      <c r="B109" s="128"/>
+      <c r="C109" s="128"/>
       <c r="D109" s="10"/>
       <c r="E109" s="16"/>
       <c r="F109" s="10"/>
-      <c r="G109" s="103"/>
-      <c r="H109" s="100"/>
-      <c r="I109" s="100"/>
-      <c r="J109" s="100"/>
-      <c r="K109" s="104"/>
+      <c r="G109" s="186"/>
+      <c r="H109" s="187"/>
+      <c r="I109" s="187"/>
+      <c r="J109" s="187"/>
+      <c r="K109" s="188"/>
     </row>
     <row r="110" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="75" t="s">
+      <c r="A110" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="B110" s="76"/>
-      <c r="C110" s="76"/>
+      <c r="B110" s="74"/>
+      <c r="C110" s="74"/>
       <c r="D110" s="10"/>
       <c r="E110" s="18"/>
       <c r="F110" s="10"/>
-      <c r="G110" s="82"/>
-      <c r="H110" s="83"/>
-      <c r="I110" s="83"/>
-      <c r="J110" s="83"/>
-      <c r="K110" s="84"/>
+      <c r="G110" s="77"/>
+      <c r="H110" s="78"/>
+      <c r="I110" s="78"/>
+      <c r="J110" s="78"/>
+      <c r="K110" s="79"/>
     </row>
     <row r="111" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="92" t="s">
+      <c r="A111" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="B111" s="93"/>
-      <c r="C111" s="93"/>
+      <c r="B111" s="128"/>
+      <c r="C111" s="128"/>
       <c r="D111" s="10"/>
       <c r="E111" s="16"/>
       <c r="F111" s="10"/>
-      <c r="G111" s="103"/>
-      <c r="H111" s="100"/>
-      <c r="I111" s="100"/>
-      <c r="J111" s="100"/>
-      <c r="K111" s="104"/>
+      <c r="G111" s="186"/>
+      <c r="H111" s="187"/>
+      <c r="I111" s="187"/>
+      <c r="J111" s="187"/>
+      <c r="K111" s="188"/>
     </row>
     <row r="112" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="75" t="s">
+      <c r="A112" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B112" s="76"/>
-      <c r="C112" s="76"/>
+      <c r="B112" s="74"/>
+      <c r="C112" s="74"/>
       <c r="D112" s="10"/>
       <c r="E112" s="18"/>
       <c r="F112" s="10"/>
-      <c r="G112" s="82"/>
-      <c r="H112" s="83"/>
-      <c r="I112" s="83"/>
-      <c r="J112" s="83"/>
-      <c r="K112" s="84"/>
+      <c r="G112" s="77"/>
+      <c r="H112" s="78"/>
+      <c r="I112" s="78"/>
+      <c r="J112" s="78"/>
+      <c r="K112" s="79"/>
     </row>
     <row r="113" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="92" t="s">
+      <c r="A113" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="B113" s="93"/>
-      <c r="C113" s="93"/>
+      <c r="B113" s="128"/>
+      <c r="C113" s="128"/>
       <c r="D113" s="10"/>
       <c r="E113" s="16"/>
       <c r="F113" s="10"/>
-      <c r="G113" s="103"/>
-      <c r="H113" s="100"/>
-      <c r="I113" s="100"/>
-      <c r="J113" s="100"/>
-      <c r="K113" s="104"/>
+      <c r="G113" s="186"/>
+      <c r="H113" s="187"/>
+      <c r="I113" s="187"/>
+      <c r="J113" s="187"/>
+      <c r="K113" s="188"/>
     </row>
     <row r="114" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="75" t="s">
+      <c r="A114" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B114" s="76"/>
-      <c r="C114" s="76"/>
+      <c r="B114" s="74"/>
+      <c r="C114" s="74"/>
       <c r="D114" s="10"/>
       <c r="E114" s="18"/>
       <c r="F114" s="10"/>
-      <c r="G114" s="82"/>
-      <c r="H114" s="83"/>
-      <c r="I114" s="83"/>
-      <c r="J114" s="83"/>
-      <c r="K114" s="84"/>
+      <c r="G114" s="77"/>
+      <c r="H114" s="78"/>
+      <c r="I114" s="78"/>
+      <c r="J114" s="78"/>
+      <c r="K114" s="79"/>
     </row>
     <row r="115" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="92" t="s">
+      <c r="A115" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="B115" s="93"/>
-      <c r="C115" s="93"/>
+      <c r="B115" s="128"/>
+      <c r="C115" s="128"/>
       <c r="D115" s="10"/>
       <c r="E115" s="16"/>
       <c r="F115" s="10"/>
-      <c r="G115" s="103"/>
-      <c r="H115" s="100"/>
-      <c r="I115" s="100"/>
-      <c r="J115" s="100"/>
-      <c r="K115" s="104"/>
+      <c r="G115" s="186"/>
+      <c r="H115" s="187"/>
+      <c r="I115" s="187"/>
+      <c r="J115" s="187"/>
+      <c r="K115" s="188"/>
     </row>
     <row r="116" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="75" t="s">
+      <c r="A116" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="B116" s="76"/>
-      <c r="C116" s="76"/>
+      <c r="B116" s="74"/>
+      <c r="C116" s="74"/>
       <c r="D116" s="10"/>
       <c r="E116" s="18"/>
       <c r="F116" s="10"/>
-      <c r="G116" s="82"/>
-      <c r="H116" s="83"/>
-      <c r="I116" s="83"/>
-      <c r="J116" s="83"/>
-      <c r="K116" s="84"/>
+      <c r="G116" s="77"/>
+      <c r="H116" s="78"/>
+      <c r="I116" s="78"/>
+      <c r="J116" s="78"/>
+      <c r="K116" s="79"/>
     </row>
     <row r="117" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="92" t="s">
+      <c r="A117" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="B117" s="93"/>
-      <c r="C117" s="93"/>
+      <c r="B117" s="128"/>
+      <c r="C117" s="128"/>
       <c r="D117" s="10"/>
       <c r="E117" s="16"/>
       <c r="F117" s="10"/>
-      <c r="G117" s="103"/>
-      <c r="H117" s="100"/>
-      <c r="I117" s="100"/>
-      <c r="J117" s="100"/>
-      <c r="K117" s="104"/>
+      <c r="G117" s="186"/>
+      <c r="H117" s="187"/>
+      <c r="I117" s="187"/>
+      <c r="J117" s="187"/>
+      <c r="K117" s="188"/>
     </row>
     <row r="118" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="75" t="s">
+      <c r="A118" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="B118" s="76"/>
-      <c r="C118" s="76"/>
+      <c r="B118" s="74"/>
+      <c r="C118" s="74"/>
       <c r="D118" s="10"/>
       <c r="E118" s="18"/>
       <c r="F118" s="10"/>
-      <c r="G118" s="82"/>
-      <c r="H118" s="83"/>
-      <c r="I118" s="83"/>
-      <c r="J118" s="83"/>
-      <c r="K118" s="84"/>
+      <c r="G118" s="77"/>
+      <c r="H118" s="78"/>
+      <c r="I118" s="78"/>
+      <c r="J118" s="78"/>
+      <c r="K118" s="79"/>
     </row>
     <row r="119" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="92" t="s">
+      <c r="A119" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="B119" s="93"/>
-      <c r="C119" s="93"/>
+      <c r="B119" s="128"/>
+      <c r="C119" s="128"/>
       <c r="D119" s="10"/>
       <c r="E119" s="16"/>
       <c r="F119" s="10"/>
-      <c r="G119" s="103"/>
-      <c r="H119" s="100"/>
-      <c r="I119" s="100"/>
-      <c r="J119" s="100"/>
-      <c r="K119" s="104"/>
+      <c r="G119" s="186"/>
+      <c r="H119" s="187"/>
+      <c r="I119" s="187"/>
+      <c r="J119" s="187"/>
+      <c r="K119" s="188"/>
     </row>
     <row r="120" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="75" t="s">
+      <c r="A120" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="B120" s="76"/>
-      <c r="C120" s="76"/>
+      <c r="B120" s="74"/>
+      <c r="C120" s="74"/>
       <c r="D120" s="10"/>
       <c r="E120" s="18"/>
       <c r="F120" s="10"/>
-      <c r="G120" s="82"/>
-      <c r="H120" s="83"/>
-      <c r="I120" s="83"/>
-      <c r="J120" s="83"/>
-      <c r="K120" s="84"/>
+      <c r="G120" s="77"/>
+      <c r="H120" s="78"/>
+      <c r="I120" s="78"/>
+      <c r="J120" s="78"/>
+      <c r="K120" s="79"/>
     </row>
     <row r="121" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="92" t="s">
+      <c r="A121" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="B121" s="93"/>
-      <c r="C121" s="93"/>
+      <c r="B121" s="128"/>
+      <c r="C121" s="128"/>
       <c r="D121" s="10"/>
       <c r="E121" s="16"/>
       <c r="F121" s="10"/>
-      <c r="G121" s="103"/>
-      <c r="H121" s="100"/>
-      <c r="I121" s="100"/>
-      <c r="J121" s="100"/>
-      <c r="K121" s="104"/>
+      <c r="G121" s="186"/>
+      <c r="H121" s="187"/>
+      <c r="I121" s="187"/>
+      <c r="J121" s="187"/>
+      <c r="K121" s="188"/>
     </row>
     <row r="122" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="75" t="s">
+      <c r="A122" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="B122" s="76"/>
-      <c r="C122" s="76"/>
+      <c r="B122" s="74"/>
+      <c r="C122" s="74"/>
       <c r="D122" s="10"/>
       <c r="E122" s="18"/>
       <c r="F122" s="10"/>
-      <c r="G122" s="82"/>
-      <c r="H122" s="83"/>
-      <c r="I122" s="83"/>
-      <c r="J122" s="83"/>
-      <c r="K122" s="84"/>
+      <c r="G122" s="77"/>
+      <c r="H122" s="78"/>
+      <c r="I122" s="78"/>
+      <c r="J122" s="78"/>
+      <c r="K122" s="79"/>
     </row>
     <row r="123" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="92" t="s">
+      <c r="A123" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="B123" s="93"/>
-      <c r="C123" s="93"/>
+      <c r="B123" s="128"/>
+      <c r="C123" s="128"/>
       <c r="D123" s="10"/>
       <c r="E123" s="16"/>
       <c r="F123" s="10"/>
-      <c r="G123" s="103"/>
-      <c r="H123" s="100"/>
-      <c r="I123" s="100"/>
-      <c r="J123" s="100"/>
-      <c r="K123" s="104"/>
+      <c r="G123" s="186"/>
+      <c r="H123" s="187"/>
+      <c r="I123" s="187"/>
+      <c r="J123" s="187"/>
+      <c r="K123" s="188"/>
     </row>
     <row r="124" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="75" t="s">
+      <c r="A124" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="B124" s="76"/>
-      <c r="C124" s="76"/>
+      <c r="B124" s="74"/>
+      <c r="C124" s="74"/>
       <c r="D124" s="10"/>
       <c r="E124" s="18"/>
       <c r="F124" s="10"/>
-      <c r="G124" s="82"/>
-      <c r="H124" s="83"/>
-      <c r="I124" s="83"/>
-      <c r="J124" s="83"/>
-      <c r="K124" s="84"/>
+      <c r="G124" s="77"/>
+      <c r="H124" s="78"/>
+      <c r="I124" s="78"/>
+      <c r="J124" s="78"/>
+      <c r="K124" s="79"/>
     </row>
     <row r="125" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="215" t="s">
+      <c r="A125" s="101" t="s">
         <v>178</v>
       </c>
-      <c r="B125" s="159"/>
-      <c r="C125" s="160"/>
+      <c r="B125" s="102"/>
+      <c r="C125" s="103"/>
       <c r="D125" s="49"/>
       <c r="E125" s="51"/>
       <c r="F125" s="49"/>
-      <c r="G125" s="216"/>
-      <c r="H125" s="217"/>
-      <c r="I125" s="217"/>
-      <c r="J125" s="217"/>
-      <c r="K125" s="218"/>
+      <c r="G125" s="104"/>
+      <c r="H125" s="105"/>
+      <c r="I125" s="105"/>
+      <c r="J125" s="105"/>
+      <c r="K125" s="106"/>
     </row>
     <row r="126" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="215" t="s">
+      <c r="A126" s="101" t="s">
         <v>179</v>
       </c>
-      <c r="B126" s="159"/>
-      <c r="C126" s="160"/>
+      <c r="B126" s="102"/>
+      <c r="C126" s="103"/>
       <c r="D126" s="49"/>
       <c r="E126" s="51"/>
       <c r="F126" s="49"/>
-      <c r="G126" s="216"/>
-      <c r="H126" s="217"/>
-      <c r="I126" s="217"/>
-      <c r="J126" s="217"/>
-      <c r="K126" s="218"/>
+      <c r="G126" s="104"/>
+      <c r="H126" s="105"/>
+      <c r="I126" s="105"/>
+      <c r="J126" s="105"/>
+      <c r="K126" s="106"/>
     </row>
     <row r="127" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="75" t="s">
+      <c r="A127" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B127" s="83"/>
-      <c r="C127" s="84"/>
+      <c r="B127" s="78"/>
+      <c r="C127" s="79"/>
       <c r="D127" s="10"/>
       <c r="E127" s="47"/>
       <c r="F127" s="10"/>
-      <c r="G127" s="85"/>
-      <c r="H127" s="86"/>
-      <c r="I127" s="86"/>
-      <c r="J127" s="86"/>
-      <c r="K127" s="87"/>
+      <c r="G127" s="86"/>
+      <c r="H127" s="87"/>
+      <c r="I127" s="87"/>
+      <c r="J127" s="87"/>
+      <c r="K127" s="88"/>
     </row>
     <row r="128" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="75" t="s">
+      <c r="A128" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B128" s="83"/>
-      <c r="C128" s="84"/>
+      <c r="B128" s="78"/>
+      <c r="C128" s="79"/>
       <c r="D128" s="10"/>
       <c r="E128" s="47"/>
       <c r="F128" s="10"/>
-      <c r="G128" s="85"/>
-      <c r="H128" s="86"/>
-      <c r="I128" s="86"/>
-      <c r="J128" s="86"/>
-      <c r="K128" s="87"/>
+      <c r="G128" s="86"/>
+      <c r="H128" s="87"/>
+      <c r="I128" s="87"/>
+      <c r="J128" s="87"/>
+      <c r="K128" s="88"/>
     </row>
     <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="75"/>
-      <c r="B129" s="76"/>
-      <c r="C129" s="76"/>
-      <c r="D129" s="76"/>
-      <c r="E129" s="76"/>
-      <c r="F129" s="76"/>
-      <c r="G129" s="76"/>
-      <c r="H129" s="76"/>
-      <c r="I129" s="76"/>
-      <c r="J129" s="76"/>
-      <c r="K129" s="78"/>
+      <c r="A129" s="73"/>
+      <c r="B129" s="74"/>
+      <c r="C129" s="74"/>
+      <c r="D129" s="74"/>
+      <c r="E129" s="74"/>
+      <c r="F129" s="74"/>
+      <c r="G129" s="74"/>
+      <c r="H129" s="74"/>
+      <c r="I129" s="74"/>
+      <c r="J129" s="74"/>
+      <c r="K129" s="76"/>
     </row>
     <row r="130" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="70" t="s">
+      <c r="A130" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="B130" s="71"/>
-      <c r="C130" s="72"/>
+      <c r="B130" s="69"/>
+      <c r="C130" s="70"/>
       <c r="D130" s="34"/>
       <c r="E130" s="6" t="s">
         <v>2</v>
@@ -6676,198 +6670,198 @@
       <c r="F130" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G130" s="73" t="s">
+      <c r="G130" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H130" s="73"/>
-      <c r="I130" s="73"/>
-      <c r="J130" s="73"/>
-      <c r="K130" s="74"/>
+      <c r="H130" s="71"/>
+      <c r="I130" s="71"/>
+      <c r="J130" s="71"/>
+      <c r="K130" s="72"/>
     </row>
     <row r="131" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="75" t="s">
+      <c r="A131" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="B131" s="76"/>
-      <c r="C131" s="77"/>
+      <c r="B131" s="74"/>
+      <c r="C131" s="75"/>
       <c r="D131" s="10"/>
       <c r="E131" s="19"/>
       <c r="F131" s="10"/>
-      <c r="G131" s="75"/>
-      <c r="H131" s="76"/>
-      <c r="I131" s="76"/>
-      <c r="J131" s="76"/>
-      <c r="K131" s="78"/>
+      <c r="G131" s="73"/>
+      <c r="H131" s="74"/>
+      <c r="I131" s="74"/>
+      <c r="J131" s="74"/>
+      <c r="K131" s="76"/>
     </row>
     <row r="132" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="75" t="s">
+      <c r="A132" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="B132" s="76"/>
-      <c r="C132" s="77"/>
+      <c r="B132" s="74"/>
+      <c r="C132" s="75"/>
       <c r="D132" s="10"/>
       <c r="E132" s="19"/>
       <c r="F132" s="10"/>
-      <c r="G132" s="82"/>
-      <c r="H132" s="83"/>
-      <c r="I132" s="83"/>
-      <c r="J132" s="83"/>
-      <c r="K132" s="84"/>
+      <c r="G132" s="77"/>
+      <c r="H132" s="78"/>
+      <c r="I132" s="78"/>
+      <c r="J132" s="78"/>
+      <c r="K132" s="79"/>
     </row>
     <row r="133" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="92" t="s">
+      <c r="A133" s="127" t="s">
         <v>76</v>
       </c>
-      <c r="B133" s="93"/>
-      <c r="C133" s="107"/>
+      <c r="B133" s="128"/>
+      <c r="C133" s="129"/>
       <c r="D133" s="10"/>
       <c r="E133" s="8"/>
       <c r="F133" s="10"/>
-      <c r="G133" s="108"/>
-      <c r="H133" s="109"/>
-      <c r="I133" s="109"/>
-      <c r="J133" s="109"/>
-      <c r="K133" s="110"/>
+      <c r="G133" s="130"/>
+      <c r="H133" s="131"/>
+      <c r="I133" s="131"/>
+      <c r="J133" s="131"/>
+      <c r="K133" s="132"/>
     </row>
     <row r="134" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="75" t="s">
+      <c r="A134" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="B134" s="76"/>
-      <c r="C134" s="77"/>
+      <c r="B134" s="74"/>
+      <c r="C134" s="75"/>
       <c r="D134" s="10"/>
       <c r="E134" s="19"/>
       <c r="F134" s="10"/>
-      <c r="G134" s="82"/>
-      <c r="H134" s="83"/>
-      <c r="I134" s="83"/>
-      <c r="J134" s="83"/>
-      <c r="K134" s="84"/>
+      <c r="G134" s="77"/>
+      <c r="H134" s="78"/>
+      <c r="I134" s="78"/>
+      <c r="J134" s="78"/>
+      <c r="K134" s="79"/>
     </row>
     <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="92" t="s">
+      <c r="A135" s="127" t="s">
         <v>180</v>
       </c>
-      <c r="B135" s="93"/>
-      <c r="C135" s="107"/>
+      <c r="B135" s="128"/>
+      <c r="C135" s="129"/>
       <c r="D135" s="10"/>
       <c r="E135" s="8"/>
       <c r="F135" s="10"/>
-      <c r="G135" s="82"/>
-      <c r="H135" s="83"/>
-      <c r="I135" s="83"/>
-      <c r="J135" s="83"/>
-      <c r="K135" s="84"/>
+      <c r="G135" s="77"/>
+      <c r="H135" s="78"/>
+      <c r="I135" s="78"/>
+      <c r="J135" s="78"/>
+      <c r="K135" s="79"/>
     </row>
     <row r="136" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="75" t="s">
+      <c r="A136" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="B136" s="83"/>
-      <c r="C136" s="84"/>
+      <c r="B136" s="78"/>
+      <c r="C136" s="79"/>
       <c r="D136" s="10"/>
       <c r="E136" s="47"/>
       <c r="F136" s="10"/>
-      <c r="G136" s="85"/>
-      <c r="H136" s="86"/>
-      <c r="I136" s="86"/>
-      <c r="J136" s="86"/>
-      <c r="K136" s="87"/>
+      <c r="G136" s="86"/>
+      <c r="H136" s="87"/>
+      <c r="I136" s="87"/>
+      <c r="J136" s="87"/>
+      <c r="K136" s="88"/>
     </row>
     <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="75" t="s">
+      <c r="A137" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="B137" s="76"/>
-      <c r="C137" s="77"/>
+      <c r="B137" s="74"/>
+      <c r="C137" s="75"/>
       <c r="D137" s="10"/>
       <c r="E137" s="19"/>
       <c r="F137" s="10"/>
-      <c r="G137" s="82"/>
-      <c r="H137" s="83"/>
-      <c r="I137" s="83"/>
-      <c r="J137" s="83"/>
-      <c r="K137" s="84"/>
+      <c r="G137" s="77"/>
+      <c r="H137" s="78"/>
+      <c r="I137" s="78"/>
+      <c r="J137" s="78"/>
+      <c r="K137" s="79"/>
     </row>
     <row r="138" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="85" t="s">
+      <c r="A138" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="B138" s="86"/>
-      <c r="C138" s="99"/>
+      <c r="B138" s="87"/>
+      <c r="C138" s="239"/>
       <c r="D138" s="10"/>
       <c r="E138" s="37"/>
       <c r="F138" s="10"/>
-      <c r="G138" s="146"/>
-      <c r="H138" s="147"/>
-      <c r="I138" s="147"/>
-      <c r="J138" s="147"/>
-      <c r="K138" s="148"/>
+      <c r="G138" s="211"/>
+      <c r="H138" s="212"/>
+      <c r="I138" s="212"/>
+      <c r="J138" s="212"/>
+      <c r="K138" s="213"/>
     </row>
     <row r="139" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="79" t="s">
+      <c r="A139" s="92" t="s">
         <v>182</v>
       </c>
-      <c r="B139" s="80"/>
-      <c r="C139" s="81"/>
+      <c r="B139" s="93"/>
+      <c r="C139" s="94"/>
       <c r="D139" s="10"/>
       <c r="E139" s="36"/>
       <c r="F139" s="10"/>
-      <c r="G139" s="82"/>
-      <c r="H139" s="83"/>
-      <c r="I139" s="83"/>
-      <c r="J139" s="83"/>
-      <c r="K139" s="84"/>
+      <c r="G139" s="77"/>
+      <c r="H139" s="78"/>
+      <c r="I139" s="78"/>
+      <c r="J139" s="78"/>
+      <c r="K139" s="79"/>
     </row>
     <row r="140" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="75" t="s">
+      <c r="A140" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B140" s="83"/>
-      <c r="C140" s="84"/>
+      <c r="B140" s="78"/>
+      <c r="C140" s="79"/>
       <c r="D140" s="10"/>
       <c r="E140" s="47"/>
       <c r="F140" s="10"/>
-      <c r="G140" s="85"/>
-      <c r="H140" s="86"/>
-      <c r="I140" s="86"/>
-      <c r="J140" s="86"/>
-      <c r="K140" s="87"/>
+      <c r="G140" s="86"/>
+      <c r="H140" s="87"/>
+      <c r="I140" s="87"/>
+      <c r="J140" s="87"/>
+      <c r="K140" s="88"/>
     </row>
     <row r="141" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="75" t="s">
+      <c r="A141" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B141" s="83"/>
-      <c r="C141" s="84"/>
+      <c r="B141" s="78"/>
+      <c r="C141" s="79"/>
       <c r="D141" s="10"/>
       <c r="E141" s="58"/>
       <c r="F141" s="10"/>
-      <c r="G141" s="85"/>
-      <c r="H141" s="86"/>
-      <c r="I141" s="86"/>
-      <c r="J141" s="86"/>
-      <c r="K141" s="87"/>
+      <c r="G141" s="86"/>
+      <c r="H141" s="87"/>
+      <c r="I141" s="87"/>
+      <c r="J141" s="87"/>
+      <c r="K141" s="88"/>
     </row>
     <row r="142" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="75"/>
-      <c r="B142" s="76"/>
-      <c r="C142" s="76"/>
-      <c r="D142" s="76"/>
-      <c r="E142" s="76"/>
-      <c r="F142" s="76"/>
-      <c r="G142" s="76"/>
-      <c r="H142" s="76"/>
-      <c r="I142" s="76"/>
-      <c r="J142" s="76"/>
-      <c r="K142" s="78"/>
+      <c r="A142" s="73"/>
+      <c r="B142" s="74"/>
+      <c r="C142" s="74"/>
+      <c r="D142" s="74"/>
+      <c r="E142" s="74"/>
+      <c r="F142" s="74"/>
+      <c r="G142" s="74"/>
+      <c r="H142" s="74"/>
+      <c r="I142" s="74"/>
+      <c r="J142" s="74"/>
+      <c r="K142" s="76"/>
     </row>
     <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="70" t="s">
+      <c r="A143" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="B143" s="71"/>
-      <c r="C143" s="72"/>
+      <c r="B143" s="69"/>
+      <c r="C143" s="70"/>
       <c r="D143" s="14"/>
       <c r="E143" s="6" t="s">
         <v>2</v>
@@ -6875,123 +6869,123 @@
       <c r="F143" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G143" s="90" t="s">
+      <c r="G143" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="H143" s="90"/>
-      <c r="I143" s="90"/>
-      <c r="J143" s="90"/>
-      <c r="K143" s="91"/>
+      <c r="H143" s="175"/>
+      <c r="I143" s="175"/>
+      <c r="J143" s="175"/>
+      <c r="K143" s="176"/>
     </row>
     <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="92" t="s">
+      <c r="A144" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="B144" s="100"/>
-      <c r="C144" s="101"/>
+      <c r="B144" s="187"/>
+      <c r="C144" s="240"/>
       <c r="D144" s="10"/>
       <c r="E144" s="8"/>
       <c r="F144" s="10"/>
-      <c r="G144" s="79"/>
-      <c r="H144" s="80"/>
-      <c r="I144" s="80"/>
-      <c r="J144" s="80"/>
-      <c r="K144" s="97"/>
+      <c r="G144" s="92"/>
+      <c r="H144" s="93"/>
+      <c r="I144" s="93"/>
+      <c r="J144" s="93"/>
+      <c r="K144" s="124"/>
     </row>
     <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="75" t="s">
+      <c r="A145" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="B145" s="83"/>
-      <c r="C145" s="102"/>
+      <c r="B145" s="78"/>
+      <c r="C145" s="241"/>
       <c r="D145" s="10"/>
       <c r="E145" s="19"/>
       <c r="F145" s="10"/>
-      <c r="G145" s="75"/>
-      <c r="H145" s="76"/>
-      <c r="I145" s="76"/>
-      <c r="J145" s="76"/>
-      <c r="K145" s="78"/>
+      <c r="G145" s="73"/>
+      <c r="H145" s="74"/>
+      <c r="I145" s="74"/>
+      <c r="J145" s="74"/>
+      <c r="K145" s="76"/>
     </row>
     <row r="146" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="75" t="s">
+      <c r="A146" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="B146" s="83"/>
-      <c r="C146" s="102"/>
+      <c r="B146" s="78"/>
+      <c r="C146" s="241"/>
       <c r="D146" s="10"/>
       <c r="E146" s="12"/>
       <c r="F146" s="10"/>
-      <c r="G146" s="75"/>
-      <c r="H146" s="76"/>
-      <c r="I146" s="76"/>
-      <c r="J146" s="76"/>
-      <c r="K146" s="78"/>
+      <c r="G146" s="73"/>
+      <c r="H146" s="74"/>
+      <c r="I146" s="74"/>
+      <c r="J146" s="74"/>
+      <c r="K146" s="76"/>
     </row>
     <row r="147" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="75" t="s">
+      <c r="A147" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="B147" s="83"/>
-      <c r="C147" s="84"/>
+      <c r="B147" s="78"/>
+      <c r="C147" s="79"/>
       <c r="D147" s="10"/>
       <c r="E147" s="47"/>
       <c r="F147" s="10"/>
-      <c r="G147" s="85"/>
-      <c r="H147" s="86"/>
-      <c r="I147" s="86"/>
-      <c r="J147" s="86"/>
-      <c r="K147" s="87"/>
+      <c r="G147" s="86"/>
+      <c r="H147" s="87"/>
+      <c r="I147" s="87"/>
+      <c r="J147" s="87"/>
+      <c r="K147" s="88"/>
     </row>
     <row r="148" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="75" t="s">
+      <c r="A148" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B148" s="83"/>
-      <c r="C148" s="84"/>
+      <c r="B148" s="78"/>
+      <c r="C148" s="79"/>
       <c r="D148" s="10"/>
       <c r="E148" s="47"/>
       <c r="F148" s="10"/>
-      <c r="G148" s="85"/>
-      <c r="H148" s="86"/>
-      <c r="I148" s="86"/>
-      <c r="J148" s="86"/>
-      <c r="K148" s="87"/>
+      <c r="G148" s="86"/>
+      <c r="H148" s="87"/>
+      <c r="I148" s="87"/>
+      <c r="J148" s="87"/>
+      <c r="K148" s="88"/>
     </row>
     <row r="149" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="75" t="s">
+      <c r="A149" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B149" s="83"/>
-      <c r="C149" s="84"/>
+      <c r="B149" s="78"/>
+      <c r="C149" s="79"/>
       <c r="D149" s="10"/>
       <c r="E149" s="58"/>
       <c r="F149" s="10"/>
-      <c r="G149" s="85"/>
-      <c r="H149" s="86"/>
-      <c r="I149" s="86"/>
-      <c r="J149" s="86"/>
-      <c r="K149" s="87"/>
+      <c r="G149" s="86"/>
+      <c r="H149" s="87"/>
+      <c r="I149" s="87"/>
+      <c r="J149" s="87"/>
+      <c r="K149" s="88"/>
     </row>
     <row r="150" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="75"/>
-      <c r="B150" s="76"/>
-      <c r="C150" s="76"/>
-      <c r="D150" s="76"/>
-      <c r="E150" s="76"/>
-      <c r="F150" s="76"/>
-      <c r="G150" s="76"/>
-      <c r="H150" s="76"/>
-      <c r="I150" s="76"/>
-      <c r="J150" s="76"/>
-      <c r="K150" s="78"/>
+      <c r="A150" s="73"/>
+      <c r="B150" s="74"/>
+      <c r="C150" s="74"/>
+      <c r="D150" s="74"/>
+      <c r="E150" s="74"/>
+      <c r="F150" s="74"/>
+      <c r="G150" s="74"/>
+      <c r="H150" s="74"/>
+      <c r="I150" s="74"/>
+      <c r="J150" s="74"/>
+      <c r="K150" s="76"/>
     </row>
     <row r="151" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="70" t="s">
+      <c r="A151" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="B151" s="71"/>
-      <c r="C151" s="72"/>
+      <c r="B151" s="69"/>
+      <c r="C151" s="70"/>
       <c r="D151" s="14"/>
       <c r="E151" s="6" t="s">
         <v>2</v>
@@ -6999,93 +6993,93 @@
       <c r="F151" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G151" s="90" t="s">
+      <c r="G151" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="H151" s="90"/>
-      <c r="I151" s="90"/>
-      <c r="J151" s="90"/>
-      <c r="K151" s="91"/>
+      <c r="H151" s="175"/>
+      <c r="I151" s="175"/>
+      <c r="J151" s="175"/>
+      <c r="K151" s="176"/>
     </row>
     <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="92" t="s">
+      <c r="A152" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="B152" s="100"/>
-      <c r="C152" s="107"/>
+      <c r="B152" s="187"/>
+      <c r="C152" s="129"/>
       <c r="D152" s="10"/>
       <c r="E152" s="16"/>
       <c r="F152" s="10"/>
-      <c r="G152" s="79"/>
-      <c r="H152" s="80"/>
-      <c r="I152" s="80"/>
-      <c r="J152" s="80"/>
-      <c r="K152" s="97"/>
+      <c r="G152" s="92"/>
+      <c r="H152" s="93"/>
+      <c r="I152" s="93"/>
+      <c r="J152" s="93"/>
+      <c r="K152" s="124"/>
     </row>
     <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="75" t="s">
+      <c r="A153" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="B153" s="76"/>
-      <c r="C153" s="76"/>
+      <c r="B153" s="74"/>
+      <c r="C153" s="74"/>
       <c r="D153" s="10"/>
       <c r="E153" s="18"/>
       <c r="F153" s="10"/>
-      <c r="G153" s="75"/>
-      <c r="H153" s="76"/>
-      <c r="I153" s="76"/>
-      <c r="J153" s="76"/>
-      <c r="K153" s="78"/>
+      <c r="G153" s="73"/>
+      <c r="H153" s="74"/>
+      <c r="I153" s="74"/>
+      <c r="J153" s="74"/>
+      <c r="K153" s="76"/>
     </row>
     <row r="154" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="75" t="s">
+      <c r="A154" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B154" s="83"/>
-      <c r="C154" s="84"/>
+      <c r="B154" s="78"/>
+      <c r="C154" s="79"/>
       <c r="D154" s="10"/>
       <c r="E154" s="47"/>
       <c r="F154" s="10"/>
-      <c r="G154" s="85"/>
-      <c r="H154" s="86"/>
-      <c r="I154" s="86"/>
-      <c r="J154" s="86"/>
-      <c r="K154" s="87"/>
+      <c r="G154" s="86"/>
+      <c r="H154" s="87"/>
+      <c r="I154" s="87"/>
+      <c r="J154" s="87"/>
+      <c r="K154" s="88"/>
     </row>
     <row r="155" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="75" t="s">
+      <c r="A155" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B155" s="83"/>
-      <c r="C155" s="84"/>
+      <c r="B155" s="78"/>
+      <c r="C155" s="79"/>
       <c r="D155" s="10"/>
       <c r="E155" s="47"/>
       <c r="F155" s="10"/>
-      <c r="G155" s="85"/>
-      <c r="H155" s="86"/>
-      <c r="I155" s="86"/>
-      <c r="J155" s="86"/>
-      <c r="K155" s="87"/>
+      <c r="G155" s="86"/>
+      <c r="H155" s="87"/>
+      <c r="I155" s="87"/>
+      <c r="J155" s="87"/>
+      <c r="K155" s="88"/>
     </row>
     <row r="156" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="75"/>
-      <c r="B156" s="76"/>
-      <c r="C156" s="76"/>
-      <c r="D156" s="76"/>
-      <c r="E156" s="76"/>
-      <c r="F156" s="76"/>
-      <c r="G156" s="76"/>
-      <c r="H156" s="76"/>
-      <c r="I156" s="76"/>
-      <c r="J156" s="76"/>
-      <c r="K156" s="78"/>
+      <c r="A156" s="73"/>
+      <c r="B156" s="74"/>
+      <c r="C156" s="74"/>
+      <c r="D156" s="74"/>
+      <c r="E156" s="74"/>
+      <c r="F156" s="74"/>
+      <c r="G156" s="74"/>
+      <c r="H156" s="74"/>
+      <c r="I156" s="74"/>
+      <c r="J156" s="74"/>
+      <c r="K156" s="76"/>
     </row>
     <row r="157" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="70" t="s">
+      <c r="A157" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="B157" s="71"/>
-      <c r="C157" s="72"/>
+      <c r="B157" s="69"/>
+      <c r="C157" s="70"/>
       <c r="D157" s="14"/>
       <c r="E157" s="6" t="s">
         <v>2</v>
@@ -7093,93 +7087,93 @@
       <c r="F157" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G157" s="90" t="s">
+      <c r="G157" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="H157" s="90"/>
-      <c r="I157" s="90"/>
-      <c r="J157" s="90"/>
-      <c r="K157" s="91"/>
+      <c r="H157" s="175"/>
+      <c r="I157" s="175"/>
+      <c r="J157" s="175"/>
+      <c r="K157" s="176"/>
     </row>
     <row r="158" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="92" t="s">
+      <c r="A158" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="B158" s="93"/>
-      <c r="C158" s="93"/>
+      <c r="B158" s="128"/>
+      <c r="C158" s="128"/>
       <c r="D158" s="10"/>
       <c r="E158" s="16"/>
       <c r="F158" s="10"/>
-      <c r="G158" s="79"/>
-      <c r="H158" s="80"/>
-      <c r="I158" s="80"/>
-      <c r="J158" s="80"/>
-      <c r="K158" s="97"/>
+      <c r="G158" s="92"/>
+      <c r="H158" s="93"/>
+      <c r="I158" s="93"/>
+      <c r="J158" s="93"/>
+      <c r="K158" s="124"/>
     </row>
     <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="75" t="s">
+      <c r="A159" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="B159" s="76"/>
-      <c r="C159" s="76"/>
+      <c r="B159" s="74"/>
+      <c r="C159" s="74"/>
       <c r="D159" s="10"/>
       <c r="E159" s="18"/>
       <c r="F159" s="10"/>
-      <c r="G159" s="75"/>
-      <c r="H159" s="76"/>
-      <c r="I159" s="76"/>
-      <c r="J159" s="76"/>
-      <c r="K159" s="78"/>
+      <c r="G159" s="73"/>
+      <c r="H159" s="74"/>
+      <c r="I159" s="74"/>
+      <c r="J159" s="74"/>
+      <c r="K159" s="76"/>
     </row>
     <row r="160" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="75" t="s">
+      <c r="A160" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B160" s="83"/>
-      <c r="C160" s="84"/>
+      <c r="B160" s="78"/>
+      <c r="C160" s="79"/>
       <c r="D160" s="10"/>
       <c r="E160" s="47"/>
       <c r="F160" s="10"/>
-      <c r="G160" s="85"/>
-      <c r="H160" s="86"/>
-      <c r="I160" s="86"/>
-      <c r="J160" s="86"/>
-      <c r="K160" s="87"/>
+      <c r="G160" s="86"/>
+      <c r="H160" s="87"/>
+      <c r="I160" s="87"/>
+      <c r="J160" s="87"/>
+      <c r="K160" s="88"/>
     </row>
     <row r="161" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="75" t="s">
+      <c r="A161" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B161" s="83"/>
-      <c r="C161" s="84"/>
+      <c r="B161" s="78"/>
+      <c r="C161" s="79"/>
       <c r="D161" s="10"/>
       <c r="E161" s="47"/>
       <c r="F161" s="10"/>
-      <c r="G161" s="85"/>
-      <c r="H161" s="86"/>
-      <c r="I161" s="86"/>
-      <c r="J161" s="86"/>
-      <c r="K161" s="87"/>
+      <c r="G161" s="86"/>
+      <c r="H161" s="87"/>
+      <c r="I161" s="87"/>
+      <c r="J161" s="87"/>
+      <c r="K161" s="88"/>
     </row>
     <row r="162" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="79"/>
-      <c r="B162" s="80"/>
-      <c r="C162" s="80"/>
-      <c r="D162" s="80"/>
-      <c r="E162" s="80"/>
-      <c r="F162" s="80"/>
-      <c r="G162" s="80"/>
-      <c r="H162" s="80"/>
-      <c r="I162" s="80"/>
-      <c r="J162" s="80"/>
-      <c r="K162" s="97"/>
+      <c r="A162" s="92"/>
+      <c r="B162" s="93"/>
+      <c r="C162" s="93"/>
+      <c r="D162" s="93"/>
+      <c r="E162" s="93"/>
+      <c r="F162" s="93"/>
+      <c r="G162" s="93"/>
+      <c r="H162" s="93"/>
+      <c r="I162" s="93"/>
+      <c r="J162" s="93"/>
+      <c r="K162" s="124"/>
     </row>
     <row r="163" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="70" t="s">
+      <c r="A163" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="B163" s="71"/>
-      <c r="C163" s="72"/>
+      <c r="B163" s="69"/>
+      <c r="C163" s="70"/>
       <c r="D163" s="14"/>
       <c r="E163" s="15" t="s">
         <v>2</v>
@@ -7187,168 +7181,168 @@
       <c r="F163" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G163" s="90" t="s">
+      <c r="G163" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="H163" s="90"/>
-      <c r="I163" s="90"/>
-      <c r="J163" s="90"/>
-      <c r="K163" s="91"/>
+      <c r="H163" s="175"/>
+      <c r="I163" s="175"/>
+      <c r="J163" s="175"/>
+      <c r="K163" s="176"/>
     </row>
     <row r="164" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="79" t="s">
+      <c r="A164" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="B164" s="80"/>
-      <c r="C164" s="80"/>
+      <c r="B164" s="93"/>
+      <c r="C164" s="93"/>
       <c r="D164" s="10"/>
       <c r="E164" s="35"/>
       <c r="F164" s="10"/>
-      <c r="G164" s="79"/>
-      <c r="H164" s="80"/>
-      <c r="I164" s="80"/>
-      <c r="J164" s="80"/>
-      <c r="K164" s="97"/>
+      <c r="G164" s="92"/>
+      <c r="H164" s="93"/>
+      <c r="I164" s="93"/>
+      <c r="J164" s="93"/>
+      <c r="K164" s="124"/>
     </row>
     <row r="165" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="75" t="s">
+      <c r="A165" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="B165" s="76"/>
-      <c r="C165" s="76"/>
+      <c r="B165" s="74"/>
+      <c r="C165" s="74"/>
       <c r="D165" s="10"/>
       <c r="E165" s="18"/>
       <c r="F165" s="10"/>
-      <c r="G165" s="75"/>
-      <c r="H165" s="76"/>
-      <c r="I165" s="76"/>
-      <c r="J165" s="76"/>
-      <c r="K165" s="78"/>
+      <c r="G165" s="73"/>
+      <c r="H165" s="74"/>
+      <c r="I165" s="74"/>
+      <c r="J165" s="74"/>
+      <c r="K165" s="76"/>
     </row>
     <row r="166" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="75" t="s">
+      <c r="A166" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="B166" s="76"/>
-      <c r="C166" s="76"/>
+      <c r="B166" s="74"/>
+      <c r="C166" s="74"/>
       <c r="D166" s="10"/>
       <c r="E166" s="18"/>
       <c r="F166" s="10"/>
-      <c r="G166" s="75"/>
-      <c r="H166" s="76"/>
-      <c r="I166" s="76"/>
-      <c r="J166" s="76"/>
-      <c r="K166" s="78"/>
+      <c r="G166" s="73"/>
+      <c r="H166" s="74"/>
+      <c r="I166" s="74"/>
+      <c r="J166" s="74"/>
+      <c r="K166" s="76"/>
     </row>
     <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="92" t="s">
+      <c r="A167" s="127" t="s">
         <v>92</v>
       </c>
-      <c r="B167" s="93"/>
-      <c r="C167" s="93"/>
+      <c r="B167" s="128"/>
+      <c r="C167" s="128"/>
       <c r="D167" s="10"/>
       <c r="E167" s="16"/>
       <c r="F167" s="10"/>
-      <c r="G167" s="92"/>
-      <c r="H167" s="93"/>
-      <c r="I167" s="93"/>
-      <c r="J167" s="93"/>
-      <c r="K167" s="98"/>
+      <c r="G167" s="127"/>
+      <c r="H167" s="128"/>
+      <c r="I167" s="128"/>
+      <c r="J167" s="128"/>
+      <c r="K167" s="141"/>
     </row>
     <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="75" t="s">
+      <c r="A168" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="B168" s="76"/>
-      <c r="C168" s="76"/>
+      <c r="B168" s="74"/>
+      <c r="C168" s="74"/>
       <c r="D168" s="10"/>
       <c r="E168" s="18"/>
       <c r="F168" s="10"/>
-      <c r="G168" s="75"/>
-      <c r="H168" s="76"/>
-      <c r="I168" s="76"/>
-      <c r="J168" s="76"/>
-      <c r="K168" s="78"/>
+      <c r="G168" s="73"/>
+      <c r="H168" s="74"/>
+      <c r="I168" s="74"/>
+      <c r="J168" s="74"/>
+      <c r="K168" s="76"/>
     </row>
     <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="92" t="s">
+      <c r="A169" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="B169" s="93"/>
-      <c r="C169" s="93"/>
+      <c r="B169" s="128"/>
+      <c r="C169" s="128"/>
       <c r="D169" s="10"/>
       <c r="E169" s="16"/>
       <c r="F169" s="10"/>
-      <c r="G169" s="92"/>
-      <c r="H169" s="93"/>
-      <c r="I169" s="93"/>
-      <c r="J169" s="93"/>
-      <c r="K169" s="98"/>
+      <c r="G169" s="127"/>
+      <c r="H169" s="128"/>
+      <c r="I169" s="128"/>
+      <c r="J169" s="128"/>
+      <c r="K169" s="141"/>
     </row>
     <row r="170" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="75" t="s">
+      <c r="A170" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="B170" s="76"/>
-      <c r="C170" s="76"/>
+      <c r="B170" s="74"/>
+      <c r="C170" s="74"/>
       <c r="D170" s="10"/>
       <c r="E170" s="18"/>
       <c r="F170" s="10"/>
-      <c r="G170" s="75"/>
-      <c r="H170" s="76"/>
-      <c r="I170" s="76"/>
-      <c r="J170" s="76"/>
-      <c r="K170" s="78"/>
+      <c r="G170" s="73"/>
+      <c r="H170" s="74"/>
+      <c r="I170" s="74"/>
+      <c r="J170" s="74"/>
+      <c r="K170" s="76"/>
     </row>
     <row r="171" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="75" t="s">
+      <c r="A171" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B171" s="83"/>
-      <c r="C171" s="84"/>
+      <c r="B171" s="78"/>
+      <c r="C171" s="79"/>
       <c r="D171" s="10"/>
       <c r="E171" s="47"/>
       <c r="F171" s="10"/>
-      <c r="G171" s="85"/>
-      <c r="H171" s="86"/>
-      <c r="I171" s="86"/>
-      <c r="J171" s="86"/>
-      <c r="K171" s="87"/>
+      <c r="G171" s="86"/>
+      <c r="H171" s="87"/>
+      <c r="I171" s="87"/>
+      <c r="J171" s="87"/>
+      <c r="K171" s="88"/>
     </row>
     <row r="172" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="75" t="s">
+      <c r="A172" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B172" s="83"/>
-      <c r="C172" s="84"/>
+      <c r="B172" s="78"/>
+      <c r="C172" s="79"/>
       <c r="D172" s="10"/>
       <c r="E172" s="47"/>
       <c r="F172" s="10"/>
-      <c r="G172" s="85"/>
-      <c r="H172" s="86"/>
-      <c r="I172" s="86"/>
-      <c r="J172" s="86"/>
-      <c r="K172" s="87"/>
+      <c r="G172" s="86"/>
+      <c r="H172" s="87"/>
+      <c r="I172" s="87"/>
+      <c r="J172" s="87"/>
+      <c r="K172" s="88"/>
     </row>
     <row r="173" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="79"/>
-      <c r="B173" s="80"/>
-      <c r="C173" s="80"/>
-      <c r="D173" s="80"/>
-      <c r="E173" s="80"/>
-      <c r="F173" s="80"/>
-      <c r="G173" s="80"/>
-      <c r="H173" s="80"/>
-      <c r="I173" s="80"/>
-      <c r="J173" s="80"/>
-      <c r="K173" s="97"/>
+      <c r="A173" s="92"/>
+      <c r="B173" s="93"/>
+      <c r="C173" s="93"/>
+      <c r="D173" s="93"/>
+      <c r="E173" s="93"/>
+      <c r="F173" s="93"/>
+      <c r="G173" s="93"/>
+      <c r="H173" s="93"/>
+      <c r="I173" s="93"/>
+      <c r="J173" s="93"/>
+      <c r="K173" s="124"/>
     </row>
     <row r="174" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="70" t="s">
+      <c r="A174" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="B174" s="71"/>
-      <c r="C174" s="72"/>
+      <c r="B174" s="69"/>
+      <c r="C174" s="70"/>
       <c r="D174" s="14"/>
       <c r="E174" s="15" t="s">
         <v>2</v>
@@ -7356,138 +7350,138 @@
       <c r="F174" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G174" s="95" t="s">
+      <c r="G174" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="H174" s="90"/>
-      <c r="I174" s="90"/>
-      <c r="J174" s="90"/>
-      <c r="K174" s="91"/>
+      <c r="H174" s="175"/>
+      <c r="I174" s="175"/>
+      <c r="J174" s="175"/>
+      <c r="K174" s="176"/>
     </row>
     <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="92" t="s">
+      <c r="A175" s="127" t="s">
         <v>99</v>
       </c>
-      <c r="B175" s="93"/>
-      <c r="C175" s="93"/>
+      <c r="B175" s="128"/>
+      <c r="C175" s="128"/>
       <c r="D175" s="10"/>
       <c r="E175" s="16"/>
       <c r="F175" s="10"/>
-      <c r="G175" s="92"/>
-      <c r="H175" s="93"/>
-      <c r="I175" s="93"/>
-      <c r="J175" s="93"/>
-      <c r="K175" s="98"/>
+      <c r="G175" s="127"/>
+      <c r="H175" s="128"/>
+      <c r="I175" s="128"/>
+      <c r="J175" s="128"/>
+      <c r="K175" s="141"/>
     </row>
     <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="75" t="s">
+      <c r="A176" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="B176" s="76"/>
-      <c r="C176" s="76"/>
+      <c r="B176" s="74"/>
+      <c r="C176" s="74"/>
       <c r="D176" s="10"/>
       <c r="E176" s="18"/>
       <c r="F176" s="10"/>
-      <c r="G176" s="75"/>
-      <c r="H176" s="76"/>
-      <c r="I176" s="76"/>
-      <c r="J176" s="76"/>
-      <c r="K176" s="78"/>
+      <c r="G176" s="73"/>
+      <c r="H176" s="74"/>
+      <c r="I176" s="74"/>
+      <c r="J176" s="74"/>
+      <c r="K176" s="76"/>
     </row>
     <row r="177" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="92" t="s">
+      <c r="A177" s="127" t="s">
         <v>101</v>
       </c>
-      <c r="B177" s="93"/>
-      <c r="C177" s="93"/>
+      <c r="B177" s="128"/>
+      <c r="C177" s="128"/>
       <c r="D177" s="10"/>
       <c r="E177" s="16"/>
       <c r="F177" s="10"/>
-      <c r="G177" s="92"/>
-      <c r="H177" s="93"/>
-      <c r="I177" s="93"/>
-      <c r="J177" s="93"/>
-      <c r="K177" s="98"/>
+      <c r="G177" s="127"/>
+      <c r="H177" s="128"/>
+      <c r="I177" s="128"/>
+      <c r="J177" s="128"/>
+      <c r="K177" s="141"/>
     </row>
     <row r="178" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="75" t="s">
+      <c r="A178" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="B178" s="76"/>
-      <c r="C178" s="76"/>
+      <c r="B178" s="74"/>
+      <c r="C178" s="74"/>
       <c r="D178" s="10"/>
       <c r="E178" s="18"/>
       <c r="F178" s="10"/>
-      <c r="G178" s="75"/>
-      <c r="H178" s="76"/>
-      <c r="I178" s="76"/>
-      <c r="J178" s="76"/>
-      <c r="K178" s="78"/>
+      <c r="G178" s="73"/>
+      <c r="H178" s="74"/>
+      <c r="I178" s="74"/>
+      <c r="J178" s="74"/>
+      <c r="K178" s="76"/>
     </row>
     <row r="179" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="92" t="s">
+      <c r="A179" s="127" t="s">
         <v>103</v>
       </c>
-      <c r="B179" s="93"/>
-      <c r="C179" s="93"/>
+      <c r="B179" s="128"/>
+      <c r="C179" s="128"/>
       <c r="D179" s="10"/>
       <c r="E179" s="16"/>
       <c r="F179" s="10"/>
-      <c r="G179" s="75"/>
-      <c r="H179" s="76"/>
-      <c r="I179" s="76"/>
-      <c r="J179" s="76"/>
-      <c r="K179" s="78"/>
+      <c r="G179" s="73"/>
+      <c r="H179" s="74"/>
+      <c r="I179" s="74"/>
+      <c r="J179" s="74"/>
+      <c r="K179" s="76"/>
     </row>
     <row r="180" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="75" t="s">
+      <c r="A180" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B180" s="83"/>
-      <c r="C180" s="84"/>
+      <c r="B180" s="78"/>
+      <c r="C180" s="79"/>
       <c r="D180" s="10"/>
       <c r="E180" s="47"/>
       <c r="F180" s="10"/>
-      <c r="G180" s="85"/>
-      <c r="H180" s="86"/>
-      <c r="I180" s="86"/>
-      <c r="J180" s="86"/>
-      <c r="K180" s="87"/>
+      <c r="G180" s="86"/>
+      <c r="H180" s="87"/>
+      <c r="I180" s="87"/>
+      <c r="J180" s="87"/>
+      <c r="K180" s="88"/>
     </row>
     <row r="181" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="75" t="s">
+      <c r="A181" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B181" s="83"/>
-      <c r="C181" s="84"/>
+      <c r="B181" s="78"/>
+      <c r="C181" s="79"/>
       <c r="D181" s="10"/>
       <c r="E181" s="47"/>
       <c r="F181" s="10"/>
-      <c r="G181" s="85"/>
-      <c r="H181" s="86"/>
-      <c r="I181" s="86"/>
-      <c r="J181" s="86"/>
-      <c r="K181" s="87"/>
+      <c r="G181" s="86"/>
+      <c r="H181" s="87"/>
+      <c r="I181" s="87"/>
+      <c r="J181" s="87"/>
+      <c r="K181" s="88"/>
     </row>
     <row r="182" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="75"/>
-      <c r="B182" s="76"/>
-      <c r="C182" s="76"/>
-      <c r="D182" s="76"/>
-      <c r="E182" s="76"/>
-      <c r="F182" s="76"/>
-      <c r="G182" s="76"/>
-      <c r="H182" s="76"/>
-      <c r="I182" s="76"/>
-      <c r="J182" s="76"/>
-      <c r="K182" s="78"/>
+      <c r="A182" s="73"/>
+      <c r="B182" s="74"/>
+      <c r="C182" s="74"/>
+      <c r="D182" s="74"/>
+      <c r="E182" s="74"/>
+      <c r="F182" s="74"/>
+      <c r="G182" s="74"/>
+      <c r="H182" s="74"/>
+      <c r="I182" s="74"/>
+      <c r="J182" s="74"/>
+      <c r="K182" s="76"/>
     </row>
     <row r="183" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="70" t="s">
+      <c r="A183" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="B183" s="71"/>
-      <c r="C183" s="72"/>
+      <c r="B183" s="69"/>
+      <c r="C183" s="70"/>
       <c r="D183" s="14"/>
       <c r="E183" s="15" t="s">
         <v>2</v>
@@ -7495,138 +7489,138 @@
       <c r="F183" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G183" s="90" t="s">
+      <c r="G183" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="H183" s="90"/>
-      <c r="I183" s="90"/>
-      <c r="J183" s="90"/>
-      <c r="K183" s="91"/>
+      <c r="H183" s="175"/>
+      <c r="I183" s="175"/>
+      <c r="J183" s="175"/>
+      <c r="K183" s="176"/>
     </row>
     <row r="184" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="92" t="s">
+      <c r="A184" s="127" t="s">
         <v>106</v>
       </c>
-      <c r="B184" s="93"/>
-      <c r="C184" s="93"/>
+      <c r="B184" s="128"/>
+      <c r="C184" s="128"/>
       <c r="D184" s="10"/>
       <c r="E184" s="16"/>
       <c r="F184" s="10"/>
-      <c r="G184" s="79"/>
-      <c r="H184" s="80"/>
-      <c r="I184" s="80"/>
-      <c r="J184" s="80"/>
-      <c r="K184" s="97"/>
+      <c r="G184" s="92"/>
+      <c r="H184" s="93"/>
+      <c r="I184" s="93"/>
+      <c r="J184" s="93"/>
+      <c r="K184" s="124"/>
     </row>
     <row r="185" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="75" t="s">
+      <c r="A185" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="B185" s="76"/>
-      <c r="C185" s="76"/>
+      <c r="B185" s="74"/>
+      <c r="C185" s="74"/>
       <c r="D185" s="10"/>
       <c r="E185" s="18"/>
       <c r="F185" s="10"/>
-      <c r="G185" s="75"/>
-      <c r="H185" s="76"/>
-      <c r="I185" s="76"/>
-      <c r="J185" s="76"/>
-      <c r="K185" s="78"/>
+      <c r="G185" s="73"/>
+      <c r="H185" s="74"/>
+      <c r="I185" s="74"/>
+      <c r="J185" s="74"/>
+      <c r="K185" s="76"/>
     </row>
     <row r="186" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="92" t="s">
+      <c r="A186" s="127" t="s">
         <v>108</v>
       </c>
-      <c r="B186" s="93"/>
-      <c r="C186" s="94"/>
+      <c r="B186" s="128"/>
+      <c r="C186" s="172"/>
       <c r="D186" s="10"/>
       <c r="E186" s="16"/>
       <c r="F186" s="10"/>
-      <c r="G186" s="92"/>
-      <c r="H186" s="93"/>
-      <c r="I186" s="93"/>
-      <c r="J186" s="93"/>
-      <c r="K186" s="98"/>
+      <c r="G186" s="127"/>
+      <c r="H186" s="128"/>
+      <c r="I186" s="128"/>
+      <c r="J186" s="128"/>
+      <c r="K186" s="141"/>
     </row>
     <row r="187" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="75" t="s">
+      <c r="A187" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="B187" s="76"/>
-      <c r="C187" s="96"/>
+      <c r="B187" s="74"/>
+      <c r="C187" s="109"/>
       <c r="D187" s="10"/>
       <c r="E187" s="18"/>
       <c r="F187" s="10"/>
-      <c r="G187" s="75"/>
-      <c r="H187" s="76"/>
-      <c r="I187" s="76"/>
-      <c r="J187" s="76"/>
-      <c r="K187" s="78"/>
+      <c r="G187" s="73"/>
+      <c r="H187" s="74"/>
+      <c r="I187" s="74"/>
+      <c r="J187" s="74"/>
+      <c r="K187" s="76"/>
     </row>
     <row r="188" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="92" t="s">
+      <c r="A188" s="127" t="s">
         <v>110</v>
       </c>
-      <c r="B188" s="93"/>
-      <c r="C188" s="94"/>
+      <c r="B188" s="128"/>
+      <c r="C188" s="172"/>
       <c r="D188" s="10"/>
       <c r="E188" s="16"/>
       <c r="F188" s="10"/>
-      <c r="G188" s="92"/>
-      <c r="H188" s="93"/>
-      <c r="I188" s="93"/>
-      <c r="J188" s="93"/>
-      <c r="K188" s="98"/>
+      <c r="G188" s="127"/>
+      <c r="H188" s="128"/>
+      <c r="I188" s="128"/>
+      <c r="J188" s="128"/>
+      <c r="K188" s="141"/>
     </row>
     <row r="189" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="75" t="s">
+      <c r="A189" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B189" s="83"/>
-      <c r="C189" s="84"/>
+      <c r="B189" s="78"/>
+      <c r="C189" s="79"/>
       <c r="D189" s="10"/>
       <c r="E189" s="47"/>
       <c r="F189" s="10"/>
-      <c r="G189" s="75"/>
-      <c r="H189" s="76"/>
-      <c r="I189" s="76"/>
-      <c r="J189" s="76"/>
-      <c r="K189" s="78"/>
+      <c r="G189" s="73"/>
+      <c r="H189" s="74"/>
+      <c r="I189" s="74"/>
+      <c r="J189" s="74"/>
+      <c r="K189" s="76"/>
     </row>
     <row r="190" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="75" t="s">
+      <c r="A190" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B190" s="83"/>
-      <c r="C190" s="84"/>
+      <c r="B190" s="78"/>
+      <c r="C190" s="79"/>
       <c r="D190" s="10"/>
       <c r="E190" s="47"/>
       <c r="F190" s="10"/>
-      <c r="G190" s="85"/>
-      <c r="H190" s="86"/>
-      <c r="I190" s="86"/>
-      <c r="J190" s="86"/>
-      <c r="K190" s="87"/>
+      <c r="G190" s="86"/>
+      <c r="H190" s="87"/>
+      <c r="I190" s="87"/>
+      <c r="J190" s="87"/>
+      <c r="K190" s="88"/>
     </row>
     <row r="191" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="79"/>
-      <c r="B191" s="80"/>
-      <c r="C191" s="80"/>
-      <c r="D191" s="80"/>
-      <c r="E191" s="80"/>
-      <c r="F191" s="80"/>
-      <c r="G191" s="80"/>
-      <c r="H191" s="80"/>
-      <c r="I191" s="80"/>
-      <c r="J191" s="80"/>
-      <c r="K191" s="97"/>
+      <c r="A191" s="92"/>
+      <c r="B191" s="93"/>
+      <c r="C191" s="93"/>
+      <c r="D191" s="93"/>
+      <c r="E191" s="93"/>
+      <c r="F191" s="93"/>
+      <c r="G191" s="93"/>
+      <c r="H191" s="93"/>
+      <c r="I191" s="93"/>
+      <c r="J191" s="93"/>
+      <c r="K191" s="124"/>
     </row>
     <row r="192" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="70" t="s">
+      <c r="A192" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="B192" s="71"/>
-      <c r="C192" s="72"/>
+      <c r="B192" s="69"/>
+      <c r="C192" s="70"/>
       <c r="D192" s="11"/>
       <c r="E192" s="6" t="s">
         <v>2</v>
@@ -7634,108 +7628,108 @@
       <c r="F192" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G192" s="105" t="s">
+      <c r="G192" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="H192" s="105"/>
-      <c r="I192" s="105"/>
-      <c r="J192" s="105"/>
-      <c r="K192" s="106"/>
+      <c r="H192" s="125"/>
+      <c r="I192" s="125"/>
+      <c r="J192" s="125"/>
+      <c r="K192" s="126"/>
     </row>
     <row r="193" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="92" t="s">
+      <c r="A193" s="127" t="s">
         <v>112</v>
       </c>
-      <c r="B193" s="93"/>
-      <c r="C193" s="107"/>
+      <c r="B193" s="128"/>
+      <c r="C193" s="129"/>
       <c r="D193" s="10"/>
       <c r="E193" s="16"/>
       <c r="F193" s="10"/>
-      <c r="G193" s="79"/>
-      <c r="H193" s="80"/>
-      <c r="I193" s="80"/>
-      <c r="J193" s="80"/>
-      <c r="K193" s="97"/>
+      <c r="G193" s="92"/>
+      <c r="H193" s="93"/>
+      <c r="I193" s="93"/>
+      <c r="J193" s="93"/>
+      <c r="K193" s="124"/>
     </row>
     <row r="194" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="75" t="s">
+      <c r="A194" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="B194" s="76"/>
-      <c r="C194" s="77"/>
+      <c r="B194" s="74"/>
+      <c r="C194" s="75"/>
       <c r="D194" s="10"/>
       <c r="E194" s="18"/>
       <c r="F194" s="10"/>
-      <c r="G194" s="75"/>
-      <c r="H194" s="76"/>
-      <c r="I194" s="76"/>
-      <c r="J194" s="76"/>
-      <c r="K194" s="78"/>
+      <c r="G194" s="73"/>
+      <c r="H194" s="74"/>
+      <c r="I194" s="74"/>
+      <c r="J194" s="74"/>
+      <c r="K194" s="76"/>
     </row>
     <row r="195" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="75" t="s">
+      <c r="A195" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="B195" s="83"/>
-      <c r="C195" s="84"/>
+      <c r="B195" s="78"/>
+      <c r="C195" s="79"/>
       <c r="D195" s="10"/>
       <c r="E195" s="47"/>
       <c r="F195" s="10"/>
-      <c r="G195" s="85"/>
-      <c r="H195" s="86"/>
-      <c r="I195" s="86"/>
-      <c r="J195" s="86"/>
-      <c r="K195" s="87"/>
+      <c r="G195" s="86"/>
+      <c r="H195" s="87"/>
+      <c r="I195" s="87"/>
+      <c r="J195" s="87"/>
+      <c r="K195" s="88"/>
     </row>
     <row r="196" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="75" t="s">
+      <c r="A196" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B196" s="83"/>
-      <c r="C196" s="84"/>
+      <c r="B196" s="78"/>
+      <c r="C196" s="79"/>
       <c r="D196" s="10"/>
       <c r="E196" s="47"/>
       <c r="F196" s="10"/>
-      <c r="G196" s="85"/>
-      <c r="H196" s="86"/>
-      <c r="I196" s="86"/>
-      <c r="J196" s="86"/>
-      <c r="K196" s="87"/>
+      <c r="G196" s="86"/>
+      <c r="H196" s="87"/>
+      <c r="I196" s="87"/>
+      <c r="J196" s="87"/>
+      <c r="K196" s="88"/>
     </row>
     <row r="197" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="75" t="s">
+      <c r="A197" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B197" s="83"/>
-      <c r="C197" s="84"/>
+      <c r="B197" s="78"/>
+      <c r="C197" s="79"/>
       <c r="D197" s="10"/>
       <c r="E197" s="58"/>
       <c r="F197" s="10"/>
-      <c r="G197" s="85"/>
-      <c r="H197" s="86"/>
-      <c r="I197" s="86"/>
-      <c r="J197" s="86"/>
-      <c r="K197" s="87"/>
+      <c r="G197" s="86"/>
+      <c r="H197" s="87"/>
+      <c r="I197" s="87"/>
+      <c r="J197" s="87"/>
+      <c r="K197" s="88"/>
     </row>
     <row r="198" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="79"/>
-      <c r="B198" s="80"/>
-      <c r="C198" s="80"/>
-      <c r="D198" s="80"/>
-      <c r="E198" s="80"/>
-      <c r="F198" s="80"/>
-      <c r="G198" s="80"/>
-      <c r="H198" s="80"/>
-      <c r="I198" s="80"/>
-      <c r="J198" s="80"/>
-      <c r="K198" s="97"/>
+      <c r="A198" s="92"/>
+      <c r="B198" s="93"/>
+      <c r="C198" s="93"/>
+      <c r="D198" s="93"/>
+      <c r="E198" s="93"/>
+      <c r="F198" s="93"/>
+      <c r="G198" s="93"/>
+      <c r="H198" s="93"/>
+      <c r="I198" s="93"/>
+      <c r="J198" s="93"/>
+      <c r="K198" s="124"/>
     </row>
     <row r="199" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="70" t="s">
+      <c r="A199" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="B199" s="71"/>
-      <c r="C199" s="72"/>
+      <c r="B199" s="69"/>
+      <c r="C199" s="70"/>
       <c r="D199" s="11"/>
       <c r="E199" s="6" t="s">
         <v>2</v>
@@ -7743,78 +7737,78 @@
       <c r="F199" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G199" s="105" t="s">
+      <c r="G199" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="H199" s="105"/>
-      <c r="I199" s="105"/>
-      <c r="J199" s="105"/>
-      <c r="K199" s="106"/>
+      <c r="H199" s="125"/>
+      <c r="I199" s="125"/>
+      <c r="J199" s="125"/>
+      <c r="K199" s="126"/>
     </row>
     <row r="200" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="92" t="s">
+      <c r="A200" s="127" t="s">
         <v>115</v>
       </c>
-      <c r="B200" s="93"/>
-      <c r="C200" s="107"/>
+      <c r="B200" s="128"/>
+      <c r="C200" s="129"/>
       <c r="D200" s="10"/>
       <c r="E200" s="16"/>
       <c r="F200" s="10"/>
-      <c r="G200" s="108"/>
-      <c r="H200" s="109"/>
-      <c r="I200" s="109"/>
-      <c r="J200" s="109"/>
-      <c r="K200" s="110"/>
+      <c r="G200" s="130"/>
+      <c r="H200" s="131"/>
+      <c r="I200" s="131"/>
+      <c r="J200" s="131"/>
+      <c r="K200" s="132"/>
     </row>
     <row r="201" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="75" t="s">
+      <c r="A201" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B201" s="83"/>
-      <c r="C201" s="84"/>
+      <c r="B201" s="78"/>
+      <c r="C201" s="79"/>
       <c r="D201" s="10"/>
       <c r="E201" s="47"/>
       <c r="F201" s="10"/>
-      <c r="G201" s="75"/>
-      <c r="H201" s="76"/>
-      <c r="I201" s="76"/>
-      <c r="J201" s="76"/>
-      <c r="K201" s="78"/>
+      <c r="G201" s="73"/>
+      <c r="H201" s="74"/>
+      <c r="I201" s="74"/>
+      <c r="J201" s="74"/>
+      <c r="K201" s="76"/>
     </row>
     <row r="202" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="75" t="s">
+      <c r="A202" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B202" s="83"/>
-      <c r="C202" s="84"/>
+      <c r="B202" s="78"/>
+      <c r="C202" s="79"/>
       <c r="D202" s="10"/>
       <c r="E202" s="47"/>
       <c r="F202" s="10"/>
-      <c r="G202" s="85"/>
-      <c r="H202" s="86"/>
-      <c r="I202" s="86"/>
-      <c r="J202" s="86"/>
-      <c r="K202" s="87"/>
+      <c r="G202" s="86"/>
+      <c r="H202" s="87"/>
+      <c r="I202" s="87"/>
+      <c r="J202" s="87"/>
+      <c r="K202" s="88"/>
     </row>
     <row r="203" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="79"/>
-      <c r="B203" s="80"/>
-      <c r="C203" s="80"/>
-      <c r="D203" s="80"/>
-      <c r="E203" s="80"/>
-      <c r="F203" s="80"/>
-      <c r="G203" s="80"/>
-      <c r="H203" s="80"/>
-      <c r="I203" s="80"/>
-      <c r="J203" s="80"/>
-      <c r="K203" s="97"/>
+      <c r="A203" s="92"/>
+      <c r="B203" s="93"/>
+      <c r="C203" s="93"/>
+      <c r="D203" s="93"/>
+      <c r="E203" s="93"/>
+      <c r="F203" s="93"/>
+      <c r="G203" s="93"/>
+      <c r="H203" s="93"/>
+      <c r="I203" s="93"/>
+      <c r="J203" s="93"/>
+      <c r="K203" s="124"/>
     </row>
     <row r="204" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="88" t="s">
+      <c r="A204" s="173" t="s">
         <v>116</v>
       </c>
-      <c r="B204" s="89"/>
-      <c r="C204" s="89"/>
+      <c r="B204" s="174"/>
+      <c r="C204" s="174"/>
       <c r="D204" s="38"/>
       <c r="E204" s="15" t="s">
         <v>2</v>
@@ -7822,138 +7816,138 @@
       <c r="F204" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G204" s="90" t="s">
+      <c r="G204" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="H204" s="90"/>
-      <c r="I204" s="90"/>
-      <c r="J204" s="90"/>
-      <c r="K204" s="91"/>
+      <c r="H204" s="175"/>
+      <c r="I204" s="175"/>
+      <c r="J204" s="175"/>
+      <c r="K204" s="176"/>
     </row>
     <row r="205" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="92" t="s">
+      <c r="A205" s="127" t="s">
         <v>117</v>
       </c>
-      <c r="B205" s="93"/>
-      <c r="C205" s="107"/>
+      <c r="B205" s="128"/>
+      <c r="C205" s="129"/>
       <c r="D205" s="10"/>
       <c r="E205" s="39"/>
       <c r="F205" s="10"/>
-      <c r="G205" s="184"/>
-      <c r="H205" s="185"/>
-      <c r="I205" s="185"/>
-      <c r="J205" s="185"/>
-      <c r="K205" s="186"/>
+      <c r="G205" s="177"/>
+      <c r="H205" s="178"/>
+      <c r="I205" s="178"/>
+      <c r="J205" s="178"/>
+      <c r="K205" s="179"/>
     </row>
     <row r="206" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="75" t="s">
+      <c r="A206" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="B206" s="76"/>
-      <c r="C206" s="77"/>
+      <c r="B206" s="74"/>
+      <c r="C206" s="75"/>
       <c r="D206" s="10"/>
       <c r="E206" s="10"/>
       <c r="F206" s="10"/>
-      <c r="G206" s="167"/>
-      <c r="H206" s="168"/>
-      <c r="I206" s="168"/>
-      <c r="J206" s="168"/>
-      <c r="K206" s="169"/>
+      <c r="G206" s="180"/>
+      <c r="H206" s="181"/>
+      <c r="I206" s="181"/>
+      <c r="J206" s="181"/>
+      <c r="K206" s="182"/>
     </row>
     <row r="207" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="92" t="s">
+      <c r="A207" s="127" t="s">
         <v>119</v>
       </c>
-      <c r="B207" s="93"/>
-      <c r="C207" s="107"/>
+      <c r="B207" s="128"/>
+      <c r="C207" s="129"/>
       <c r="D207" s="10"/>
       <c r="E207" s="22"/>
       <c r="F207" s="10"/>
-      <c r="G207" s="173"/>
-      <c r="H207" s="174"/>
-      <c r="I207" s="174"/>
-      <c r="J207" s="174"/>
-      <c r="K207" s="175"/>
+      <c r="G207" s="183"/>
+      <c r="H207" s="184"/>
+      <c r="I207" s="184"/>
+      <c r="J207" s="184"/>
+      <c r="K207" s="185"/>
     </row>
     <row r="208" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="75" t="s">
+      <c r="A208" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="B208" s="76"/>
-      <c r="C208" s="77"/>
+      <c r="B208" s="74"/>
+      <c r="C208" s="75"/>
       <c r="D208" s="10"/>
       <c r="E208" s="26"/>
       <c r="F208" s="10"/>
-      <c r="G208" s="167"/>
-      <c r="H208" s="168"/>
-      <c r="I208" s="168"/>
-      <c r="J208" s="168"/>
-      <c r="K208" s="169"/>
+      <c r="G208" s="180"/>
+      <c r="H208" s="181"/>
+      <c r="I208" s="181"/>
+      <c r="J208" s="181"/>
+      <c r="K208" s="182"/>
     </row>
     <row r="209" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="92" t="s">
+      <c r="A209" s="127" t="s">
         <v>121</v>
       </c>
-      <c r="B209" s="93"/>
-      <c r="C209" s="94"/>
+      <c r="B209" s="128"/>
+      <c r="C209" s="172"/>
       <c r="D209" s="10"/>
       <c r="E209" s="16"/>
       <c r="F209" s="10"/>
-      <c r="G209" s="173"/>
-      <c r="H209" s="174"/>
-      <c r="I209" s="174"/>
-      <c r="J209" s="174"/>
-      <c r="K209" s="175"/>
+      <c r="G209" s="183"/>
+      <c r="H209" s="184"/>
+      <c r="I209" s="184"/>
+      <c r="J209" s="184"/>
+      <c r="K209" s="185"/>
     </row>
     <row r="210" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="75" t="s">
+      <c r="A210" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B210" s="83"/>
-      <c r="C210" s="84"/>
+      <c r="B210" s="78"/>
+      <c r="C210" s="79"/>
       <c r="D210" s="10"/>
       <c r="E210" s="47"/>
       <c r="F210" s="10"/>
-      <c r="G210" s="75"/>
-      <c r="H210" s="76"/>
-      <c r="I210" s="76"/>
-      <c r="J210" s="76"/>
-      <c r="K210" s="78"/>
+      <c r="G210" s="73"/>
+      <c r="H210" s="74"/>
+      <c r="I210" s="74"/>
+      <c r="J210" s="74"/>
+      <c r="K210" s="76"/>
     </row>
     <row r="211" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="75" t="s">
+      <c r="A211" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B211" s="83"/>
-      <c r="C211" s="84"/>
+      <c r="B211" s="78"/>
+      <c r="C211" s="79"/>
       <c r="D211" s="10"/>
       <c r="E211" s="47"/>
       <c r="F211" s="10"/>
-      <c r="G211" s="85"/>
-      <c r="H211" s="86"/>
-      <c r="I211" s="86"/>
-      <c r="J211" s="86"/>
-      <c r="K211" s="87"/>
+      <c r="G211" s="86"/>
+      <c r="H211" s="87"/>
+      <c r="I211" s="87"/>
+      <c r="J211" s="87"/>
+      <c r="K211" s="88"/>
     </row>
     <row r="212" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="79"/>
-      <c r="B212" s="80"/>
-      <c r="C212" s="80"/>
-      <c r="D212" s="80"/>
-      <c r="E212" s="80"/>
-      <c r="F212" s="80"/>
-      <c r="G212" s="80"/>
-      <c r="H212" s="80"/>
-      <c r="I212" s="80"/>
-      <c r="J212" s="80"/>
-      <c r="K212" s="97"/>
+      <c r="A212" s="92"/>
+      <c r="B212" s="93"/>
+      <c r="C212" s="93"/>
+      <c r="D212" s="93"/>
+      <c r="E212" s="93"/>
+      <c r="F212" s="93"/>
+      <c r="G212" s="93"/>
+      <c r="H212" s="93"/>
+      <c r="I212" s="93"/>
+      <c r="J212" s="93"/>
+      <c r="K212" s="124"/>
     </row>
     <row r="213" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="88" t="s">
+      <c r="A213" s="173" t="s">
         <v>122</v>
       </c>
-      <c r="B213" s="89"/>
-      <c r="C213" s="89"/>
+      <c r="B213" s="174"/>
+      <c r="C213" s="174"/>
       <c r="D213" s="38"/>
       <c r="E213" s="15" t="s">
         <v>2</v>
@@ -7961,93 +7955,93 @@
       <c r="F213" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G213" s="90" t="s">
+      <c r="G213" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="H213" s="90"/>
-      <c r="I213" s="90"/>
-      <c r="J213" s="90"/>
-      <c r="K213" s="91"/>
+      <c r="H213" s="175"/>
+      <c r="I213" s="175"/>
+      <c r="J213" s="175"/>
+      <c r="K213" s="176"/>
     </row>
     <row r="214" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="92" t="s">
+      <c r="A214" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="B214" s="93"/>
-      <c r="C214" s="94"/>
+      <c r="B214" s="128"/>
+      <c r="C214" s="172"/>
       <c r="D214" s="10"/>
       <c r="E214" s="16"/>
       <c r="F214" s="10"/>
-      <c r="G214" s="187"/>
-      <c r="H214" s="188"/>
-      <c r="I214" s="188"/>
-      <c r="J214" s="188"/>
-      <c r="K214" s="189"/>
+      <c r="G214" s="165"/>
+      <c r="H214" s="166"/>
+      <c r="I214" s="166"/>
+      <c r="J214" s="166"/>
+      <c r="K214" s="167"/>
     </row>
     <row r="215" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="75" t="s">
+      <c r="A215" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="B215" s="76"/>
-      <c r="C215" s="77"/>
+      <c r="B215" s="74"/>
+      <c r="C215" s="75"/>
       <c r="D215" s="10"/>
       <c r="E215" s="29"/>
       <c r="F215" s="10"/>
-      <c r="G215" s="158"/>
-      <c r="H215" s="159"/>
-      <c r="I215" s="159"/>
-      <c r="J215" s="159"/>
-      <c r="K215" s="160"/>
+      <c r="G215" s="168"/>
+      <c r="H215" s="102"/>
+      <c r="I215" s="102"/>
+      <c r="J215" s="102"/>
+      <c r="K215" s="103"/>
     </row>
     <row r="216" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="75" t="s">
+      <c r="A216" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B216" s="83"/>
-      <c r="C216" s="84"/>
+      <c r="B216" s="78"/>
+      <c r="C216" s="79"/>
       <c r="D216" s="10"/>
       <c r="E216" s="47"/>
       <c r="F216" s="10"/>
-      <c r="G216" s="75"/>
-      <c r="H216" s="76"/>
-      <c r="I216" s="76"/>
-      <c r="J216" s="76"/>
-      <c r="K216" s="78"/>
+      <c r="G216" s="73"/>
+      <c r="H216" s="74"/>
+      <c r="I216" s="74"/>
+      <c r="J216" s="74"/>
+      <c r="K216" s="76"/>
     </row>
     <row r="217" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="75" t="s">
+      <c r="A217" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B217" s="83"/>
-      <c r="C217" s="84"/>
+      <c r="B217" s="78"/>
+      <c r="C217" s="79"/>
       <c r="D217" s="10"/>
       <c r="E217" s="47"/>
       <c r="F217" s="10"/>
-      <c r="G217" s="85"/>
-      <c r="H217" s="86"/>
-      <c r="I217" s="86"/>
-      <c r="J217" s="86"/>
-      <c r="K217" s="87"/>
+      <c r="G217" s="86"/>
+      <c r="H217" s="87"/>
+      <c r="I217" s="87"/>
+      <c r="J217" s="87"/>
+      <c r="K217" s="88"/>
     </row>
     <row r="218" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="79"/>
-      <c r="B218" s="80"/>
-      <c r="C218" s="80"/>
-      <c r="D218" s="80"/>
-      <c r="E218" s="80"/>
-      <c r="F218" s="80"/>
-      <c r="G218" s="80"/>
-      <c r="H218" s="80"/>
-      <c r="I218" s="80"/>
-      <c r="J218" s="80"/>
-      <c r="K218" s="97"/>
+      <c r="A218" s="92"/>
+      <c r="B218" s="93"/>
+      <c r="C218" s="93"/>
+      <c r="D218" s="93"/>
+      <c r="E218" s="93"/>
+      <c r="F218" s="93"/>
+      <c r="G218" s="93"/>
+      <c r="H218" s="93"/>
+      <c r="I218" s="93"/>
+      <c r="J218" s="93"/>
+      <c r="K218" s="124"/>
     </row>
     <row r="219" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="88" t="s">
+      <c r="A219" s="173" t="s">
         <v>203</v>
       </c>
-      <c r="B219" s="89"/>
-      <c r="C219" s="89"/>
+      <c r="B219" s="174"/>
+      <c r="C219" s="174"/>
       <c r="D219" s="38"/>
       <c r="E219" s="15" t="s">
         <v>2</v>
@@ -8055,198 +8049,198 @@
       <c r="F219" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G219" s="90" t="s">
+      <c r="G219" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="H219" s="90"/>
-      <c r="I219" s="90"/>
-      <c r="J219" s="90"/>
-      <c r="K219" s="91"/>
+      <c r="H219" s="175"/>
+      <c r="I219" s="175"/>
+      <c r="J219" s="175"/>
+      <c r="K219" s="176"/>
     </row>
     <row r="220" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="92" t="s">
+      <c r="A220" s="127" t="s">
         <v>204</v>
       </c>
-      <c r="B220" s="93"/>
-      <c r="C220" s="107"/>
+      <c r="B220" s="128"/>
+      <c r="C220" s="129"/>
       <c r="D220" s="10"/>
       <c r="E220" s="40"/>
       <c r="F220" s="10"/>
-      <c r="G220" s="187"/>
-      <c r="H220" s="188"/>
-      <c r="I220" s="188"/>
-      <c r="J220" s="188"/>
-      <c r="K220" s="189"/>
+      <c r="G220" s="165"/>
+      <c r="H220" s="166"/>
+      <c r="I220" s="166"/>
+      <c r="J220" s="166"/>
+      <c r="K220" s="167"/>
     </row>
     <row r="221" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="79" t="s">
+      <c r="A221" s="92" t="s">
         <v>205</v>
       </c>
-      <c r="B221" s="80"/>
-      <c r="C221" s="81"/>
+      <c r="B221" s="93"/>
+      <c r="C221" s="94"/>
       <c r="D221" s="10"/>
       <c r="E221" s="41"/>
       <c r="F221" s="10"/>
-      <c r="G221" s="187"/>
-      <c r="H221" s="188"/>
-      <c r="I221" s="188"/>
-      <c r="J221" s="188"/>
-      <c r="K221" s="189"/>
+      <c r="G221" s="165"/>
+      <c r="H221" s="166"/>
+      <c r="I221" s="166"/>
+      <c r="J221" s="166"/>
+      <c r="K221" s="167"/>
     </row>
     <row r="222" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="75" t="s">
+      <c r="A222" s="73" t="s">
         <v>206</v>
       </c>
-      <c r="B222" s="76"/>
-      <c r="C222" s="77"/>
+      <c r="B222" s="74"/>
+      <c r="C222" s="75"/>
       <c r="D222" s="10"/>
       <c r="E222" s="29"/>
       <c r="F222" s="10"/>
-      <c r="G222" s="158"/>
-      <c r="H222" s="159"/>
-      <c r="I222" s="159"/>
-      <c r="J222" s="159"/>
-      <c r="K222" s="160"/>
+      <c r="G222" s="168"/>
+      <c r="H222" s="102"/>
+      <c r="I222" s="102"/>
+      <c r="J222" s="102"/>
+      <c r="K222" s="103"/>
     </row>
     <row r="223" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="75" t="s">
+      <c r="A223" s="73" t="s">
         <v>207</v>
       </c>
-      <c r="B223" s="76"/>
-      <c r="C223" s="77"/>
+      <c r="B223" s="74"/>
+      <c r="C223" s="75"/>
       <c r="D223" s="10"/>
       <c r="E223" s="29"/>
       <c r="F223" s="10"/>
-      <c r="G223" s="158"/>
-      <c r="H223" s="159"/>
-      <c r="I223" s="159"/>
-      <c r="J223" s="159"/>
-      <c r="K223" s="160"/>
+      <c r="G223" s="168"/>
+      <c r="H223" s="102"/>
+      <c r="I223" s="102"/>
+      <c r="J223" s="102"/>
+      <c r="K223" s="103"/>
     </row>
     <row r="224" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="92" t="s">
+      <c r="A224" s="127" t="s">
         <v>208</v>
       </c>
-      <c r="B224" s="93"/>
-      <c r="C224" s="107"/>
+      <c r="B224" s="128"/>
+      <c r="C224" s="129"/>
       <c r="D224" s="10"/>
       <c r="E224" s="42"/>
       <c r="F224" s="10"/>
-      <c r="G224" s="176"/>
-      <c r="H224" s="177"/>
-      <c r="I224" s="177"/>
-      <c r="J224" s="177"/>
-      <c r="K224" s="178"/>
+      <c r="G224" s="169"/>
+      <c r="H224" s="170"/>
+      <c r="I224" s="170"/>
+      <c r="J224" s="170"/>
+      <c r="K224" s="171"/>
     </row>
     <row r="225" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="75" t="s">
+      <c r="A225" s="73" t="s">
         <v>209</v>
       </c>
-      <c r="B225" s="76"/>
-      <c r="C225" s="96"/>
+      <c r="B225" s="74"/>
+      <c r="C225" s="109"/>
       <c r="D225" s="10"/>
       <c r="E225" s="29"/>
       <c r="F225" s="10"/>
-      <c r="G225" s="158"/>
-      <c r="H225" s="159"/>
-      <c r="I225" s="159"/>
-      <c r="J225" s="159"/>
-      <c r="K225" s="160"/>
+      <c r="G225" s="168"/>
+      <c r="H225" s="102"/>
+      <c r="I225" s="102"/>
+      <c r="J225" s="102"/>
+      <c r="K225" s="103"/>
     </row>
     <row r="226" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="92" t="s">
+      <c r="A226" s="127" t="s">
         <v>210</v>
       </c>
-      <c r="B226" s="93"/>
-      <c r="C226" s="94"/>
+      <c r="B226" s="128"/>
+      <c r="C226" s="172"/>
       <c r="D226" s="10"/>
       <c r="E226" s="27"/>
       <c r="F226" s="10"/>
-      <c r="G226" s="176"/>
-      <c r="H226" s="177"/>
-      <c r="I226" s="177"/>
-      <c r="J226" s="177"/>
-      <c r="K226" s="178"/>
+      <c r="G226" s="169"/>
+      <c r="H226" s="170"/>
+      <c r="I226" s="170"/>
+      <c r="J226" s="170"/>
+      <c r="K226" s="171"/>
     </row>
     <row r="227" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="75" t="s">
+      <c r="A227" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="B227" s="76"/>
-      <c r="C227" s="76"/>
+      <c r="B227" s="74"/>
+      <c r="C227" s="74"/>
       <c r="D227" s="10"/>
       <c r="E227" s="28"/>
       <c r="F227" s="10"/>
-      <c r="G227" s="158"/>
-      <c r="H227" s="159"/>
-      <c r="I227" s="159"/>
-      <c r="J227" s="159"/>
-      <c r="K227" s="160"/>
+      <c r="G227" s="168"/>
+      <c r="H227" s="102"/>
+      <c r="I227" s="102"/>
+      <c r="J227" s="102"/>
+      <c r="K227" s="103"/>
     </row>
     <row r="228" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="92" t="s">
+      <c r="A228" s="127" t="s">
         <v>212</v>
       </c>
-      <c r="B228" s="93"/>
-      <c r="C228" s="93"/>
+      <c r="B228" s="128"/>
+      <c r="C228" s="128"/>
       <c r="D228" s="10"/>
       <c r="E228" s="42"/>
       <c r="F228" s="10"/>
-      <c r="G228" s="176"/>
-      <c r="H228" s="177"/>
-      <c r="I228" s="177"/>
-      <c r="J228" s="177"/>
-      <c r="K228" s="178"/>
+      <c r="G228" s="169"/>
+      <c r="H228" s="170"/>
+      <c r="I228" s="170"/>
+      <c r="J228" s="170"/>
+      <c r="K228" s="171"/>
     </row>
     <row r="229" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="75" t="s">
+      <c r="A229" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B229" s="83"/>
-      <c r="C229" s="84"/>
+      <c r="B229" s="78"/>
+      <c r="C229" s="79"/>
       <c r="D229" s="10"/>
       <c r="E229" s="47"/>
       <c r="F229" s="10"/>
-      <c r="G229" s="75"/>
-      <c r="H229" s="76"/>
-      <c r="I229" s="76"/>
-      <c r="J229" s="76"/>
-      <c r="K229" s="78"/>
+      <c r="G229" s="73"/>
+      <c r="H229" s="74"/>
+      <c r="I229" s="74"/>
+      <c r="J229" s="74"/>
+      <c r="K229" s="76"/>
     </row>
     <row r="230" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="75" t="s">
+      <c r="A230" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B230" s="83"/>
-      <c r="C230" s="84"/>
+      <c r="B230" s="78"/>
+      <c r="C230" s="79"/>
       <c r="D230" s="10"/>
       <c r="E230" s="47"/>
       <c r="F230" s="10"/>
-      <c r="G230" s="85"/>
-      <c r="H230" s="86"/>
-      <c r="I230" s="86"/>
-      <c r="J230" s="86"/>
-      <c r="K230" s="87"/>
+      <c r="G230" s="86"/>
+      <c r="H230" s="87"/>
+      <c r="I230" s="87"/>
+      <c r="J230" s="87"/>
+      <c r="K230" s="88"/>
     </row>
     <row r="231" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="79"/>
-      <c r="B231" s="80"/>
-      <c r="C231" s="80"/>
-      <c r="D231" s="80"/>
-      <c r="E231" s="80"/>
-      <c r="F231" s="80"/>
-      <c r="G231" s="80"/>
-      <c r="H231" s="80"/>
-      <c r="I231" s="80"/>
-      <c r="J231" s="80"/>
-      <c r="K231" s="97"/>
+      <c r="A231" s="92"/>
+      <c r="B231" s="93"/>
+      <c r="C231" s="93"/>
+      <c r="D231" s="93"/>
+      <c r="E231" s="93"/>
+      <c r="F231" s="93"/>
+      <c r="G231" s="93"/>
+      <c r="H231" s="93"/>
+      <c r="I231" s="93"/>
+      <c r="J231" s="93"/>
+      <c r="K231" s="124"/>
     </row>
     <row r="232" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="70" t="s">
+      <c r="A232" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="B232" s="71"/>
-      <c r="C232" s="72"/>
+      <c r="B232" s="69"/>
+      <c r="C232" s="70"/>
       <c r="D232" s="11"/>
       <c r="E232" s="6" t="s">
         <v>2</v>
@@ -8254,78 +8248,78 @@
       <c r="F232" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G232" s="105" t="s">
+      <c r="G232" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="H232" s="105"/>
-      <c r="I232" s="105"/>
-      <c r="J232" s="105"/>
-      <c r="K232" s="106"/>
+      <c r="H232" s="125"/>
+      <c r="I232" s="125"/>
+      <c r="J232" s="125"/>
+      <c r="K232" s="126"/>
     </row>
     <row r="233" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="75" t="s">
+      <c r="A233" s="73" t="s">
         <v>214</v>
       </c>
-      <c r="B233" s="76"/>
-      <c r="C233" s="78"/>
+      <c r="B233" s="74"/>
+      <c r="C233" s="76"/>
       <c r="D233" s="10"/>
       <c r="E233" s="13"/>
       <c r="F233" s="10"/>
-      <c r="G233" s="75"/>
-      <c r="H233" s="76"/>
-      <c r="I233" s="76"/>
-      <c r="J233" s="76"/>
-      <c r="K233" s="78"/>
+      <c r="G233" s="73"/>
+      <c r="H233" s="74"/>
+      <c r="I233" s="74"/>
+      <c r="J233" s="74"/>
+      <c r="K233" s="76"/>
     </row>
     <row r="234" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="75" t="s">
+      <c r="A234" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B234" s="83"/>
-      <c r="C234" s="84"/>
+      <c r="B234" s="78"/>
+      <c r="C234" s="79"/>
       <c r="D234" s="10"/>
       <c r="E234" s="47"/>
       <c r="F234" s="10"/>
-      <c r="G234" s="75"/>
-      <c r="H234" s="76"/>
-      <c r="I234" s="76"/>
-      <c r="J234" s="76"/>
-      <c r="K234" s="78"/>
+      <c r="G234" s="73"/>
+      <c r="H234" s="74"/>
+      <c r="I234" s="74"/>
+      <c r="J234" s="74"/>
+      <c r="K234" s="76"/>
     </row>
     <row r="235" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="75" t="s">
+      <c r="A235" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B235" s="83"/>
-      <c r="C235" s="84"/>
+      <c r="B235" s="78"/>
+      <c r="C235" s="79"/>
       <c r="D235" s="10"/>
       <c r="E235" s="47"/>
       <c r="F235" s="10"/>
-      <c r="G235" s="85"/>
-      <c r="H235" s="86"/>
-      <c r="I235" s="86"/>
-      <c r="J235" s="86"/>
-      <c r="K235" s="87"/>
+      <c r="G235" s="86"/>
+      <c r="H235" s="87"/>
+      <c r="I235" s="87"/>
+      <c r="J235" s="87"/>
+      <c r="K235" s="88"/>
     </row>
     <row r="236" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="79"/>
-      <c r="B236" s="80"/>
-      <c r="C236" s="80"/>
-      <c r="D236" s="80"/>
-      <c r="E236" s="80"/>
-      <c r="F236" s="80"/>
-      <c r="G236" s="80"/>
-      <c r="H236" s="80"/>
-      <c r="I236" s="80"/>
-      <c r="J236" s="80"/>
-      <c r="K236" s="97"/>
+      <c r="A236" s="92"/>
+      <c r="B236" s="93"/>
+      <c r="C236" s="93"/>
+      <c r="D236" s="93"/>
+      <c r="E236" s="93"/>
+      <c r="F236" s="93"/>
+      <c r="G236" s="93"/>
+      <c r="H236" s="93"/>
+      <c r="I236" s="93"/>
+      <c r="J236" s="93"/>
+      <c r="K236" s="124"/>
     </row>
     <row r="237" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="70" t="s">
+      <c r="A237" s="68" t="s">
         <v>215</v>
       </c>
-      <c r="B237" s="71"/>
-      <c r="C237" s="72"/>
+      <c r="B237" s="69"/>
+      <c r="C237" s="70"/>
       <c r="D237" s="11"/>
       <c r="E237" s="6" t="s">
         <v>2</v>
@@ -8333,78 +8327,78 @@
       <c r="F237" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G237" s="105" t="s">
+      <c r="G237" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="H237" s="105"/>
-      <c r="I237" s="105"/>
-      <c r="J237" s="105"/>
-      <c r="K237" s="106"/>
+      <c r="H237" s="125"/>
+      <c r="I237" s="125"/>
+      <c r="J237" s="125"/>
+      <c r="K237" s="126"/>
     </row>
     <row r="238" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="92" t="s">
+      <c r="A238" s="127" t="s">
         <v>216</v>
       </c>
-      <c r="B238" s="93"/>
-      <c r="C238" s="107"/>
+      <c r="B238" s="128"/>
+      <c r="C238" s="129"/>
       <c r="D238" s="10"/>
       <c r="E238" s="16"/>
       <c r="F238" s="10"/>
-      <c r="G238" s="108"/>
-      <c r="H238" s="109"/>
-      <c r="I238" s="109"/>
-      <c r="J238" s="109"/>
-      <c r="K238" s="110"/>
+      <c r="G238" s="130"/>
+      <c r="H238" s="131"/>
+      <c r="I238" s="131"/>
+      <c r="J238" s="131"/>
+      <c r="K238" s="132"/>
     </row>
     <row r="239" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="75" t="s">
+      <c r="A239" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B239" s="83"/>
-      <c r="C239" s="84"/>
+      <c r="B239" s="78"/>
+      <c r="C239" s="79"/>
       <c r="D239" s="10"/>
       <c r="E239" s="47"/>
       <c r="F239" s="10"/>
-      <c r="G239" s="75"/>
-      <c r="H239" s="76"/>
-      <c r="I239" s="76"/>
-      <c r="J239" s="76"/>
-      <c r="K239" s="78"/>
+      <c r="G239" s="73"/>
+      <c r="H239" s="74"/>
+      <c r="I239" s="74"/>
+      <c r="J239" s="74"/>
+      <c r="K239" s="76"/>
     </row>
     <row r="240" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="75" t="s">
+      <c r="A240" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B240" s="83"/>
-      <c r="C240" s="84"/>
+      <c r="B240" s="78"/>
+      <c r="C240" s="79"/>
       <c r="D240" s="10"/>
       <c r="E240" s="47"/>
       <c r="F240" s="10"/>
-      <c r="G240" s="85"/>
-      <c r="H240" s="86"/>
-      <c r="I240" s="86"/>
-      <c r="J240" s="86"/>
-      <c r="K240" s="87"/>
+      <c r="G240" s="86"/>
+      <c r="H240" s="87"/>
+      <c r="I240" s="87"/>
+      <c r="J240" s="87"/>
+      <c r="K240" s="88"/>
     </row>
     <row r="241" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="79"/>
-      <c r="B241" s="80"/>
-      <c r="C241" s="80"/>
-      <c r="D241" s="80"/>
-      <c r="E241" s="80"/>
-      <c r="F241" s="80"/>
-      <c r="G241" s="80"/>
-      <c r="H241" s="80"/>
-      <c r="I241" s="80"/>
-      <c r="J241" s="80"/>
-      <c r="K241" s="97"/>
+      <c r="A241" s="92"/>
+      <c r="B241" s="93"/>
+      <c r="C241" s="93"/>
+      <c r="D241" s="93"/>
+      <c r="E241" s="93"/>
+      <c r="F241" s="93"/>
+      <c r="G241" s="93"/>
+      <c r="H241" s="93"/>
+      <c r="I241" s="93"/>
+      <c r="J241" s="93"/>
+      <c r="K241" s="124"/>
     </row>
     <row r="242" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="212" t="s">
+      <c r="A242" s="136" t="s">
         <v>217</v>
       </c>
-      <c r="B242" s="213"/>
-      <c r="C242" s="213"/>
+      <c r="B242" s="137"/>
+      <c r="C242" s="137"/>
       <c r="D242" s="32"/>
       <c r="E242" s="43" t="s">
         <v>2</v>
@@ -8412,78 +8406,78 @@
       <c r="F242" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G242" s="105" t="s">
+      <c r="G242" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="H242" s="105"/>
-      <c r="I242" s="105"/>
-      <c r="J242" s="105"/>
-      <c r="K242" s="106"/>
+      <c r="H242" s="125"/>
+      <c r="I242" s="125"/>
+      <c r="J242" s="125"/>
+      <c r="K242" s="126"/>
     </row>
     <row r="243" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="152" t="s">
+      <c r="A243" s="142" t="s">
         <v>218</v>
       </c>
-      <c r="B243" s="153"/>
-      <c r="C243" s="214"/>
+      <c r="B243" s="143"/>
+      <c r="C243" s="144"/>
       <c r="D243" s="10"/>
       <c r="E243" s="16"/>
       <c r="F243" s="10"/>
-      <c r="G243" s="79"/>
-      <c r="H243" s="80"/>
-      <c r="I243" s="80"/>
-      <c r="J243" s="80"/>
-      <c r="K243" s="97"/>
+      <c r="G243" s="92"/>
+      <c r="H243" s="93"/>
+      <c r="I243" s="93"/>
+      <c r="J243" s="93"/>
+      <c r="K243" s="124"/>
     </row>
     <row r="244" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="75" t="s">
+      <c r="A244" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B244" s="83"/>
-      <c r="C244" s="84"/>
+      <c r="B244" s="78"/>
+      <c r="C244" s="79"/>
       <c r="D244" s="10"/>
       <c r="E244" s="47"/>
       <c r="F244" s="10"/>
-      <c r="G244" s="75"/>
-      <c r="H244" s="76"/>
-      <c r="I244" s="76"/>
-      <c r="J244" s="76"/>
-      <c r="K244" s="78"/>
+      <c r="G244" s="73"/>
+      <c r="H244" s="74"/>
+      <c r="I244" s="74"/>
+      <c r="J244" s="74"/>
+      <c r="K244" s="76"/>
     </row>
     <row r="245" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="75" t="s">
+      <c r="A245" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B245" s="83"/>
-      <c r="C245" s="84"/>
+      <c r="B245" s="78"/>
+      <c r="C245" s="79"/>
       <c r="D245" s="10"/>
       <c r="E245" s="47"/>
       <c r="F245" s="10"/>
-      <c r="G245" s="85"/>
-      <c r="H245" s="86"/>
-      <c r="I245" s="86"/>
-      <c r="J245" s="86"/>
-      <c r="K245" s="87"/>
+      <c r="G245" s="86"/>
+      <c r="H245" s="87"/>
+      <c r="I245" s="87"/>
+      <c r="J245" s="87"/>
+      <c r="K245" s="88"/>
     </row>
     <row r="246" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="75"/>
-      <c r="B246" s="76"/>
-      <c r="C246" s="76"/>
-      <c r="D246" s="76"/>
-      <c r="E246" s="76"/>
-      <c r="F246" s="76"/>
-      <c r="G246" s="76"/>
-      <c r="H246" s="76"/>
-      <c r="I246" s="76"/>
-      <c r="J246" s="76"/>
-      <c r="K246" s="78"/>
+      <c r="A246" s="73"/>
+      <c r="B246" s="74"/>
+      <c r="C246" s="74"/>
+      <c r="D246" s="74"/>
+      <c r="E246" s="74"/>
+      <c r="F246" s="74"/>
+      <c r="G246" s="74"/>
+      <c r="H246" s="74"/>
+      <c r="I246" s="74"/>
+      <c r="J246" s="74"/>
+      <c r="K246" s="76"/>
     </row>
     <row r="247" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="70" t="s">
+      <c r="A247" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="B247" s="71"/>
-      <c r="C247" s="72"/>
+      <c r="B247" s="69"/>
+      <c r="C247" s="70"/>
       <c r="D247" s="34"/>
       <c r="E247" s="6" t="s">
         <v>2</v>
@@ -8491,93 +8485,93 @@
       <c r="F247" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G247" s="73" t="s">
+      <c r="G247" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H247" s="73"/>
-      <c r="I247" s="73"/>
-      <c r="J247" s="73"/>
-      <c r="K247" s="74"/>
+      <c r="H247" s="71"/>
+      <c r="I247" s="71"/>
+      <c r="J247" s="71"/>
+      <c r="K247" s="72"/>
     </row>
     <row r="248" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="75" t="s">
+      <c r="A248" s="73" t="s">
         <v>220</v>
       </c>
-      <c r="B248" s="76"/>
-      <c r="C248" s="77"/>
+      <c r="B248" s="74"/>
+      <c r="C248" s="75"/>
       <c r="D248" s="10"/>
       <c r="E248" s="19"/>
       <c r="F248" s="10"/>
-      <c r="G248" s="75"/>
-      <c r="H248" s="76"/>
-      <c r="I248" s="76"/>
-      <c r="J248" s="76"/>
-      <c r="K248" s="78"/>
+      <c r="G248" s="73"/>
+      <c r="H248" s="74"/>
+      <c r="I248" s="74"/>
+      <c r="J248" s="74"/>
+      <c r="K248" s="76"/>
     </row>
     <row r="249" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="79" t="s">
+      <c r="A249" s="92" t="s">
         <v>221</v>
       </c>
-      <c r="B249" s="80"/>
-      <c r="C249" s="81"/>
+      <c r="B249" s="93"/>
+      <c r="C249" s="94"/>
       <c r="D249" s="9"/>
       <c r="E249" s="10"/>
       <c r="F249" s="9"/>
-      <c r="G249" s="82"/>
-      <c r="H249" s="83"/>
-      <c r="I249" s="83"/>
-      <c r="J249" s="83"/>
-      <c r="K249" s="84"/>
+      <c r="G249" s="77"/>
+      <c r="H249" s="78"/>
+      <c r="I249" s="78"/>
+      <c r="J249" s="78"/>
+      <c r="K249" s="79"/>
     </row>
     <row r="250" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="75" t="s">
+      <c r="A250" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B250" s="83"/>
-      <c r="C250" s="84"/>
+      <c r="B250" s="78"/>
+      <c r="C250" s="79"/>
       <c r="D250" s="10"/>
       <c r="E250" s="58"/>
       <c r="F250" s="10"/>
-      <c r="G250" s="85"/>
-      <c r="H250" s="86"/>
-      <c r="I250" s="86"/>
-      <c r="J250" s="86"/>
-      <c r="K250" s="87"/>
+      <c r="G250" s="86"/>
+      <c r="H250" s="87"/>
+      <c r="I250" s="87"/>
+      <c r="J250" s="87"/>
+      <c r="K250" s="88"/>
     </row>
     <row r="251" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="75" t="s">
+      <c r="A251" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B251" s="83"/>
-      <c r="C251" s="84"/>
+      <c r="B251" s="78"/>
+      <c r="C251" s="79"/>
       <c r="D251" s="10"/>
       <c r="E251" s="58"/>
       <c r="F251" s="10"/>
-      <c r="G251" s="85"/>
-      <c r="H251" s="86"/>
-      <c r="I251" s="86"/>
-      <c r="J251" s="86"/>
-      <c r="K251" s="87"/>
+      <c r="G251" s="86"/>
+      <c r="H251" s="87"/>
+      <c r="I251" s="87"/>
+      <c r="J251" s="87"/>
+      <c r="K251" s="88"/>
     </row>
     <row r="252" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="75"/>
-      <c r="B252" s="76"/>
-      <c r="C252" s="76"/>
-      <c r="D252" s="76"/>
-      <c r="E252" s="76"/>
-      <c r="F252" s="76"/>
-      <c r="G252" s="76"/>
-      <c r="H252" s="76"/>
-      <c r="I252" s="76"/>
-      <c r="J252" s="76"/>
-      <c r="K252" s="78"/>
+      <c r="A252" s="73"/>
+      <c r="B252" s="74"/>
+      <c r="C252" s="74"/>
+      <c r="D252" s="74"/>
+      <c r="E252" s="74"/>
+      <c r="F252" s="74"/>
+      <c r="G252" s="74"/>
+      <c r="H252" s="74"/>
+      <c r="I252" s="74"/>
+      <c r="J252" s="74"/>
+      <c r="K252" s="76"/>
     </row>
     <row r="253" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="70" t="s">
+      <c r="A253" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="B253" s="71"/>
-      <c r="C253" s="72"/>
+      <c r="B253" s="69"/>
+      <c r="C253" s="70"/>
       <c r="D253" s="34"/>
       <c r="E253" s="6" t="s">
         <v>2</v>
@@ -8585,73 +8579,73 @@
       <c r="F253" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G253" s="73" t="s">
+      <c r="G253" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H253" s="73"/>
-      <c r="I253" s="73"/>
-      <c r="J253" s="73"/>
-      <c r="K253" s="74"/>
+      <c r="H253" s="71"/>
+      <c r="I253" s="71"/>
+      <c r="J253" s="71"/>
+      <c r="K253" s="72"/>
     </row>
     <row r="254" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="75" t="s">
+      <c r="A254" s="73" t="s">
         <v>223</v>
       </c>
-      <c r="B254" s="76"/>
-      <c r="C254" s="77"/>
+      <c r="B254" s="74"/>
+      <c r="C254" s="75"/>
       <c r="D254" s="10"/>
       <c r="E254" s="19"/>
       <c r="F254" s="10"/>
-      <c r="G254" s="75"/>
-      <c r="H254" s="76"/>
-      <c r="I254" s="76"/>
-      <c r="J254" s="76"/>
-      <c r="K254" s="78"/>
+      <c r="G254" s="73"/>
+      <c r="H254" s="74"/>
+      <c r="I254" s="74"/>
+      <c r="J254" s="74"/>
+      <c r="K254" s="76"/>
     </row>
     <row r="255" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="79" t="s">
+      <c r="A255" s="92" t="s">
         <v>224</v>
       </c>
-      <c r="B255" s="80"/>
-      <c r="C255" s="81"/>
+      <c r="B255" s="93"/>
+      <c r="C255" s="94"/>
       <c r="D255" s="9"/>
       <c r="E255" s="10"/>
       <c r="F255" s="9"/>
-      <c r="G255" s="82"/>
-      <c r="H255" s="83"/>
-      <c r="I255" s="83"/>
-      <c r="J255" s="83"/>
-      <c r="K255" s="84"/>
+      <c r="G255" s="77"/>
+      <c r="H255" s="78"/>
+      <c r="I255" s="78"/>
+      <c r="J255" s="78"/>
+      <c r="K255" s="79"/>
     </row>
     <row r="256" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="75" t="s">
+      <c r="A256" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B256" s="83"/>
-      <c r="C256" s="84"/>
+      <c r="B256" s="78"/>
+      <c r="C256" s="79"/>
       <c r="D256" s="10"/>
       <c r="E256" s="58"/>
       <c r="F256" s="10"/>
-      <c r="G256" s="85"/>
-      <c r="H256" s="86"/>
-      <c r="I256" s="86"/>
-      <c r="J256" s="86"/>
-      <c r="K256" s="87"/>
+      <c r="G256" s="86"/>
+      <c r="H256" s="87"/>
+      <c r="I256" s="87"/>
+      <c r="J256" s="87"/>
+      <c r="K256" s="88"/>
     </row>
     <row r="257" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="75" t="s">
+      <c r="A257" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B257" s="83"/>
-      <c r="C257" s="84"/>
+      <c r="B257" s="78"/>
+      <c r="C257" s="79"/>
       <c r="D257" s="10"/>
       <c r="E257" s="58"/>
       <c r="F257" s="10"/>
-      <c r="G257" s="85"/>
-      <c r="H257" s="86"/>
-      <c r="I257" s="86"/>
-      <c r="J257" s="86"/>
-      <c r="K257" s="87"/>
+      <c r="G257" s="86"/>
+      <c r="H257" s="87"/>
+      <c r="I257" s="87"/>
+      <c r="J257" s="87"/>
+      <c r="K257" s="88"/>
     </row>
     <row r="258" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="54"/>
@@ -8667,11 +8661,11 @@
       <c r="K258" s="56"/>
     </row>
     <row r="259" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="70" t="s">
+      <c r="A259" s="68" t="s">
         <v>225</v>
       </c>
-      <c r="B259" s="71"/>
-      <c r="C259" s="72"/>
+      <c r="B259" s="69"/>
+      <c r="C259" s="70"/>
       <c r="D259" s="34"/>
       <c r="E259" s="6" t="s">
         <v>2</v>
@@ -8679,168 +8673,168 @@
       <c r="F259" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G259" s="73" t="s">
+      <c r="G259" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H259" s="73"/>
-      <c r="I259" s="73"/>
-      <c r="J259" s="73"/>
-      <c r="K259" s="74"/>
+      <c r="H259" s="71"/>
+      <c r="I259" s="71"/>
+      <c r="J259" s="71"/>
+      <c r="K259" s="72"/>
     </row>
     <row r="260" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="75" t="s">
+      <c r="A260" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="B260" s="76"/>
-      <c r="C260" s="77"/>
+      <c r="B260" s="74"/>
+      <c r="C260" s="75"/>
       <c r="D260" s="10"/>
       <c r="E260" s="19"/>
       <c r="F260" s="10"/>
-      <c r="G260" s="75"/>
-      <c r="H260" s="76"/>
-      <c r="I260" s="76"/>
-      <c r="J260" s="76"/>
-      <c r="K260" s="78"/>
+      <c r="G260" s="73"/>
+      <c r="H260" s="74"/>
+      <c r="I260" s="74"/>
+      <c r="J260" s="74"/>
+      <c r="K260" s="76"/>
     </row>
     <row r="261" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="79" t="s">
+      <c r="A261" s="92" t="s">
         <v>227</v>
       </c>
-      <c r="B261" s="80"/>
-      <c r="C261" s="81"/>
+      <c r="B261" s="93"/>
+      <c r="C261" s="94"/>
       <c r="D261" s="9"/>
       <c r="E261" s="10"/>
       <c r="F261" s="9"/>
-      <c r="G261" s="82"/>
-      <c r="H261" s="83"/>
-      <c r="I261" s="83"/>
-      <c r="J261" s="83"/>
-      <c r="K261" s="84"/>
+      <c r="G261" s="77"/>
+      <c r="H261" s="78"/>
+      <c r="I261" s="78"/>
+      <c r="J261" s="78"/>
+      <c r="K261" s="79"/>
     </row>
     <row r="262" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="79" t="s">
+      <c r="A262" s="92" t="s">
         <v>228</v>
       </c>
-      <c r="B262" s="80"/>
-      <c r="C262" s="81"/>
+      <c r="B262" s="93"/>
+      <c r="C262" s="94"/>
       <c r="D262" s="9"/>
       <c r="E262" s="10"/>
       <c r="F262" s="9"/>
-      <c r="G262" s="82"/>
-      <c r="H262" s="83"/>
-      <c r="I262" s="83"/>
-      <c r="J262" s="83"/>
-      <c r="K262" s="84"/>
+      <c r="G262" s="77"/>
+      <c r="H262" s="78"/>
+      <c r="I262" s="78"/>
+      <c r="J262" s="78"/>
+      <c r="K262" s="79"/>
     </row>
     <row r="263" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="136" t="s">
+      <c r="A263" s="236" t="s">
         <v>229</v>
       </c>
-      <c r="B263" s="137"/>
-      <c r="C263" s="138"/>
+      <c r="B263" s="237"/>
+      <c r="C263" s="238"/>
       <c r="D263" s="9"/>
       <c r="E263" s="61"/>
       <c r="F263" s="9"/>
-      <c r="G263" s="236"/>
-      <c r="H263" s="237"/>
-      <c r="I263" s="237"/>
-      <c r="J263" s="237"/>
-      <c r="K263" s="238"/>
+      <c r="G263" s="243"/>
+      <c r="H263" s="244"/>
+      <c r="I263" s="244"/>
+      <c r="J263" s="244"/>
+      <c r="K263" s="245"/>
     </row>
     <row r="264" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="136" t="s">
+      <c r="A264" s="236" t="s">
         <v>230</v>
       </c>
-      <c r="B264" s="137"/>
-      <c r="C264" s="138"/>
+      <c r="B264" s="237"/>
+      <c r="C264" s="238"/>
       <c r="D264" s="9"/>
       <c r="E264" s="10"/>
       <c r="F264" s="9"/>
-      <c r="G264" s="236"/>
-      <c r="H264" s="237"/>
-      <c r="I264" s="237"/>
-      <c r="J264" s="237"/>
-      <c r="K264" s="238"/>
+      <c r="G264" s="243"/>
+      <c r="H264" s="244"/>
+      <c r="I264" s="244"/>
+      <c r="J264" s="244"/>
+      <c r="K264" s="245"/>
     </row>
     <row r="265" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="136" t="s">
+      <c r="A265" s="236" t="s">
         <v>231</v>
       </c>
-      <c r="B265" s="137"/>
-      <c r="C265" s="138"/>
+      <c r="B265" s="237"/>
+      <c r="C265" s="238"/>
       <c r="D265" s="9"/>
       <c r="E265" s="61"/>
       <c r="F265" s="9"/>
-      <c r="G265" s="236"/>
-      <c r="H265" s="237"/>
-      <c r="I265" s="237"/>
-      <c r="J265" s="237"/>
-      <c r="K265" s="238"/>
+      <c r="G265" s="243"/>
+      <c r="H265" s="244"/>
+      <c r="I265" s="244"/>
+      <c r="J265" s="244"/>
+      <c r="K265" s="245"/>
     </row>
     <row r="266" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="136" t="s">
+      <c r="A266" s="236" t="s">
         <v>232</v>
       </c>
-      <c r="B266" s="137"/>
-      <c r="C266" s="138"/>
+      <c r="B266" s="237"/>
+      <c r="C266" s="238"/>
       <c r="D266" s="9"/>
       <c r="E266" s="10"/>
       <c r="F266" s="9"/>
-      <c r="G266" s="236"/>
-      <c r="H266" s="237"/>
-      <c r="I266" s="237"/>
-      <c r="J266" s="237"/>
-      <c r="K266" s="238"/>
+      <c r="G266" s="243"/>
+      <c r="H266" s="244"/>
+      <c r="I266" s="244"/>
+      <c r="J266" s="244"/>
+      <c r="K266" s="245"/>
     </row>
     <row r="267" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="75" t="s">
+      <c r="A267" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B267" s="83"/>
-      <c r="C267" s="84"/>
+      <c r="B267" s="78"/>
+      <c r="C267" s="79"/>
       <c r="D267" s="10"/>
-      <c r="E267" s="239"/>
+      <c r="E267" s="67"/>
       <c r="F267" s="10"/>
-      <c r="G267" s="85"/>
-      <c r="H267" s="86"/>
-      <c r="I267" s="86"/>
-      <c r="J267" s="86"/>
-      <c r="K267" s="87"/>
+      <c r="G267" s="86"/>
+      <c r="H267" s="87"/>
+      <c r="I267" s="87"/>
+      <c r="J267" s="87"/>
+      <c r="K267" s="88"/>
     </row>
     <row r="268" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="75" t="s">
+      <c r="A268" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B268" s="83"/>
-      <c r="C268" s="84"/>
+      <c r="B268" s="78"/>
+      <c r="C268" s="79"/>
       <c r="D268" s="10"/>
       <c r="E268" s="58"/>
       <c r="F268" s="10"/>
-      <c r="G268" s="85"/>
-      <c r="H268" s="86"/>
-      <c r="I268" s="86"/>
-      <c r="J268" s="86"/>
-      <c r="K268" s="87"/>
+      <c r="G268" s="86"/>
+      <c r="H268" s="87"/>
+      <c r="I268" s="87"/>
+      <c r="J268" s="87"/>
+      <c r="K268" s="88"/>
     </row>
     <row r="269" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="67"/>
-      <c r="B269" s="68"/>
-      <c r="C269" s="68"/>
-      <c r="D269" s="68"/>
-      <c r="E269" s="68"/>
-      <c r="F269" s="68"/>
-      <c r="G269" s="68"/>
-      <c r="H269" s="68"/>
-      <c r="I269" s="68"/>
-      <c r="J269" s="68"/>
-      <c r="K269" s="69"/>
+      <c r="A269" s="89"/>
+      <c r="B269" s="90"/>
+      <c r="C269" s="90"/>
+      <c r="D269" s="90"/>
+      <c r="E269" s="90"/>
+      <c r="F269" s="90"/>
+      <c r="G269" s="90"/>
+      <c r="H269" s="90"/>
+      <c r="I269" s="90"/>
+      <c r="J269" s="90"/>
+      <c r="K269" s="91"/>
     </row>
     <row r="270" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="70" t="s">
+      <c r="A270" s="68" t="s">
         <v>234</v>
       </c>
-      <c r="B270" s="71"/>
-      <c r="C270" s="72"/>
+      <c r="B270" s="69"/>
+      <c r="C270" s="70"/>
       <c r="D270" s="34"/>
       <c r="E270" s="6" t="s">
         <v>2</v>
@@ -8848,50 +8842,50 @@
       <c r="F270" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G270" s="73" t="s">
+      <c r="G270" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H270" s="73"/>
-      <c r="I270" s="73"/>
-      <c r="J270" s="73"/>
-      <c r="K270" s="74"/>
+      <c r="H270" s="71"/>
+      <c r="I270" s="71"/>
+      <c r="J270" s="71"/>
+      <c r="K270" s="72"/>
     </row>
     <row r="271" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="75" t="s">
+      <c r="A271" s="73" t="s">
         <v>233</v>
       </c>
-      <c r="B271" s="76"/>
-      <c r="C271" s="77"/>
+      <c r="B271" s="74"/>
+      <c r="C271" s="75"/>
       <c r="D271" s="10"/>
       <c r="E271" s="19"/>
       <c r="F271" s="10"/>
-      <c r="G271" s="75"/>
-      <c r="H271" s="76"/>
-      <c r="I271" s="76"/>
-      <c r="J271" s="76"/>
-      <c r="K271" s="78"/>
+      <c r="G271" s="73"/>
+      <c r="H271" s="74"/>
+      <c r="I271" s="74"/>
+      <c r="J271" s="74"/>
+      <c r="K271" s="76"/>
     </row>
     <row r="272" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="79" t="s">
+      <c r="A272" s="92" t="s">
         <v>235</v>
       </c>
-      <c r="B272" s="80"/>
-      <c r="C272" s="81"/>
+      <c r="B272" s="93"/>
+      <c r="C272" s="94"/>
       <c r="D272" s="9"/>
       <c r="E272" s="10"/>
       <c r="F272" s="9"/>
-      <c r="G272" s="82"/>
-      <c r="H272" s="83"/>
-      <c r="I272" s="83"/>
-      <c r="J272" s="83"/>
-      <c r="K272" s="84"/>
+      <c r="G272" s="77"/>
+      <c r="H272" s="78"/>
+      <c r="I272" s="78"/>
+      <c r="J272" s="78"/>
+      <c r="K272" s="79"/>
     </row>
     <row r="273" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="79" t="s">
+      <c r="A273" s="92" t="s">
         <v>236</v>
       </c>
-      <c r="B273" s="80"/>
-      <c r="C273" s="81"/>
+      <c r="B273" s="93"/>
+      <c r="C273" s="94"/>
       <c r="D273" s="9"/>
       <c r="E273" s="61"/>
       <c r="F273" s="9"/>
@@ -8902,11 +8896,11 @@
       <c r="K273" s="66"/>
     </row>
     <row r="274" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="79" t="s">
+      <c r="A274" s="92" t="s">
         <v>237</v>
       </c>
-      <c r="B274" s="80"/>
-      <c r="C274" s="81"/>
+      <c r="B274" s="93"/>
+      <c r="C274" s="94"/>
       <c r="D274" s="9"/>
       <c r="E274" s="10"/>
       <c r="F274" s="9"/>
@@ -8917,11 +8911,11 @@
       <c r="K274" s="66"/>
     </row>
     <row r="275" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="79" t="s">
+      <c r="A275" s="92" t="s">
         <v>238</v>
       </c>
-      <c r="B275" s="80"/>
-      <c r="C275" s="81"/>
+      <c r="B275" s="93"/>
+      <c r="C275" s="94"/>
       <c r="D275" s="9"/>
       <c r="E275" s="10"/>
       <c r="F275" s="9"/>
@@ -8932,11 +8926,11 @@
       <c r="K275" s="66"/>
     </row>
     <row r="276" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="79" t="s">
+      <c r="A276" s="92" t="s">
         <v>239</v>
       </c>
-      <c r="B276" s="80"/>
-      <c r="C276" s="81"/>
+      <c r="B276" s="93"/>
+      <c r="C276" s="94"/>
       <c r="D276" s="9"/>
       <c r="E276" s="61"/>
       <c r="F276" s="9"/>
@@ -8947,11 +8941,11 @@
       <c r="K276" s="66"/>
     </row>
     <row r="277" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="79" t="s">
+      <c r="A277" s="92" t="s">
         <v>240</v>
       </c>
-      <c r="B277" s="80"/>
-      <c r="C277" s="81"/>
+      <c r="B277" s="93"/>
+      <c r="C277" s="94"/>
       <c r="D277" s="9"/>
       <c r="E277" s="10"/>
       <c r="F277" s="9"/>
@@ -8962,54 +8956,54 @@
       <c r="K277" s="66"/>
     </row>
     <row r="278" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="75" t="s">
+      <c r="A278" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B278" s="83"/>
-      <c r="C278" s="84"/>
+      <c r="B278" s="78"/>
+      <c r="C278" s="79"/>
       <c r="D278" s="10"/>
-      <c r="E278" s="239"/>
+      <c r="E278" s="67"/>
       <c r="F278" s="10"/>
-      <c r="G278" s="85"/>
-      <c r="H278" s="86"/>
-      <c r="I278" s="86"/>
-      <c r="J278" s="86"/>
-      <c r="K278" s="87"/>
+      <c r="G278" s="86"/>
+      <c r="H278" s="87"/>
+      <c r="I278" s="87"/>
+      <c r="J278" s="87"/>
+      <c r="K278" s="88"/>
     </row>
     <row r="279" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="75" t="s">
+      <c r="A279" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B279" s="83"/>
-      <c r="C279" s="84"/>
+      <c r="B279" s="78"/>
+      <c r="C279" s="79"/>
       <c r="D279" s="10"/>
       <c r="E279" s="58"/>
       <c r="F279" s="10"/>
-      <c r="G279" s="85"/>
-      <c r="H279" s="86"/>
-      <c r="I279" s="86"/>
-      <c r="J279" s="86"/>
-      <c r="K279" s="87"/>
+      <c r="G279" s="86"/>
+      <c r="H279" s="87"/>
+      <c r="I279" s="87"/>
+      <c r="J279" s="87"/>
+      <c r="K279" s="88"/>
     </row>
     <row r="280" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="67"/>
-      <c r="B280" s="68"/>
-      <c r="C280" s="68"/>
-      <c r="D280" s="68"/>
-      <c r="E280" s="68"/>
-      <c r="F280" s="68"/>
-      <c r="G280" s="68"/>
-      <c r="H280" s="68"/>
-      <c r="I280" s="68"/>
-      <c r="J280" s="68"/>
-      <c r="K280" s="69"/>
+      <c r="A280" s="89"/>
+      <c r="B280" s="90"/>
+      <c r="C280" s="90"/>
+      <c r="D280" s="90"/>
+      <c r="E280" s="90"/>
+      <c r="F280" s="90"/>
+      <c r="G280" s="90"/>
+      <c r="H280" s="90"/>
+      <c r="I280" s="90"/>
+      <c r="J280" s="90"/>
+      <c r="K280" s="91"/>
     </row>
     <row r="281" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="70" t="s">
+      <c r="A281" s="68" t="s">
         <v>241</v>
       </c>
-      <c r="B281" s="71"/>
-      <c r="C281" s="72"/>
+      <c r="B281" s="69"/>
+      <c r="C281" s="70"/>
       <c r="D281" s="34"/>
       <c r="E281" s="6" t="s">
         <v>2</v>
@@ -9017,50 +9011,50 @@
       <c r="F281" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G281" s="73" t="s">
+      <c r="G281" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H281" s="73"/>
-      <c r="I281" s="73"/>
-      <c r="J281" s="73"/>
-      <c r="K281" s="74"/>
+      <c r="H281" s="71"/>
+      <c r="I281" s="71"/>
+      <c r="J281" s="71"/>
+      <c r="K281" s="72"/>
     </row>
     <row r="282" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="75" t="s">
-        <v>243</v>
-      </c>
-      <c r="B282" s="76"/>
-      <c r="C282" s="77"/>
+      <c r="A282" s="73" t="s">
+        <v>242</v>
+      </c>
+      <c r="B282" s="74"/>
+      <c r="C282" s="75"/>
       <c r="D282" s="10"/>
       <c r="E282" s="19"/>
       <c r="F282" s="10"/>
-      <c r="G282" s="75"/>
-      <c r="H282" s="76"/>
-      <c r="I282" s="76"/>
-      <c r="J282" s="76"/>
-      <c r="K282" s="78"/>
+      <c r="G282" s="73"/>
+      <c r="H282" s="74"/>
+      <c r="I282" s="74"/>
+      <c r="J282" s="74"/>
+      <c r="K282" s="76"/>
     </row>
     <row r="283" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="75" t="s">
-        <v>244</v>
-      </c>
-      <c r="B283" s="76"/>
-      <c r="C283" s="77"/>
+      <c r="A283" s="73" t="s">
+        <v>243</v>
+      </c>
+      <c r="B283" s="74"/>
+      <c r="C283" s="75"/>
       <c r="D283" s="9"/>
       <c r="E283" s="10"/>
       <c r="F283" s="9"/>
-      <c r="G283" s="82"/>
-      <c r="H283" s="83"/>
-      <c r="I283" s="83"/>
-      <c r="J283" s="83"/>
-      <c r="K283" s="84"/>
+      <c r="G283" s="77"/>
+      <c r="H283" s="78"/>
+      <c r="I283" s="78"/>
+      <c r="J283" s="78"/>
+      <c r="K283" s="79"/>
     </row>
     <row r="284" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="75" t="s">
-        <v>245</v>
-      </c>
-      <c r="B284" s="76"/>
-      <c r="C284" s="84"/>
+      <c r="A284" s="73" t="s">
+        <v>244</v>
+      </c>
+      <c r="B284" s="74"/>
+      <c r="C284" s="79"/>
       <c r="D284" s="9"/>
       <c r="E284" s="61"/>
       <c r="F284" s="9"/>
@@ -9071,11 +9065,11 @@
       <c r="K284" s="66"/>
     </row>
     <row r="285" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="240" t="s">
-        <v>246</v>
-      </c>
-      <c r="B285" s="241"/>
-      <c r="C285" s="242"/>
+      <c r="A285" s="83" t="s">
+        <v>248</v>
+      </c>
+      <c r="B285" s="84"/>
+      <c r="C285" s="85"/>
       <c r="D285" s="9"/>
       <c r="E285" s="10"/>
       <c r="F285" s="9"/>
@@ -9086,13 +9080,13 @@
       <c r="K285" s="66"/>
     </row>
     <row r="286" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="240" t="s">
-        <v>247</v>
-      </c>
-      <c r="B286" s="241"/>
-      <c r="C286" s="242"/>
+      <c r="A286" s="83" t="s">
+        <v>249</v>
+      </c>
+      <c r="B286" s="84"/>
+      <c r="C286" s="85"/>
       <c r="D286" s="9"/>
-      <c r="E286" s="10"/>
+      <c r="E286" s="61"/>
       <c r="F286" s="9"/>
       <c r="G286" s="64"/>
       <c r="H286" s="65"/>
@@ -9101,13 +9095,13 @@
       <c r="K286" s="66"/>
     </row>
     <row r="287" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="240" t="s">
-        <v>242</v>
-      </c>
-      <c r="B287" s="241"/>
-      <c r="C287" s="242"/>
+      <c r="A287" s="83" t="s">
+        <v>250</v>
+      </c>
+      <c r="B287" s="84"/>
+      <c r="C287" s="85"/>
       <c r="D287" s="9"/>
-      <c r="E287" s="61"/>
+      <c r="E287" s="10"/>
       <c r="F287" s="9"/>
       <c r="G287" s="64"/>
       <c r="H287" s="65"/>
@@ -9116,11 +9110,11 @@
       <c r="K287" s="66"/>
     </row>
     <row r="288" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="240" t="s">
-        <v>248</v>
-      </c>
-      <c r="B288" s="241"/>
-      <c r="C288" s="242"/>
+      <c r="A288" s="83" t="s">
+        <v>251</v>
+      </c>
+      <c r="B288" s="84"/>
+      <c r="C288" s="85"/>
       <c r="D288" s="9"/>
       <c r="E288" s="10"/>
       <c r="F288" s="9"/>
@@ -9131,11 +9125,11 @@
       <c r="K288" s="66"/>
     </row>
     <row r="289" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="240" t="s">
-        <v>249</v>
-      </c>
-      <c r="B289" s="241"/>
-      <c r="C289" s="242"/>
+      <c r="A289" s="83" t="s">
+        <v>252</v>
+      </c>
+      <c r="B289" s="84"/>
+      <c r="C289" s="85"/>
       <c r="D289" s="9"/>
       <c r="E289" s="10"/>
       <c r="F289" s="9"/>
@@ -9146,11 +9140,11 @@
       <c r="K289" s="66"/>
     </row>
     <row r="290" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="240" t="s">
-        <v>250</v>
-      </c>
-      <c r="B290" s="241"/>
-      <c r="C290" s="242"/>
+      <c r="A290" s="83" t="s">
+        <v>253</v>
+      </c>
+      <c r="B290" s="84"/>
+      <c r="C290" s="85"/>
       <c r="D290" s="9"/>
       <c r="E290" s="10"/>
       <c r="F290" s="9"/>
@@ -9161,11 +9155,11 @@
       <c r="K290" s="66"/>
     </row>
     <row r="291" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="240" t="s">
-        <v>251</v>
-      </c>
-      <c r="B291" s="241"/>
-      <c r="C291" s="242"/>
+      <c r="A291" s="83" t="s">
+        <v>254</v>
+      </c>
+      <c r="B291" s="84"/>
+      <c r="C291" s="85"/>
       <c r="D291" s="9"/>
       <c r="E291" s="10"/>
       <c r="F291" s="9"/>
@@ -9176,11 +9170,11 @@
       <c r="K291" s="66"/>
     </row>
     <row r="292" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="240" t="s">
-        <v>252</v>
-      </c>
-      <c r="B292" s="241"/>
-      <c r="C292" s="242"/>
+      <c r="A292" s="83" t="s">
+        <v>255</v>
+      </c>
+      <c r="B292" s="84"/>
+      <c r="C292" s="85"/>
       <c r="D292" s="9"/>
       <c r="E292" s="10"/>
       <c r="F292" s="9"/>
@@ -9191,11 +9185,11 @@
       <c r="K292" s="66"/>
     </row>
     <row r="293" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="240" t="s">
-        <v>253</v>
-      </c>
-      <c r="B293" s="241"/>
-      <c r="C293" s="242"/>
+      <c r="A293" s="83" t="s">
+        <v>256</v>
+      </c>
+      <c r="B293" s="84"/>
+      <c r="C293" s="85"/>
       <c r="D293" s="9"/>
       <c r="E293" s="10"/>
       <c r="F293" s="9"/>
@@ -9206,11 +9200,11 @@
       <c r="K293" s="66"/>
     </row>
     <row r="294" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="240" t="s">
-        <v>254</v>
-      </c>
-      <c r="B294" s="241"/>
-      <c r="C294" s="242"/>
+      <c r="A294" s="83" t="s">
+        <v>257</v>
+      </c>
+      <c r="B294" s="84"/>
+      <c r="C294" s="85"/>
       <c r="D294" s="9"/>
       <c r="E294" s="10"/>
       <c r="F294" s="9"/>
@@ -9221,13 +9215,13 @@
       <c r="K294" s="66"/>
     </row>
     <row r="295" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="240" t="s">
-        <v>255</v>
-      </c>
-      <c r="B295" s="241"/>
-      <c r="C295" s="242"/>
+      <c r="A295" s="83" t="s">
+        <v>258</v>
+      </c>
+      <c r="B295" s="84"/>
+      <c r="C295" s="85"/>
       <c r="D295" s="9"/>
-      <c r="E295" s="10"/>
+      <c r="E295" s="61"/>
       <c r="F295" s="9"/>
       <c r="G295" s="64"/>
       <c r="H295" s="65"/>
@@ -9235,422 +9229,830 @@
       <c r="J295" s="65"/>
       <c r="K295" s="66"/>
     </row>
-    <row r="296" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="240" t="s">
-        <v>256</v>
-      </c>
-      <c r="B296" s="241"/>
-      <c r="C296" s="242"/>
-      <c r="D296" s="9"/>
+    <row r="296" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B296" s="78"/>
+      <c r="C296" s="79"/>
+      <c r="D296" s="10"/>
       <c r="E296" s="10"/>
-      <c r="F296" s="9"/>
-      <c r="G296" s="64"/>
-      <c r="H296" s="65"/>
-      <c r="I296" s="65"/>
-      <c r="J296" s="65"/>
-      <c r="K296" s="66"/>
-    </row>
-    <row r="297" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="240" t="s">
-        <v>257</v>
-      </c>
-      <c r="B297" s="241"/>
-      <c r="C297" s="242"/>
-      <c r="D297" s="9"/>
-      <c r="E297" s="61"/>
-      <c r="F297" s="9"/>
-      <c r="G297" s="64"/>
-      <c r="H297" s="65"/>
-      <c r="I297" s="65"/>
-      <c r="J297" s="65"/>
-      <c r="K297" s="66"/>
+      <c r="F296" s="10"/>
+      <c r="G296" s="86"/>
+      <c r="H296" s="87"/>
+      <c r="I296" s="87"/>
+      <c r="J296" s="87"/>
+      <c r="K296" s="88"/>
+    </row>
+    <row r="297" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B297" s="78"/>
+      <c r="C297" s="79"/>
+      <c r="D297" s="10"/>
+      <c r="E297" s="67"/>
+      <c r="F297" s="10"/>
+      <c r="G297" s="86"/>
+      <c r="H297" s="87"/>
+      <c r="I297" s="87"/>
+      <c r="J297" s="87"/>
+      <c r="K297" s="88"/>
     </row>
     <row r="298" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="75" t="s">
+      <c r="A298" s="60"/>
+      <c r="B298" s="63"/>
+      <c r="C298" s="63"/>
+      <c r="D298" s="59"/>
+      <c r="E298" s="61"/>
+      <c r="F298" s="59"/>
+      <c r="G298" s="61"/>
+      <c r="H298" s="61"/>
+      <c r="I298" s="61"/>
+      <c r="J298" s="61"/>
+      <c r="K298" s="62"/>
+    </row>
+    <row r="299" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="68" t="s">
+        <v>245</v>
+      </c>
+      <c r="B299" s="69"/>
+      <c r="C299" s="70"/>
+      <c r="D299" s="34"/>
+      <c r="E299" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F299" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G299" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="H299" s="71"/>
+      <c r="I299" s="71"/>
+      <c r="J299" s="71"/>
+      <c r="K299" s="72"/>
+    </row>
+    <row r="300" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="73" t="s">
+        <v>246</v>
+      </c>
+      <c r="B300" s="74"/>
+      <c r="C300" s="75"/>
+      <c r="D300" s="10"/>
+      <c r="E300" s="19"/>
+      <c r="F300" s="10"/>
+      <c r="G300" s="73"/>
+      <c r="H300" s="74"/>
+      <c r="I300" s="74"/>
+      <c r="J300" s="74"/>
+      <c r="K300" s="76"/>
+    </row>
+    <row r="301" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="73" t="s">
+        <v>247</v>
+      </c>
+      <c r="B301" s="74"/>
+      <c r="C301" s="75"/>
+      <c r="D301" s="9"/>
+      <c r="E301" s="10"/>
+      <c r="F301" s="9"/>
+      <c r="G301" s="77"/>
+      <c r="H301" s="78"/>
+      <c r="I301" s="78"/>
+      <c r="J301" s="78"/>
+      <c r="K301" s="79"/>
+    </row>
+    <row r="302" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B298" s="83"/>
-      <c r="C298" s="84"/>
-      <c r="D298" s="10"/>
-      <c r="E298" s="10"/>
-      <c r="F298" s="10"/>
-      <c r="G298" s="85"/>
-      <c r="H298" s="86"/>
-      <c r="I298" s="86"/>
-      <c r="J298" s="86"/>
-      <c r="K298" s="87"/>
-    </row>
-    <row r="299" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="75" t="s">
+      <c r="B302" s="78"/>
+      <c r="C302" s="79"/>
+      <c r="D302" s="9"/>
+      <c r="E302" s="61"/>
+      <c r="F302" s="9"/>
+      <c r="G302" s="64"/>
+      <c r="H302" s="65"/>
+      <c r="I302" s="65"/>
+      <c r="J302" s="65"/>
+      <c r="K302" s="66"/>
+    </row>
+    <row r="303" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B299" s="83"/>
-      <c r="C299" s="84"/>
-      <c r="D299" s="10"/>
-      <c r="E299" s="239"/>
-      <c r="F299" s="10"/>
-      <c r="G299" s="85"/>
-      <c r="H299" s="86"/>
-      <c r="I299" s="86"/>
-      <c r="J299" s="86"/>
-      <c r="K299" s="87"/>
-    </row>
-    <row r="300" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="60"/>
-      <c r="B300" s="63"/>
-      <c r="C300" s="63"/>
-      <c r="D300" s="59"/>
-      <c r="E300" s="61"/>
-      <c r="F300" s="59"/>
-      <c r="G300" s="61"/>
-      <c r="H300" s="61"/>
-      <c r="I300" s="61"/>
-      <c r="J300" s="61"/>
-      <c r="K300" s="62"/>
-    </row>
-    <row r="301" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="70" t="s">
-        <v>258</v>
-      </c>
-      <c r="B301" s="71"/>
-      <c r="C301" s="72"/>
-      <c r="D301" s="34"/>
-      <c r="E301" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F301" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G301" s="73" t="s">
-        <v>3</v>
-      </c>
-      <c r="H301" s="73"/>
-      <c r="I301" s="73"/>
-      <c r="J301" s="73"/>
-      <c r="K301" s="74"/>
-    </row>
-    <row r="302" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="75" t="s">
-        <v>259</v>
-      </c>
-      <c r="B302" s="76"/>
-      <c r="C302" s="77"/>
-      <c r="D302" s="10"/>
-      <c r="E302" s="19"/>
-      <c r="F302" s="10"/>
-      <c r="G302" s="75"/>
-      <c r="H302" s="76"/>
-      <c r="I302" s="76"/>
-      <c r="J302" s="76"/>
-      <c r="K302" s="78"/>
-    </row>
-    <row r="303" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="75" t="s">
-        <v>260</v>
-      </c>
-      <c r="B303" s="76"/>
-      <c r="C303" s="77"/>
-      <c r="D303" s="9"/>
+      <c r="B303" s="78"/>
+      <c r="C303" s="79"/>
+      <c r="D303" s="10"/>
       <c r="E303" s="10"/>
-      <c r="F303" s="9"/>
-      <c r="G303" s="82"/>
-      <c r="H303" s="83"/>
-      <c r="I303" s="83"/>
-      <c r="J303" s="83"/>
-      <c r="K303" s="84"/>
-    </row>
-    <row r="304" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="75" t="s">
-        <v>144</v>
-      </c>
-      <c r="B304" s="83"/>
-      <c r="C304" s="84"/>
-      <c r="D304" s="9"/>
-      <c r="E304" s="61"/>
-      <c r="F304" s="9"/>
-      <c r="G304" s="64"/>
-      <c r="H304" s="65"/>
-      <c r="I304" s="65"/>
-      <c r="J304" s="65"/>
-      <c r="K304" s="66"/>
-    </row>
-    <row r="305" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="75" t="s">
-        <v>144</v>
-      </c>
-      <c r="B305" s="83"/>
-      <c r="C305" s="84"/>
-      <c r="D305" s="10"/>
-      <c r="E305" s="10"/>
-      <c r="F305" s="10"/>
-      <c r="G305" s="64"/>
-      <c r="H305" s="65"/>
-      <c r="I305" s="65"/>
-      <c r="J305" s="65"/>
-      <c r="K305" s="66"/>
+      <c r="F303" s="10"/>
+      <c r="G303" s="64"/>
+      <c r="H303" s="65"/>
+      <c r="I303" s="65"/>
+      <c r="J303" s="65"/>
+      <c r="K303" s="66"/>
+    </row>
+    <row r="304" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="80"/>
+      <c r="B304" s="81"/>
+      <c r="C304" s="81"/>
+      <c r="D304" s="81"/>
+      <c r="E304" s="81"/>
+      <c r="F304" s="81"/>
+      <c r="G304" s="81"/>
+      <c r="H304" s="81"/>
+      <c r="I304" s="81"/>
+      <c r="J304" s="81"/>
+      <c r="K304" s="82"/>
+    </row>
+    <row r="305" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="133" t="s">
+        <v>129</v>
+      </c>
+      <c r="B305" s="134"/>
+      <c r="C305" s="134"/>
+      <c r="D305" s="134"/>
+      <c r="E305" s="134"/>
+      <c r="F305" s="134"/>
+      <c r="G305" s="134"/>
+      <c r="H305" s="134"/>
+      <c r="I305" s="134"/>
+      <c r="J305" s="134"/>
+      <c r="K305" s="135"/>
     </row>
     <row r="306" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="243"/>
-      <c r="B306" s="244"/>
-      <c r="C306" s="244"/>
-      <c r="D306" s="244"/>
-      <c r="E306" s="244"/>
-      <c r="F306" s="244"/>
-      <c r="G306" s="244"/>
-      <c r="H306" s="244"/>
-      <c r="I306" s="244"/>
-      <c r="J306" s="244"/>
-      <c r="K306" s="245"/>
-    </row>
-    <row r="307" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A307" s="121" t="s">
-        <v>129</v>
-      </c>
-      <c r="B307" s="122"/>
-      <c r="C307" s="122"/>
-      <c r="D307" s="122"/>
-      <c r="E307" s="122"/>
-      <c r="F307" s="122"/>
-      <c r="G307" s="122"/>
-      <c r="H307" s="122"/>
-      <c r="I307" s="122"/>
-      <c r="J307" s="122"/>
-      <c r="K307" s="123"/>
-    </row>
-    <row r="308" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="139" t="s">
+      <c r="A306" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="B308" s="140"/>
-      <c r="C308" s="140"/>
-      <c r="D308" s="140"/>
-      <c r="E308" s="140"/>
-      <c r="F308" s="140"/>
-      <c r="G308" s="140"/>
-      <c r="H308" s="140"/>
-      <c r="I308" s="140"/>
-      <c r="J308" s="140"/>
-      <c r="K308" s="141"/>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A309" s="198" t="s">
+      <c r="B306" s="117"/>
+      <c r="C306" s="117"/>
+      <c r="D306" s="117"/>
+      <c r="E306" s="117"/>
+      <c r="F306" s="117"/>
+      <c r="G306" s="117"/>
+      <c r="H306" s="117"/>
+      <c r="I306" s="117"/>
+      <c r="J306" s="117"/>
+      <c r="K306" s="118"/>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A307" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="B309" s="199"/>
-      <c r="C309" s="200"/>
-      <c r="D309" s="219"/>
-      <c r="E309" s="220"/>
-      <c r="F309" s="220"/>
-      <c r="G309" s="220"/>
-      <c r="H309" s="220"/>
-      <c r="I309" s="220"/>
-      <c r="J309" s="220"/>
-      <c r="K309" s="221"/>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A310" s="201" t="s">
+      <c r="B307" s="152"/>
+      <c r="C307" s="153"/>
+      <c r="D307" s="119"/>
+      <c r="E307" s="120"/>
+      <c r="F307" s="120"/>
+      <c r="G307" s="120"/>
+      <c r="H307" s="120"/>
+      <c r="I307" s="120"/>
+      <c r="J307" s="120"/>
+      <c r="K307" s="121"/>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A308" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="B310" s="202"/>
-      <c r="C310" s="202"/>
-      <c r="D310" s="194"/>
-      <c r="E310" s="194"/>
-      <c r="F310" s="194"/>
-      <c r="G310" s="194"/>
-      <c r="H310" s="194"/>
-      <c r="I310" s="194"/>
-      <c r="J310" s="194"/>
-      <c r="K310" s="195"/>
-    </row>
-    <row r="311" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="203" t="s">
+      <c r="B308" s="155"/>
+      <c r="C308" s="155"/>
+      <c r="D308" s="122"/>
+      <c r="E308" s="122"/>
+      <c r="F308" s="122"/>
+      <c r="G308" s="122"/>
+      <c r="H308" s="122"/>
+      <c r="I308" s="122"/>
+      <c r="J308" s="122"/>
+      <c r="K308" s="123"/>
+    </row>
+    <row r="309" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="B311" s="204"/>
-      <c r="C311" s="204"/>
-      <c r="D311" s="210"/>
-      <c r="E311" s="210"/>
-      <c r="F311" s="210"/>
-      <c r="G311" s="210"/>
-      <c r="H311" s="210"/>
-      <c r="I311" s="210"/>
-      <c r="J311" s="210"/>
-      <c r="K311" s="211"/>
-    </row>
-    <row r="312" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="205" t="s">
+      <c r="B309" s="157"/>
+      <c r="C309" s="157"/>
+      <c r="D309" s="163"/>
+      <c r="E309" s="163"/>
+      <c r="F309" s="163"/>
+      <c r="G309" s="163"/>
+      <c r="H309" s="163"/>
+      <c r="I309" s="163"/>
+      <c r="J309" s="163"/>
+      <c r="K309" s="164"/>
+    </row>
+    <row r="310" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="158" t="s">
         <v>126</v>
       </c>
-      <c r="B312" s="206"/>
-      <c r="C312" s="206"/>
-      <c r="D312" s="206"/>
-      <c r="E312" s="206"/>
-      <c r="F312" s="206"/>
-      <c r="G312" s="206"/>
-      <c r="H312" s="206"/>
-      <c r="I312" s="206"/>
-      <c r="J312" s="206"/>
-      <c r="K312" s="207"/>
-    </row>
-    <row r="313" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="208" t="s">
+      <c r="B310" s="159"/>
+      <c r="C310" s="159"/>
+      <c r="D310" s="159"/>
+      <c r="E310" s="159"/>
+      <c r="F310" s="159"/>
+      <c r="G310" s="159"/>
+      <c r="H310" s="159"/>
+      <c r="I310" s="159"/>
+      <c r="J310" s="159"/>
+      <c r="K310" s="160"/>
+    </row>
+    <row r="311" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="B313" s="209"/>
-      <c r="C313" s="209"/>
-      <c r="D313" s="192"/>
-      <c r="E313" s="192"/>
-      <c r="F313" s="192"/>
-      <c r="G313" s="192"/>
-      <c r="H313" s="192"/>
-      <c r="I313" s="192"/>
-      <c r="J313" s="192"/>
-      <c r="K313" s="193"/>
-    </row>
-    <row r="314" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="201" t="s">
+      <c r="B311" s="162"/>
+      <c r="C311" s="162"/>
+      <c r="D311" s="147"/>
+      <c r="E311" s="147"/>
+      <c r="F311" s="147"/>
+      <c r="G311" s="147"/>
+      <c r="H311" s="147"/>
+      <c r="I311" s="147"/>
+      <c r="J311" s="147"/>
+      <c r="K311" s="148"/>
+    </row>
+    <row r="312" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="B314" s="202"/>
-      <c r="C314" s="202"/>
-      <c r="D314" s="194"/>
-      <c r="E314" s="194"/>
-      <c r="F314" s="194"/>
-      <c r="G314" s="194"/>
-      <c r="H314" s="194"/>
-      <c r="I314" s="194"/>
-      <c r="J314" s="194"/>
-      <c r="K314" s="195"/>
-    </row>
-    <row r="315" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="203" t="s">
+      <c r="B312" s="155"/>
+      <c r="C312" s="155"/>
+      <c r="D312" s="122"/>
+      <c r="E312" s="122"/>
+      <c r="F312" s="122"/>
+      <c r="G312" s="122"/>
+      <c r="H312" s="122"/>
+      <c r="I312" s="122"/>
+      <c r="J312" s="122"/>
+      <c r="K312" s="123"/>
+    </row>
+    <row r="313" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="B315" s="204"/>
-      <c r="C315" s="204"/>
-      <c r="D315" s="210"/>
-      <c r="E315" s="210"/>
-      <c r="F315" s="210"/>
-      <c r="G315" s="210"/>
-      <c r="H315" s="210"/>
-      <c r="I315" s="210"/>
-      <c r="J315" s="210"/>
-      <c r="K315" s="211"/>
-    </row>
-    <row r="316" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="205" t="s">
+      <c r="B313" s="157"/>
+      <c r="C313" s="157"/>
+      <c r="D313" s="163"/>
+      <c r="E313" s="163"/>
+      <c r="F313" s="163"/>
+      <c r="G313" s="163"/>
+      <c r="H313" s="163"/>
+      <c r="I313" s="163"/>
+      <c r="J313" s="163"/>
+      <c r="K313" s="164"/>
+    </row>
+    <row r="314" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="158" t="s">
         <v>127</v>
       </c>
-      <c r="B316" s="206"/>
-      <c r="C316" s="206"/>
-      <c r="D316" s="206"/>
-      <c r="E316" s="206"/>
-      <c r="F316" s="206"/>
-      <c r="G316" s="206"/>
-      <c r="H316" s="206"/>
-      <c r="I316" s="206"/>
-      <c r="J316" s="206"/>
-      <c r="K316" s="207"/>
-    </row>
-    <row r="317" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="208" t="s">
+      <c r="B314" s="159"/>
+      <c r="C314" s="159"/>
+      <c r="D314" s="159"/>
+      <c r="E314" s="159"/>
+      <c r="F314" s="159"/>
+      <c r="G314" s="159"/>
+      <c r="H314" s="159"/>
+      <c r="I314" s="159"/>
+      <c r="J314" s="159"/>
+      <c r="K314" s="160"/>
+    </row>
+    <row r="315" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="B317" s="209"/>
-      <c r="C317" s="209"/>
-      <c r="D317" s="192"/>
-      <c r="E317" s="192"/>
-      <c r="F317" s="192"/>
-      <c r="G317" s="192"/>
-      <c r="H317" s="192"/>
-      <c r="I317" s="192"/>
-      <c r="J317" s="192"/>
-      <c r="K317" s="193"/>
-    </row>
-    <row r="318" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="201" t="s">
+      <c r="B315" s="162"/>
+      <c r="C315" s="162"/>
+      <c r="D315" s="147"/>
+      <c r="E315" s="147"/>
+      <c r="F315" s="147"/>
+      <c r="G315" s="147"/>
+      <c r="H315" s="147"/>
+      <c r="I315" s="147"/>
+      <c r="J315" s="147"/>
+      <c r="K315" s="148"/>
+    </row>
+    <row r="316" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="B318" s="202"/>
-      <c r="C318" s="202"/>
-      <c r="D318" s="194"/>
-      <c r="E318" s="194"/>
-      <c r="F318" s="194"/>
-      <c r="G318" s="194"/>
-      <c r="H318" s="194"/>
-      <c r="I318" s="194"/>
-      <c r="J318" s="194"/>
-      <c r="K318" s="195"/>
-    </row>
-    <row r="319" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="190" t="s">
+      <c r="B316" s="155"/>
+      <c r="C316" s="155"/>
+      <c r="D316" s="122"/>
+      <c r="E316" s="122"/>
+      <c r="F316" s="122"/>
+      <c r="G316" s="122"/>
+      <c r="H316" s="122"/>
+      <c r="I316" s="122"/>
+      <c r="J316" s="122"/>
+      <c r="K316" s="123"/>
+    </row>
+    <row r="317" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="B319" s="191"/>
-      <c r="C319" s="191"/>
-      <c r="D319" s="196"/>
-      <c r="E319" s="196"/>
-      <c r="F319" s="196"/>
-      <c r="G319" s="196"/>
-      <c r="H319" s="196"/>
-      <c r="I319" s="196"/>
-      <c r="J319" s="196"/>
-      <c r="K319" s="197"/>
+      <c r="B317" s="146"/>
+      <c r="C317" s="146"/>
+      <c r="D317" s="149"/>
+      <c r="E317" s="149"/>
+      <c r="F317" s="149"/>
+      <c r="G317" s="149"/>
+      <c r="H317" s="149"/>
+      <c r="I317" s="149"/>
+      <c r="J317" s="149"/>
+      <c r="K317" s="150"/>
     </row>
   </sheetData>
-  <mergeCells count="571">
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="G301:K301"/>
-    <mergeCell ref="A302:C302"/>
-    <mergeCell ref="G302:K302"/>
-    <mergeCell ref="A303:C303"/>
-    <mergeCell ref="G303:K303"/>
-    <mergeCell ref="A304:C304"/>
-    <mergeCell ref="A305:C305"/>
+  <mergeCells count="569">
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="G278:K278"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="A277:C277"/>
+    <mergeCell ref="A273:C273"/>
+    <mergeCell ref="A274:C274"/>
+    <mergeCell ref="A269:K269"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="G270:K270"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="G271:K271"/>
+    <mergeCell ref="A272:C272"/>
+    <mergeCell ref="G272:K272"/>
+    <mergeCell ref="G260:K260"/>
+    <mergeCell ref="A261:C261"/>
+    <mergeCell ref="G261:K261"/>
+    <mergeCell ref="A267:C267"/>
+    <mergeCell ref="G267:K267"/>
+    <mergeCell ref="G268:K268"/>
+    <mergeCell ref="A268:C268"/>
+    <mergeCell ref="A262:C262"/>
+    <mergeCell ref="G262:K262"/>
+    <mergeCell ref="G263:K263"/>
+    <mergeCell ref="G264:K264"/>
+    <mergeCell ref="G265:K265"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A264:C264"/>
+    <mergeCell ref="A265:C265"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="G266:K266"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="G99:K99"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="G141:K141"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="G149:K149"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="G197:K197"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="G250:K250"/>
+    <mergeCell ref="G201:K201"/>
+    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="G213:K213"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A216:C216"/>
+    <mergeCell ref="G216:K216"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="G219:K219"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="G172:K172"/>
+    <mergeCell ref="G180:K180"/>
+    <mergeCell ref="A181:C181"/>
+    <mergeCell ref="G181:K181"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="G49:K49"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="G76:K76"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="G86:K86"/>
+    <mergeCell ref="A245:C245"/>
+    <mergeCell ref="G245:K245"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="G196:K196"/>
+    <mergeCell ref="A202:C202"/>
+    <mergeCell ref="G202:K202"/>
+    <mergeCell ref="A217:C217"/>
+    <mergeCell ref="G217:K217"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="G229:K229"/>
+    <mergeCell ref="A230:C230"/>
+    <mergeCell ref="G230:K230"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="G210:K210"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="G211:K211"/>
+    <mergeCell ref="G189:K189"/>
+    <mergeCell ref="A190:C190"/>
+    <mergeCell ref="G190:K190"/>
+    <mergeCell ref="G179:K179"/>
+    <mergeCell ref="G174:K174"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="G183:K183"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="A187:C187"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="G184:K184"/>
+    <mergeCell ref="G185:K185"/>
+    <mergeCell ref="G186:K186"/>
+    <mergeCell ref="G188:K188"/>
+    <mergeCell ref="G187:K187"/>
+    <mergeCell ref="G127:K127"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="G128:K128"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="G136:K136"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="G140:K140"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="G147:K147"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="G143:K143"/>
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="G130:K130"/>
+    <mergeCell ref="A142:K142"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="G148:K148"/>
+    <mergeCell ref="G85:K85"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="G92:K92"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="G93:K93"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="G97:K97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="G98:K98"/>
+    <mergeCell ref="G144:K144"/>
+    <mergeCell ref="G145:K145"/>
+    <mergeCell ref="G146:K146"/>
+    <mergeCell ref="G119:K119"/>
+    <mergeCell ref="G118:K118"/>
+    <mergeCell ref="G117:K117"/>
+    <mergeCell ref="G116:K116"/>
+    <mergeCell ref="G115:K115"/>
+    <mergeCell ref="G114:K114"/>
+    <mergeCell ref="G113:K113"/>
+    <mergeCell ref="G112:K112"/>
+    <mergeCell ref="G111:K111"/>
+    <mergeCell ref="G110:K110"/>
+    <mergeCell ref="A191:K191"/>
+    <mergeCell ref="A198:K198"/>
+    <mergeCell ref="A203:K203"/>
+    <mergeCell ref="A212:K212"/>
+    <mergeCell ref="A218:K218"/>
+    <mergeCell ref="G233:K233"/>
+    <mergeCell ref="G234:K234"/>
+    <mergeCell ref="A246:K246"/>
+    <mergeCell ref="A241:K241"/>
+    <mergeCell ref="A236:K236"/>
+    <mergeCell ref="A231:K231"/>
+    <mergeCell ref="A199:C199"/>
+    <mergeCell ref="G199:K199"/>
+    <mergeCell ref="A200:C200"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="G192:K192"/>
+    <mergeCell ref="A193:C193"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="G193:K193"/>
+    <mergeCell ref="G194:K194"/>
+    <mergeCell ref="G195:K195"/>
+    <mergeCell ref="G200:K200"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="G169:K169"/>
+    <mergeCell ref="G170:K170"/>
+    <mergeCell ref="G171:K171"/>
+    <mergeCell ref="G175:K175"/>
+    <mergeCell ref="G176:K176"/>
+    <mergeCell ref="G177:K177"/>
+    <mergeCell ref="G178:K178"/>
+    <mergeCell ref="G131:K131"/>
+    <mergeCell ref="G132:K132"/>
+    <mergeCell ref="G133:K133"/>
+    <mergeCell ref="G135:K135"/>
+    <mergeCell ref="G134:K134"/>
+    <mergeCell ref="G139:K139"/>
+    <mergeCell ref="G137:K137"/>
+    <mergeCell ref="G138:K138"/>
+    <mergeCell ref="G106:K106"/>
+    <mergeCell ref="G124:K124"/>
+    <mergeCell ref="G123:K123"/>
+    <mergeCell ref="G122:K122"/>
+    <mergeCell ref="G121:K121"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="G120:K120"/>
+    <mergeCell ref="G153:K153"/>
+    <mergeCell ref="G154:K154"/>
+    <mergeCell ref="G159:K159"/>
+    <mergeCell ref="G160:K160"/>
+    <mergeCell ref="G158:K158"/>
+    <mergeCell ref="A150:K150"/>
+    <mergeCell ref="A162:K162"/>
+    <mergeCell ref="A173:K173"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="G157:K157"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="G151:K151"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A156:K156"/>
+    <mergeCell ref="A167:C167"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="G102:K102"/>
+    <mergeCell ref="G103:K103"/>
+    <mergeCell ref="G104:K104"/>
+    <mergeCell ref="G105:K105"/>
+    <mergeCell ref="G91:K91"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="G68:K68"/>
+    <mergeCell ref="G69:K69"/>
+    <mergeCell ref="G70:K70"/>
+    <mergeCell ref="G71:K71"/>
+    <mergeCell ref="G72:K72"/>
+    <mergeCell ref="G73:K73"/>
+    <mergeCell ref="G79:K79"/>
+    <mergeCell ref="G81:K81"/>
+    <mergeCell ref="G82:K82"/>
+    <mergeCell ref="G78:K78"/>
+    <mergeCell ref="G88:K88"/>
+    <mergeCell ref="G95:K95"/>
+    <mergeCell ref="G101:K101"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="G46:K46"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="G47:K47"/>
+    <mergeCell ref="G55:K55"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="G62:K62"/>
+    <mergeCell ref="G61:K61"/>
+    <mergeCell ref="A59:K59"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="G48:K48"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="G50:K50"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="G58:K58"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="A51:K51"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="G84:K84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="G83:K83"/>
+    <mergeCell ref="G53:K53"/>
+    <mergeCell ref="G54:K54"/>
+    <mergeCell ref="G63:K63"/>
+    <mergeCell ref="G64:K64"/>
+    <mergeCell ref="G66:K66"/>
+    <mergeCell ref="G65:K65"/>
+    <mergeCell ref="G67:K67"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="G60:K60"/>
+    <mergeCell ref="G96:K96"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="G109:K109"/>
+    <mergeCell ref="G108:K108"/>
+    <mergeCell ref="G107:K107"/>
+    <mergeCell ref="G89:K89"/>
+    <mergeCell ref="G90:K90"/>
+    <mergeCell ref="G164:K164"/>
+    <mergeCell ref="G165:K165"/>
+    <mergeCell ref="G166:K166"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="G163:K163"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="G152:K152"/>
+    <mergeCell ref="G168:K168"/>
+    <mergeCell ref="G167:K167"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="G155:K155"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="G161:K161"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="G204:K204"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A208:C208"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="G205:K205"/>
+    <mergeCell ref="G206:K206"/>
+    <mergeCell ref="G207:K207"/>
+    <mergeCell ref="G208:K208"/>
+    <mergeCell ref="G209:K209"/>
+    <mergeCell ref="G214:K214"/>
+    <mergeCell ref="G215:K215"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A180:C180"/>
+    <mergeCell ref="A220:C220"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="A222:C222"/>
+    <mergeCell ref="A223:C223"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A225:C225"/>
+    <mergeCell ref="A226:C226"/>
+    <mergeCell ref="A227:C227"/>
+    <mergeCell ref="A228:C228"/>
+    <mergeCell ref="G240:K240"/>
+    <mergeCell ref="G220:K220"/>
+    <mergeCell ref="G221:K221"/>
+    <mergeCell ref="G222:K222"/>
+    <mergeCell ref="G223:K223"/>
+    <mergeCell ref="G224:K224"/>
+    <mergeCell ref="G225:K225"/>
+    <mergeCell ref="G227:K227"/>
+    <mergeCell ref="G226:K226"/>
+    <mergeCell ref="G228:K228"/>
+    <mergeCell ref="A317:C317"/>
+    <mergeCell ref="D315:K315"/>
+    <mergeCell ref="D316:K316"/>
+    <mergeCell ref="D317:K317"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="A308:C308"/>
+    <mergeCell ref="A309:C309"/>
+    <mergeCell ref="A310:K310"/>
+    <mergeCell ref="A314:K314"/>
+    <mergeCell ref="A311:C311"/>
+    <mergeCell ref="A312:C312"/>
+    <mergeCell ref="A313:C313"/>
+    <mergeCell ref="D311:K311"/>
+    <mergeCell ref="D312:K312"/>
+    <mergeCell ref="D313:K313"/>
+    <mergeCell ref="A315:C315"/>
+    <mergeCell ref="A316:C316"/>
+    <mergeCell ref="D309:K309"/>
+    <mergeCell ref="A305:K305"/>
+    <mergeCell ref="A242:C242"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="A182:K182"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A77:K77"/>
+    <mergeCell ref="A87:K87"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="A129:K129"/>
+    <mergeCell ref="A100:K100"/>
+    <mergeCell ref="A94:K94"/>
+    <mergeCell ref="A174:C174"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="A176:C176"/>
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="G242:K242"/>
+    <mergeCell ref="A243:C243"/>
+    <mergeCell ref="A244:C244"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="G125:K125"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="G126:K126"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="G18:K18"/>
     <mergeCell ref="A306:K306"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="A298:C298"/>
-    <mergeCell ref="G298:K298"/>
-    <mergeCell ref="A299:C299"/>
-    <mergeCell ref="G299:K299"/>
-    <mergeCell ref="A280:K280"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A287:C287"/>
-    <mergeCell ref="A289:C289"/>
-    <mergeCell ref="A291:C291"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="A292:C292"/>
-    <mergeCell ref="A294:C294"/>
-    <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A295:C295"/>
-    <mergeCell ref="A281:C281"/>
-    <mergeCell ref="G281:K281"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="G282:K282"/>
-    <mergeCell ref="A283:C283"/>
-    <mergeCell ref="G283:K283"/>
-    <mergeCell ref="A284:C284"/>
-    <mergeCell ref="A285:C285"/>
-    <mergeCell ref="A286:C286"/>
-    <mergeCell ref="G253:K253"/>
-    <mergeCell ref="A254:C254"/>
-    <mergeCell ref="G254:K254"/>
-    <mergeCell ref="A255:C255"/>
-    <mergeCell ref="G255:K255"/>
-    <mergeCell ref="A257:C257"/>
-    <mergeCell ref="G257:K257"/>
-    <mergeCell ref="A247:C247"/>
-    <mergeCell ref="G247:K247"/>
-    <mergeCell ref="A248:C248"/>
-    <mergeCell ref="G248:K248"/>
-    <mergeCell ref="A249:C249"/>
-    <mergeCell ref="G249:K249"/>
-    <mergeCell ref="A251:C251"/>
-    <mergeCell ref="G251:K251"/>
-    <mergeCell ref="A252:K252"/>
-    <mergeCell ref="A256:C256"/>
-    <mergeCell ref="G256:K256"/>
+    <mergeCell ref="D307:K307"/>
+    <mergeCell ref="D308:K308"/>
+    <mergeCell ref="G243:K243"/>
+    <mergeCell ref="G244:K244"/>
+    <mergeCell ref="A237:C237"/>
+    <mergeCell ref="G237:K237"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A232:C232"/>
+    <mergeCell ref="G232:K232"/>
+    <mergeCell ref="A233:C233"/>
+    <mergeCell ref="A234:C234"/>
+    <mergeCell ref="G238:K238"/>
+    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="G235:K235"/>
+    <mergeCell ref="A239:C239"/>
+    <mergeCell ref="G239:K239"/>
+    <mergeCell ref="A240:C240"/>
+    <mergeCell ref="A253:C253"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="G17:K17"/>
     <mergeCell ref="A21:C21"/>
@@ -9675,507 +10077,67 @@
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="G52:K52"/>
     <mergeCell ref="G43:K43"/>
-    <mergeCell ref="G125:K125"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="G126:K126"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="A308:K308"/>
-    <mergeCell ref="D309:K309"/>
-    <mergeCell ref="D310:K310"/>
-    <mergeCell ref="G243:K243"/>
-    <mergeCell ref="G244:K244"/>
-    <mergeCell ref="A237:C237"/>
-    <mergeCell ref="G237:K237"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A232:C232"/>
-    <mergeCell ref="G232:K232"/>
-    <mergeCell ref="A233:C233"/>
-    <mergeCell ref="A234:C234"/>
-    <mergeCell ref="G238:K238"/>
-    <mergeCell ref="A235:C235"/>
-    <mergeCell ref="G235:K235"/>
-    <mergeCell ref="A239:C239"/>
-    <mergeCell ref="G239:K239"/>
-    <mergeCell ref="A240:C240"/>
-    <mergeCell ref="A253:C253"/>
-    <mergeCell ref="A307:K307"/>
-    <mergeCell ref="A242:C242"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="A182:K182"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A77:K77"/>
-    <mergeCell ref="A87:K87"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A129:K129"/>
-    <mergeCell ref="A100:K100"/>
-    <mergeCell ref="A94:K94"/>
-    <mergeCell ref="A174:C174"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="A176:C176"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="G242:K242"/>
-    <mergeCell ref="A243:C243"/>
-    <mergeCell ref="A244:C244"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A319:C319"/>
-    <mergeCell ref="D317:K317"/>
-    <mergeCell ref="D318:K318"/>
-    <mergeCell ref="D319:K319"/>
-    <mergeCell ref="A309:C309"/>
-    <mergeCell ref="A310:C310"/>
-    <mergeCell ref="A311:C311"/>
-    <mergeCell ref="A312:K312"/>
-    <mergeCell ref="A316:K316"/>
-    <mergeCell ref="A313:C313"/>
-    <mergeCell ref="A314:C314"/>
-    <mergeCell ref="A315:C315"/>
-    <mergeCell ref="D313:K313"/>
-    <mergeCell ref="D314:K314"/>
-    <mergeCell ref="D315:K315"/>
-    <mergeCell ref="A317:C317"/>
-    <mergeCell ref="A318:C318"/>
-    <mergeCell ref="D311:K311"/>
-    <mergeCell ref="G240:K240"/>
-    <mergeCell ref="G220:K220"/>
-    <mergeCell ref="G221:K221"/>
-    <mergeCell ref="G222:K222"/>
-    <mergeCell ref="G223:K223"/>
-    <mergeCell ref="G224:K224"/>
-    <mergeCell ref="G225:K225"/>
-    <mergeCell ref="G227:K227"/>
-    <mergeCell ref="G226:K226"/>
-    <mergeCell ref="G228:K228"/>
-    <mergeCell ref="A220:C220"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="A222:C222"/>
-    <mergeCell ref="A223:C223"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A225:C225"/>
-    <mergeCell ref="A226:C226"/>
-    <mergeCell ref="A227:C227"/>
-    <mergeCell ref="A228:C228"/>
-    <mergeCell ref="G168:K168"/>
-    <mergeCell ref="G167:K167"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="G155:K155"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="G161:K161"/>
-    <mergeCell ref="A215:C215"/>
-    <mergeCell ref="A204:C204"/>
-    <mergeCell ref="G204:K204"/>
-    <mergeCell ref="A205:C205"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A208:C208"/>
-    <mergeCell ref="A209:C209"/>
-    <mergeCell ref="G205:K205"/>
-    <mergeCell ref="G206:K206"/>
-    <mergeCell ref="G207:K207"/>
-    <mergeCell ref="G208:K208"/>
-    <mergeCell ref="G209:K209"/>
-    <mergeCell ref="G214:K214"/>
-    <mergeCell ref="G215:K215"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A180:C180"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="G109:K109"/>
-    <mergeCell ref="G108:K108"/>
-    <mergeCell ref="G107:K107"/>
-    <mergeCell ref="G89:K89"/>
-    <mergeCell ref="G90:K90"/>
-    <mergeCell ref="G164:K164"/>
-    <mergeCell ref="G165:K165"/>
-    <mergeCell ref="G166:K166"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="G163:K163"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="A165:C165"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="G152:K152"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="G60:K60"/>
-    <mergeCell ref="G96:K96"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="G83:K83"/>
-    <mergeCell ref="G53:K53"/>
-    <mergeCell ref="G54:K54"/>
-    <mergeCell ref="G63:K63"/>
-    <mergeCell ref="G64:K64"/>
-    <mergeCell ref="G66:K66"/>
-    <mergeCell ref="G65:K65"/>
-    <mergeCell ref="G67:K67"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="G84:K84"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="G46:K46"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="G47:K47"/>
-    <mergeCell ref="G55:K55"/>
-    <mergeCell ref="G56:K56"/>
-    <mergeCell ref="G62:K62"/>
-    <mergeCell ref="G61:K61"/>
-    <mergeCell ref="A59:K59"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="G48:K48"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="G50:K50"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="G57:K57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="G58:K58"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="A51:K51"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="G102:K102"/>
-    <mergeCell ref="G103:K103"/>
-    <mergeCell ref="G104:K104"/>
-    <mergeCell ref="G105:K105"/>
-    <mergeCell ref="G91:K91"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="G68:K68"/>
-    <mergeCell ref="G69:K69"/>
-    <mergeCell ref="G70:K70"/>
-    <mergeCell ref="G71:K71"/>
-    <mergeCell ref="G72:K72"/>
-    <mergeCell ref="G73:K73"/>
-    <mergeCell ref="G79:K79"/>
-    <mergeCell ref="G81:K81"/>
-    <mergeCell ref="G82:K82"/>
-    <mergeCell ref="G78:K78"/>
-    <mergeCell ref="G88:K88"/>
-    <mergeCell ref="G95:K95"/>
-    <mergeCell ref="G101:K101"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="G153:K153"/>
-    <mergeCell ref="G154:K154"/>
-    <mergeCell ref="G159:K159"/>
-    <mergeCell ref="G160:K160"/>
-    <mergeCell ref="G158:K158"/>
-    <mergeCell ref="A150:K150"/>
-    <mergeCell ref="A162:K162"/>
-    <mergeCell ref="A173:K173"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="G157:K157"/>
-    <mergeCell ref="A158:C158"/>
-    <mergeCell ref="A159:C159"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="G151:K151"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A156:K156"/>
-    <mergeCell ref="A167:C167"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A171:C171"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="G169:K169"/>
-    <mergeCell ref="G170:K170"/>
-    <mergeCell ref="G171:K171"/>
-    <mergeCell ref="G175:K175"/>
-    <mergeCell ref="G176:K176"/>
-    <mergeCell ref="G177:K177"/>
-    <mergeCell ref="G178:K178"/>
-    <mergeCell ref="G131:K131"/>
-    <mergeCell ref="G132:K132"/>
-    <mergeCell ref="G133:K133"/>
-    <mergeCell ref="G135:K135"/>
-    <mergeCell ref="G134:K134"/>
-    <mergeCell ref="G139:K139"/>
-    <mergeCell ref="G137:K137"/>
-    <mergeCell ref="G138:K138"/>
-    <mergeCell ref="G106:K106"/>
-    <mergeCell ref="G124:K124"/>
-    <mergeCell ref="G123:K123"/>
-    <mergeCell ref="G122:K122"/>
-    <mergeCell ref="G121:K121"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="G120:K120"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="A191:K191"/>
-    <mergeCell ref="A198:K198"/>
-    <mergeCell ref="A203:K203"/>
-    <mergeCell ref="A212:K212"/>
-    <mergeCell ref="A218:K218"/>
-    <mergeCell ref="G233:K233"/>
-    <mergeCell ref="G234:K234"/>
-    <mergeCell ref="A246:K246"/>
-    <mergeCell ref="A241:K241"/>
-    <mergeCell ref="A236:K236"/>
-    <mergeCell ref="A231:K231"/>
-    <mergeCell ref="A199:C199"/>
-    <mergeCell ref="G199:K199"/>
-    <mergeCell ref="A200:C200"/>
-    <mergeCell ref="A201:C201"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="G192:K192"/>
-    <mergeCell ref="A193:C193"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="G193:K193"/>
-    <mergeCell ref="G194:K194"/>
-    <mergeCell ref="G195:K195"/>
-    <mergeCell ref="G200:K200"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="G148:K148"/>
-    <mergeCell ref="G85:K85"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="G92:K92"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="G93:K93"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="G97:K97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="G98:K98"/>
-    <mergeCell ref="G144:K144"/>
-    <mergeCell ref="G145:K145"/>
-    <mergeCell ref="G146:K146"/>
-    <mergeCell ref="G119:K119"/>
-    <mergeCell ref="G118:K118"/>
-    <mergeCell ref="G117:K117"/>
-    <mergeCell ref="G116:K116"/>
-    <mergeCell ref="G115:K115"/>
-    <mergeCell ref="G114:K114"/>
-    <mergeCell ref="G113:K113"/>
-    <mergeCell ref="G112:K112"/>
-    <mergeCell ref="G111:K111"/>
-    <mergeCell ref="G110:K110"/>
-    <mergeCell ref="G127:K127"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="G128:K128"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="G136:K136"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="G140:K140"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="G147:K147"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="G143:K143"/>
-    <mergeCell ref="A144:C144"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="G130:K130"/>
-    <mergeCell ref="A142:K142"/>
-    <mergeCell ref="G189:K189"/>
-    <mergeCell ref="A190:C190"/>
-    <mergeCell ref="G190:K190"/>
-    <mergeCell ref="G179:K179"/>
-    <mergeCell ref="G174:K174"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="G183:K183"/>
-    <mergeCell ref="A184:C184"/>
-    <mergeCell ref="A185:C185"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="A187:C187"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="G184:K184"/>
-    <mergeCell ref="G185:K185"/>
-    <mergeCell ref="G186:K186"/>
-    <mergeCell ref="G188:K188"/>
-    <mergeCell ref="G187:K187"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="G49:K49"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="G76:K76"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="G86:K86"/>
-    <mergeCell ref="A245:C245"/>
-    <mergeCell ref="G245:K245"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="G196:K196"/>
-    <mergeCell ref="A202:C202"/>
-    <mergeCell ref="G202:K202"/>
-    <mergeCell ref="A217:C217"/>
-    <mergeCell ref="G217:K217"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="G229:K229"/>
-    <mergeCell ref="A230:C230"/>
-    <mergeCell ref="G230:K230"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="G210:K210"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="G211:K211"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="G99:K99"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="G141:K141"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="G149:K149"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="G197:K197"/>
-    <mergeCell ref="A250:C250"/>
-    <mergeCell ref="G250:K250"/>
-    <mergeCell ref="G201:K201"/>
-    <mergeCell ref="A213:C213"/>
-    <mergeCell ref="G213:K213"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A216:C216"/>
-    <mergeCell ref="G216:K216"/>
-    <mergeCell ref="A219:C219"/>
-    <mergeCell ref="G219:K219"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="G172:K172"/>
-    <mergeCell ref="G180:K180"/>
-    <mergeCell ref="A181:C181"/>
-    <mergeCell ref="G181:K181"/>
-    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="A285:C285"/>
+    <mergeCell ref="G253:K253"/>
+    <mergeCell ref="A254:C254"/>
+    <mergeCell ref="G254:K254"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="G255:K255"/>
+    <mergeCell ref="A257:C257"/>
+    <mergeCell ref="G257:K257"/>
+    <mergeCell ref="A247:C247"/>
+    <mergeCell ref="G247:K247"/>
+    <mergeCell ref="A248:C248"/>
+    <mergeCell ref="G248:K248"/>
+    <mergeCell ref="A249:C249"/>
+    <mergeCell ref="G249:K249"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="G251:K251"/>
+    <mergeCell ref="A252:K252"/>
+    <mergeCell ref="A256:C256"/>
+    <mergeCell ref="G256:K256"/>
     <mergeCell ref="A279:C279"/>
     <mergeCell ref="G279:K279"/>
     <mergeCell ref="A259:C259"/>
     <mergeCell ref="G259:K259"/>
     <mergeCell ref="A260:C260"/>
-    <mergeCell ref="G260:K260"/>
-    <mergeCell ref="A261:C261"/>
-    <mergeCell ref="G261:K261"/>
-    <mergeCell ref="A267:C267"/>
-    <mergeCell ref="G267:K267"/>
-    <mergeCell ref="G268:K268"/>
-    <mergeCell ref="A268:C268"/>
-    <mergeCell ref="A262:C262"/>
-    <mergeCell ref="G262:K262"/>
-    <mergeCell ref="G263:K263"/>
-    <mergeCell ref="G264:K264"/>
-    <mergeCell ref="G265:K265"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A264:C264"/>
-    <mergeCell ref="A265:C265"/>
-    <mergeCell ref="A266:C266"/>
-    <mergeCell ref="G266:K266"/>
-    <mergeCell ref="A273:C273"/>
-    <mergeCell ref="A274:C274"/>
-    <mergeCell ref="A269:K269"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="G270:K270"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="G271:K271"/>
-    <mergeCell ref="A272:C272"/>
-    <mergeCell ref="G272:K272"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="G278:K278"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A276:C276"/>
-    <mergeCell ref="A277:C277"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="G296:K296"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="G297:K297"/>
+    <mergeCell ref="A280:K280"/>
+    <mergeCell ref="A295:C295"/>
+    <mergeCell ref="A286:C286"/>
+    <mergeCell ref="A289:C289"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A292:C292"/>
+    <mergeCell ref="A294:C294"/>
+    <mergeCell ref="A291:C291"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A281:C281"/>
+    <mergeCell ref="G281:K281"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="G282:K282"/>
+    <mergeCell ref="A283:C283"/>
+    <mergeCell ref="G283:K283"/>
+    <mergeCell ref="A284:C284"/>
+    <mergeCell ref="A299:C299"/>
+    <mergeCell ref="G299:K299"/>
+    <mergeCell ref="A300:C300"/>
+    <mergeCell ref="G300:K300"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="G301:K301"/>
+    <mergeCell ref="A302:C302"/>
+    <mergeCell ref="A303:C303"/>
+    <mergeCell ref="A304:K304"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D238:D240 D243:D245 D131:D141 D152:D155 D158:D161 D164:D172 D175:D181 D184:D190 D144:D149 D200:D202 D205:D211 D214:D217 D220:D230 D233:D235 D29:D35 D15:D26 D53:D58 D38:D50 D248:D251 D89:D93 D79:D86 D102:D128 D96:D99 D61:D76 D193:D197 D254:D258 D260:D268 D271:D279 D282:D300 D302:D305">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D238:D240 D243:D245 D131:D141 D152:D155 D158:D161 D164:D172 D175:D181 D184:D190 D144:D149 D200:D202 D205:D211 D214:D217 D220:D230 D233:D235 D29:D35 D15:D26 D53:D58 D38:D50 D248:D251 D89:D93 D79:D86 D102:D128 D96:D99 D61:D76 D193:D197 D254:D258 D260:D268 D271:D279 D300:D303 D282:D298">
       <formula1>$O$2:$O$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F238:F240 F243:F245 F131:F141 F152:F155 F158:F161 F164:F172 F175:F181 F184:F190 F144:F149 F200:F202 F205:F211 F214:F217 F220:F230 F233:F235 F29:F35 F15:F26 F53:F58 F38:F50 F248:F251 F89:F93 F79:F86 F102:F128 F96:F99 F61:F76 F193:F197 F254:F258 F260:F268 F271:F279 F282:F300 F302:F305">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F238:F240 F243:F245 F131:F141 F152:F155 F158:F161 F164:F172 F175:F181 F184:F190 F144:F149 F200:F202 F205:F211 F214:F217 F220:F230 F233:F235 F29:F35 F15:F26 F53:F58 F38:F50 F248:F251 F89:F93 F79:F86 F102:F128 F96:F99 F61:F76 F193:F197 F254:F258 F260:F268 F271:F279 F300:F303 F282:F298">
       <formula1>$M$2:$M$4</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:K10">
